--- a/INSPIRE/BHR-P INSPIRE mapping.xlsx
+++ b/INSPIRE/BHR-P INSPIRE mapping.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vreedeid\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vosj1\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03713AE4-661E-42E4-B0AF-F37735ED9162}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1483B0FB-1424-4D65-A333-EE63D91BA200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{9EC988E2-FBDB-4D73-8B6C-36B7CA6B99DA}"/>
+    <workbookView xWindow="3384" yWindow="3384" windowWidth="30960" windowHeight="12204" xr2:uid="{9EC988E2-FBDB-4D73-8B6C-36B7CA6B99DA}"/>
   </bookViews>
   <sheets>
-    <sheet name="Inleiding + uitgangspunt(en)" sheetId="2" r:id="rId1"/>
-    <sheet name="Mapping" sheetId="1" r:id="rId2"/>
+    <sheet name="Versiehistorie" sheetId="3" r:id="rId1"/>
+    <sheet name="Inleiding + uitgangspunt(en)" sheetId="2" r:id="rId2"/>
+    <sheet name="Mapping" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1244" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1251" uniqueCount="425">
   <si>
     <t>INSPIRE Application Schema 'Soil' (version 3.0)</t>
   </si>
@@ -1782,6 +1783,27 @@
   </si>
   <si>
     <t>Uitgangsunt</t>
+  </si>
+  <si>
+    <t>Datum</t>
+  </si>
+  <si>
+    <t>Auteur</t>
+  </si>
+  <si>
+    <t>Irene de Vreede</t>
+  </si>
+  <si>
+    <t>Jacob Vos</t>
+  </si>
+  <si>
+    <t>Opmerkingen</t>
+  </si>
+  <si>
+    <t>BHR-P catalogus versie 3.0 van 25-03-2020 verwerkt.</t>
+  </si>
+  <si>
+    <t>Tab 'Versiehistorie' toegevoegd.</t>
   </si>
 </sst>
 </file>
@@ -3268,7 +3290,7 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="54" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="403">
+  <cellXfs count="405">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -4179,9 +4201,287 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="48" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="37" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="37" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="37" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="64" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="35" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="35" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="35" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="35" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="35" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="35" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="35" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="35" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="35" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="36" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="48" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="43" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="35" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="35" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="35" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="35" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="35" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="49" fillId="35" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="33" fillId="35" borderId="26" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -4194,284 +4494,12 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="35" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="35" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="35" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="35" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="35" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="35" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="35" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="35" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="36" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="48" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="43" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="35" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="35" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="35" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="35" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="35" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="35" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="48" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="35" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="37" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="37" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="37" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="37" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="37" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="37" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="64" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="65">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -4540,7 +4568,24 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="5">
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="d/m/yyyy"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -4556,6 +4601,18 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E1B5367F-5984-440B-AA5E-E038832E8BE1}" name="Table2" displayName="Table2" ref="A1:C3" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+  <autoFilter ref="A1:C3" xr:uid="{E1B5367F-5984-440B-AA5E-E038832E8BE1}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{3B7620E9-2724-4EC8-895F-236800022218}" name="Datum" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{763D4B01-9A07-4CB0-AD8F-12267E62F4FD}" name="Auteur" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{C4128D66-85F4-47CD-BC7A-BD5D09038CF6}" name="Opmerkingen" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4854,6 +4911,63 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0145EFC-D383-480B-921A-260DD7020D92}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.33203125" style="403" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" style="403" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.77734375" style="403" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="403"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="403" t="s">
+        <v>418</v>
+      </c>
+      <c r="B1" s="403" t="s">
+        <v>419</v>
+      </c>
+      <c r="C1" s="403" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="404">
+        <v>44469</v>
+      </c>
+      <c r="B2" s="403" t="s">
+        <v>420</v>
+      </c>
+      <c r="C2" s="403" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="404">
+        <v>44824</v>
+      </c>
+      <c r="B3" s="403" t="s">
+        <v>421</v>
+      </c>
+      <c r="C3" s="403" t="s">
+        <v>424</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63DEB1A9-BE3B-4756-8642-0318C8321472}">
   <dimension ref="B1:B29"/>
   <sheetViews>
@@ -4861,131 +4975,131 @@
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="114.453125" style="402" customWidth="1"/>
+    <col min="2" max="2" width="114.44140625" style="337" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B1" s="401" t="s">
+    <row r="1" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B1" s="336" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="2" spans="2:2" ht="37.5" x14ac:dyDescent="0.35">
-      <c r="B2" s="397" t="s">
+    <row r="2" spans="2:2" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="B2" s="332" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="3" spans="2:2" ht="25" x14ac:dyDescent="0.35">
-      <c r="B3" s="397" t="s">
+    <row r="3" spans="2:2" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="B3" s="332" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B4" s="397"/>
-    </row>
-    <row r="5" spans="2:2" ht="25" x14ac:dyDescent="0.35">
-      <c r="B5" s="397" t="s">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B4" s="332"/>
+    </row>
+    <row r="5" spans="2:2" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="B5" s="332" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="6" spans="2:2" ht="37.5" x14ac:dyDescent="0.35">
-      <c r="B6" s="397" t="s">
+    <row r="6" spans="2:2" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="B6" s="332" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B7" s="397"/>
-    </row>
-    <row r="8" spans="2:2" ht="25" x14ac:dyDescent="0.35">
-      <c r="B8" s="397" t="s">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B7" s="332"/>
+    </row>
+    <row r="8" spans="2:2" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="B8" s="332" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B9" s="398" t="s">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B9" s="333" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B10" s="398" t="s">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B10" s="333" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B11" s="398" t="s">
+    <row r="11" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B11" s="333" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B12" s="398" t="s">
+    <row r="12" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B12" s="333" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B13" s="398" t="s">
+    <row r="13" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B13" s="333" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B14" s="398" t="s">
+    <row r="14" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B14" s="333" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B15" s="398" t="s">
+    <row r="15" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B15" s="333" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B16" s="397"/>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B17" s="397" t="s">
+    <row r="16" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B16" s="332"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" s="332" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B18" s="397"/>
-    </row>
-    <row r="19" spans="2:2" ht="37.5" x14ac:dyDescent="0.35">
-      <c r="B19" s="397" t="s">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B18" s="332"/>
+    </row>
+    <row r="19" spans="2:2" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="B19" s="332" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B20" s="399"/>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B21" s="397" t="s">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B20" s="334"/>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B21" s="332" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B22" s="400" t="s">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B22" s="335" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B23" s="397"/>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B24" s="397" t="s">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B23" s="332"/>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B24" s="332" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="25" spans="2:2" ht="25" x14ac:dyDescent="0.35">
-      <c r="B25" s="400" t="s">
+    <row r="25" spans="2:2" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="B25" s="335" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B28" s="401" t="s">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B28" s="336" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B29" s="402" t="s">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B29" s="337" t="s">
         <v>416</v>
       </c>
     </row>
@@ -4999,50 +5113,50 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8840443-9901-44DF-A1FA-73C1552394AB}">
   <dimension ref="A1:O312"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A190" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13:L13"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.453125" style="75" customWidth="1"/>
-    <col min="2" max="2" width="19.90625" style="75" customWidth="1"/>
-    <col min="3" max="3" width="29.08984375" style="75" customWidth="1"/>
-    <col min="4" max="4" width="29.7265625" style="75" customWidth="1"/>
-    <col min="5" max="5" width="26.7265625" style="75" customWidth="1"/>
-    <col min="6" max="6" width="12.81640625" style="75" customWidth="1"/>
-    <col min="7" max="7" width="10.26953125" style="75" customWidth="1"/>
-    <col min="8" max="8" width="1.08984375" style="87" customWidth="1"/>
-    <col min="9" max="9" width="27.1796875" style="75" customWidth="1"/>
-    <col min="10" max="10" width="23.90625" style="75" customWidth="1"/>
-    <col min="11" max="11" width="35.81640625" style="75" customWidth="1"/>
-    <col min="12" max="12" width="57.54296875" style="75" customWidth="1"/>
-    <col min="13" max="16384" width="8.7265625" style="75"/>
+    <col min="1" max="1" width="32.44140625" style="75" customWidth="1"/>
+    <col min="2" max="2" width="19.88671875" style="75" customWidth="1"/>
+    <col min="3" max="3" width="29.109375" style="75" customWidth="1"/>
+    <col min="4" max="4" width="29.77734375" style="75" customWidth="1"/>
+    <col min="5" max="5" width="26.77734375" style="75" customWidth="1"/>
+    <col min="6" max="6" width="12.77734375" style="75" customWidth="1"/>
+    <col min="7" max="7" width="10.21875" style="75" customWidth="1"/>
+    <col min="8" max="8" width="1.109375" style="87" customWidth="1"/>
+    <col min="9" max="9" width="27.21875" style="75" customWidth="1"/>
+    <col min="10" max="10" width="23.88671875" style="75" customWidth="1"/>
+    <col min="11" max="11" width="35.77734375" style="75" customWidth="1"/>
+    <col min="12" max="12" width="57.5546875" style="75" customWidth="1"/>
+    <col min="13" max="16384" width="8.77734375" style="75"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="309" t="s">
+    <row r="1" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="393" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="304"/>
-      <c r="C1" s="304"/>
-      <c r="D1" s="304"/>
-      <c r="E1" s="304"/>
-      <c r="F1" s="304"/>
-      <c r="G1" s="304"/>
+      <c r="B1" s="394"/>
+      <c r="C1" s="394"/>
+      <c r="D1" s="394"/>
+      <c r="E1" s="394"/>
+      <c r="F1" s="394"/>
+      <c r="G1" s="394"/>
       <c r="H1" s="62"/>
-      <c r="I1" s="304" t="s">
+      <c r="I1" s="394" t="s">
         <v>367</v>
       </c>
-      <c r="J1" s="304"/>
-      <c r="K1" s="304"/>
-      <c r="L1" s="304"/>
-    </row>
-    <row r="2" spans="1:12" ht="42.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="J1" s="394"/>
+      <c r="K1" s="394"/>
+      <c r="L1" s="394"/>
+    </row>
+    <row r="2" spans="1:12" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="70" t="s">
         <v>1</v>
       </c>
@@ -5078,31 +5192,31 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="25" x14ac:dyDescent="0.35">
-      <c r="A3" s="305" t="s">
+    <row r="3" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="399" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="307" t="s">
+      <c r="B3" s="401" t="s">
         <v>74</v>
       </c>
-      <c r="C3" s="345"/>
-      <c r="D3" s="346"/>
-      <c r="E3" s="346"/>
-      <c r="F3" s="346"/>
-      <c r="G3" s="346"/>
+      <c r="C3" s="360"/>
+      <c r="D3" s="361"/>
+      <c r="E3" s="361"/>
+      <c r="F3" s="361"/>
+      <c r="G3" s="361"/>
       <c r="H3" s="22"/>
       <c r="I3" s="16" t="s">
         <v>247</v>
       </c>
-      <c r="J3" s="366"/>
+      <c r="J3" s="304"/>
       <c r="K3" s="302"/>
       <c r="L3" s="17" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.35">
-      <c r="A4" s="306"/>
-      <c r="B4" s="308"/>
+    <row r="4" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="400"/>
+      <c r="B4" s="402"/>
       <c r="C4" s="8" t="s">
         <v>12</v>
       </c>
@@ -5132,9 +5246,9 @@
         <v>348</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="50" x14ac:dyDescent="0.35">
-      <c r="A5" s="306"/>
-      <c r="B5" s="308"/>
+    <row r="5" spans="1:12" ht="51" x14ac:dyDescent="0.3">
+      <c r="A5" s="400"/>
+      <c r="B5" s="402"/>
       <c r="C5" s="8" t="s">
         <v>77</v>
       </c>
@@ -5164,9 +5278,9 @@
         <v>344</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="20" x14ac:dyDescent="0.35">
-      <c r="A6" s="306"/>
-      <c r="B6" s="308"/>
+    <row r="6" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A6" s="400"/>
+      <c r="B6" s="402"/>
       <c r="C6" s="8" t="s">
         <v>80</v>
       </c>
@@ -5196,9 +5310,9 @@
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="20" x14ac:dyDescent="0.35">
-      <c r="A7" s="306"/>
-      <c r="B7" s="308"/>
+    <row r="7" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A7" s="400"/>
+      <c r="B7" s="402"/>
       <c r="C7" s="8" t="s">
         <v>85</v>
       </c>
@@ -5228,9 +5342,9 @@
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="20" x14ac:dyDescent="0.35">
-      <c r="A8" s="306"/>
-      <c r="B8" s="308"/>
+    <row r="8" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A8" s="400"/>
+      <c r="B8" s="402"/>
       <c r="C8" s="8" t="s">
         <v>69</v>
       </c>
@@ -5260,9 +5374,9 @@
         <v>93</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="20" x14ac:dyDescent="0.35">
-      <c r="A9" s="306"/>
-      <c r="B9" s="308"/>
+    <row r="9" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A9" s="400"/>
+      <c r="B9" s="402"/>
       <c r="C9" s="64" t="s">
         <v>94</v>
       </c>
@@ -5290,9 +5404,9 @@
       </c>
       <c r="L9" s="19"/>
     </row>
-    <row r="10" spans="1:12" ht="50.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="306"/>
-      <c r="B10" s="308"/>
+    <row r="10" spans="1:12" ht="51.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="400"/>
+      <c r="B10" s="402"/>
       <c r="C10" s="24" t="s">
         <v>97</v>
       </c>
@@ -5322,7 +5436,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="76" customFormat="1" ht="8" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:12" s="76" customFormat="1" ht="7.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="32"/>
       <c r="B11" s="250"/>
       <c r="C11" s="53"/>
@@ -5336,7 +5450,7 @@
       <c r="K11" s="172"/>
       <c r="L11" s="55"/>
     </row>
-    <row r="12" spans="1:12" ht="50.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:12" ht="51.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="28" t="s">
         <v>100</v>
       </c>
@@ -5372,25 +5486,25 @@
         <v>107</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="309" t="s">
+    <row r="13" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="393" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="304"/>
-      <c r="C13" s="304"/>
-      <c r="D13" s="304"/>
-      <c r="E13" s="304"/>
-      <c r="F13" s="304"/>
-      <c r="G13" s="304"/>
+      <c r="B13" s="394"/>
+      <c r="C13" s="394"/>
+      <c r="D13" s="394"/>
+      <c r="E13" s="394"/>
+      <c r="F13" s="394"/>
+      <c r="G13" s="394"/>
       <c r="H13" s="173"/>
-      <c r="I13" s="304" t="s">
+      <c r="I13" s="394" t="s">
         <v>367</v>
       </c>
-      <c r="J13" s="304"/>
-      <c r="K13" s="304"/>
-      <c r="L13" s="304"/>
-    </row>
-    <row r="14" spans="1:12" s="77" customFormat="1" ht="42.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="J13" s="394"/>
+      <c r="K13" s="394"/>
+      <c r="L13" s="394"/>
+    </row>
+    <row r="14" spans="1:12" s="77" customFormat="1" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="70" t="s">
         <v>1</v>
       </c>
@@ -5426,29 +5540,29 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:12" s="77" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="349" t="s">
+    <row r="15" spans="1:12" s="77" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="340" t="s">
         <v>322</v>
       </c>
-      <c r="B15" s="352" t="s">
+      <c r="B15" s="396" t="s">
         <v>323</v>
       </c>
-      <c r="C15" s="355"/>
-      <c r="D15" s="356"/>
-      <c r="E15" s="356"/>
-      <c r="F15" s="356"/>
-      <c r="G15" s="357"/>
+      <c r="C15" s="364"/>
+      <c r="D15" s="365"/>
+      <c r="E15" s="365"/>
+      <c r="F15" s="365"/>
+      <c r="G15" s="366"/>
       <c r="H15" s="149"/>
       <c r="I15" s="275" t="s">
         <v>339</v>
       </c>
-      <c r="J15" s="358"/>
-      <c r="K15" s="359"/>
-      <c r="L15" s="360"/>
-    </row>
-    <row r="16" spans="1:12" s="77" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="350"/>
-      <c r="B16" s="353"/>
+      <c r="J15" s="367"/>
+      <c r="K15" s="368"/>
+      <c r="L15" s="369"/>
+    </row>
+    <row r="16" spans="1:12" s="77" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="395"/>
+      <c r="B16" s="397"/>
       <c r="C16" s="151" t="s">
         <v>324</v>
       </c>
@@ -5468,9 +5582,9 @@
       <c r="K16" s="189"/>
       <c r="L16" s="197"/>
     </row>
-    <row r="17" spans="1:15" s="77" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="350"/>
-      <c r="B17" s="353"/>
+    <row r="17" spans="1:15" s="77" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="395"/>
+      <c r="B17" s="397"/>
       <c r="C17" s="151" t="s">
         <v>325</v>
       </c>
@@ -5490,9 +5604,9 @@
       <c r="K17" s="189"/>
       <c r="L17" s="197"/>
     </row>
-    <row r="18" spans="1:15" s="77" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="350"/>
-      <c r="B18" s="353"/>
+    <row r="18" spans="1:15" s="77" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="395"/>
+      <c r="B18" s="397"/>
       <c r="C18" s="151" t="s">
         <v>326</v>
       </c>
@@ -5512,9 +5626,9 @@
       <c r="K18" s="189"/>
       <c r="L18" s="197"/>
     </row>
-    <row r="19" spans="1:15" s="77" customFormat="1" ht="21.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="350"/>
-      <c r="B19" s="353"/>
+    <row r="19" spans="1:15" s="77" customFormat="1" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="395"/>
+      <c r="B19" s="397"/>
       <c r="C19" s="151" t="s">
         <v>59</v>
       </c>
@@ -5534,9 +5648,9 @@
       <c r="K19" s="189"/>
       <c r="L19" s="197"/>
     </row>
-    <row r="20" spans="1:15" ht="21.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="350"/>
-      <c r="B20" s="353"/>
+    <row r="20" spans="1:15" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="395"/>
+      <c r="B20" s="397"/>
       <c r="C20" s="151" t="s">
         <v>62</v>
       </c>
@@ -5556,9 +5670,9 @@
       <c r="K20" s="189"/>
       <c r="L20" s="197"/>
     </row>
-    <row r="21" spans="1:15" ht="63" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="350"/>
-      <c r="B21" s="353"/>
+    <row r="21" spans="1:15" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="395"/>
+      <c r="B21" s="397"/>
       <c r="C21" s="151" t="s">
         <v>30</v>
       </c>
@@ -5580,9 +5694,9 @@
       <c r="K21" s="189"/>
       <c r="L21" s="197"/>
     </row>
-    <row r="22" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="350"/>
-      <c r="B22" s="353"/>
+    <row r="22" spans="1:15" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="395"/>
+      <c r="B22" s="397"/>
       <c r="C22" s="151" t="s">
         <v>37</v>
       </c>
@@ -5604,9 +5718,9 @@
       <c r="K22" s="189"/>
       <c r="L22" s="197"/>
     </row>
-    <row r="23" spans="1:15" ht="22" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="351"/>
-      <c r="B23" s="354"/>
+    <row r="23" spans="1:15" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="341"/>
+      <c r="B23" s="398"/>
       <c r="C23" s="272" t="s">
         <v>327</v>
       </c>
@@ -5628,7 +5742,7 @@
       <c r="K23" s="199"/>
       <c r="L23" s="165"/>
     </row>
-    <row r="24" spans="1:15" ht="8" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:15" ht="7.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="57"/>
       <c r="B24" s="68"/>
       <c r="C24" s="58"/>
@@ -5642,18 +5756,18 @@
       <c r="K24" s="58"/>
       <c r="L24" s="60"/>
     </row>
-    <row r="25" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="310" t="s">
+    <row r="25" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="386" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="314" t="s">
+      <c r="B25" s="373" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="335"/>
-      <c r="D25" s="335"/>
-      <c r="E25" s="335"/>
-      <c r="F25" s="335"/>
-      <c r="G25" s="336"/>
+      <c r="C25" s="362"/>
+      <c r="D25" s="362"/>
+      <c r="E25" s="362"/>
+      <c r="F25" s="362"/>
+      <c r="G25" s="363"/>
       <c r="H25" s="51"/>
       <c r="I25" s="253" t="s">
         <v>165</v>
@@ -5664,9 +5778,9 @@
         <v>166</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="80" x14ac:dyDescent="0.35">
-      <c r="A26" s="311"/>
-      <c r="B26" s="315"/>
+    <row r="26" spans="1:15" ht="81.599999999999994" x14ac:dyDescent="0.3">
+      <c r="A26" s="376"/>
+      <c r="B26" s="374"/>
       <c r="C26" s="3" t="s">
         <v>12</v>
       </c>
@@ -5694,9 +5808,9 @@
         <v>348</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="69.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="311"/>
-      <c r="B27" s="315"/>
+    <row r="27" spans="1:15" ht="69.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="376"/>
+      <c r="B27" s="374"/>
       <c r="C27" s="3" t="s">
         <v>19</v>
       </c>
@@ -5726,9 +5840,9 @@
       <c r="N27" s="52"/>
       <c r="O27" s="52"/>
     </row>
-    <row r="28" spans="1:15" ht="50" x14ac:dyDescent="0.35">
-      <c r="A28" s="311"/>
-      <c r="B28" s="315"/>
+    <row r="28" spans="1:15" ht="51" x14ac:dyDescent="0.3">
+      <c r="A28" s="376"/>
+      <c r="B28" s="374"/>
       <c r="C28" s="3" t="s">
         <v>27</v>
       </c>
@@ -5756,9 +5870,9 @@
         <v>202</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="40" x14ac:dyDescent="0.35">
-      <c r="A29" s="311"/>
-      <c r="B29" s="315"/>
+    <row r="29" spans="1:15" ht="40.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A29" s="376"/>
+      <c r="B29" s="374"/>
       <c r="C29" s="3" t="s">
         <v>30</v>
       </c>
@@ -5788,9 +5902,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="40" x14ac:dyDescent="0.35">
-      <c r="A30" s="311"/>
-      <c r="B30" s="315"/>
+    <row r="30" spans="1:15" ht="40.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A30" s="376"/>
+      <c r="B30" s="374"/>
       <c r="C30" s="3" t="s">
         <v>37</v>
       </c>
@@ -5820,9 +5934,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="50" x14ac:dyDescent="0.35">
-      <c r="A31" s="311"/>
-      <c r="B31" s="315"/>
+    <row r="31" spans="1:15" ht="61.2" x14ac:dyDescent="0.3">
+      <c r="A31" s="376"/>
+      <c r="B31" s="374"/>
       <c r="C31" s="4" t="s">
         <v>41</v>
       </c>
@@ -5852,9 +5966,9 @@
         <v>169</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="40.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="313"/>
-      <c r="B32" s="317"/>
+    <row r="32" spans="1:15" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="377"/>
+      <c r="B32" s="375"/>
       <c r="C32" s="93" t="s">
         <v>43</v>
       </c>
@@ -5884,7 +5998,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="8" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:12" ht="7.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="57"/>
       <c r="B33" s="68"/>
       <c r="C33" s="58"/>
@@ -5898,29 +6012,29 @@
       <c r="K33" s="58"/>
       <c r="L33" s="60"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A34" s="310" t="s">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A34" s="386" t="s">
         <v>343</v>
       </c>
-      <c r="B34" s="314" t="s">
+      <c r="B34" s="373" t="s">
         <v>47</v>
       </c>
-      <c r="C34" s="335"/>
-      <c r="D34" s="335"/>
-      <c r="E34" s="335"/>
-      <c r="F34" s="335"/>
-      <c r="G34" s="336"/>
+      <c r="C34" s="362"/>
+      <c r="D34" s="362"/>
+      <c r="E34" s="362"/>
+      <c r="F34" s="362"/>
+      <c r="G34" s="363"/>
       <c r="H34" s="51"/>
       <c r="I34" s="217" t="s">
         <v>189</v>
       </c>
-      <c r="J34" s="343"/>
-      <c r="K34" s="343"/>
+      <c r="J34" s="359"/>
+      <c r="K34" s="359"/>
       <c r="L34" s="98"/>
     </row>
-    <row r="35" spans="1:12" ht="80" x14ac:dyDescent="0.35">
-      <c r="A35" s="311"/>
-      <c r="B35" s="315"/>
+    <row r="35" spans="1:12" ht="81.599999999999994" x14ac:dyDescent="0.3">
+      <c r="A35" s="376"/>
+      <c r="B35" s="374"/>
       <c r="C35" s="3" t="s">
         <v>12</v>
       </c>
@@ -5948,9 +6062,9 @@
         <v>202</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="30" x14ac:dyDescent="0.35">
-      <c r="A36" s="311"/>
-      <c r="B36" s="315"/>
+    <row r="36" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="376"/>
+      <c r="B36" s="374"/>
       <c r="C36" s="3" t="s">
         <v>49</v>
       </c>
@@ -5978,9 +6092,9 @@
         <v>202</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="100" x14ac:dyDescent="0.35">
-      <c r="A37" s="311"/>
-      <c r="B37" s="315"/>
+    <row r="37" spans="1:12" ht="102" x14ac:dyDescent="0.3">
+      <c r="A37" s="376"/>
+      <c r="B37" s="374"/>
       <c r="C37" s="3" t="s">
         <v>52</v>
       </c>
@@ -6010,9 +6124,9 @@
         <v>344</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="30" x14ac:dyDescent="0.35">
-      <c r="A38" s="311"/>
-      <c r="B38" s="315"/>
+    <row r="38" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A38" s="376"/>
+      <c r="B38" s="374"/>
       <c r="C38" s="3" t="s">
         <v>55</v>
       </c>
@@ -6022,7 +6136,7 @@
       <c r="E38" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="F38" s="394" t="s">
+      <c r="F38" s="329" t="s">
         <v>58</v>
       </c>
       <c r="G38" s="251" t="s">
@@ -6042,9 +6156,9 @@
         <v>202</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="30" x14ac:dyDescent="0.35">
-      <c r="A39" s="311"/>
-      <c r="B39" s="315"/>
+    <row r="39" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A39" s="376"/>
+      <c r="B39" s="374"/>
       <c r="C39" s="3" t="s">
         <v>59</v>
       </c>
@@ -6074,9 +6188,9 @@
         <v>61</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="30" x14ac:dyDescent="0.35">
-      <c r="A40" s="311"/>
-      <c r="B40" s="315"/>
+    <row r="40" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A40" s="376"/>
+      <c r="B40" s="374"/>
       <c r="C40" s="3" t="s">
         <v>62</v>
       </c>
@@ -6106,9 +6220,9 @@
         <v>61</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="40" x14ac:dyDescent="0.35">
-      <c r="A41" s="311"/>
-      <c r="B41" s="315"/>
+    <row r="41" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A41" s="376"/>
+      <c r="B41" s="374"/>
       <c r="C41" s="3" t="s">
         <v>30</v>
       </c>
@@ -6138,9 +6252,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="40" x14ac:dyDescent="0.35">
-      <c r="A42" s="311"/>
-      <c r="B42" s="315"/>
+    <row r="42" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A42" s="376"/>
+      <c r="B42" s="374"/>
       <c r="C42" s="3" t="s">
         <v>37</v>
       </c>
@@ -6170,9 +6284,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="102" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="311"/>
-      <c r="B43" s="315"/>
+    <row r="43" spans="1:12" ht="102" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="376"/>
+      <c r="B43" s="374"/>
       <c r="C43" s="4" t="s">
         <v>65</v>
       </c>
@@ -6202,9 +6316,9 @@
         <v>202</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="20" x14ac:dyDescent="0.35">
-      <c r="A44" s="312"/>
-      <c r="B44" s="316"/>
+    <row r="44" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A44" s="390"/>
+      <c r="B44" s="391"/>
       <c r="C44" s="267" t="s">
         <v>301</v>
       </c>
@@ -6224,11 +6338,11 @@
       <c r="K44" s="298" t="s">
         <v>302</v>
       </c>
-      <c r="L44" s="367"/>
-    </row>
-    <row r="45" spans="1:12" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="313"/>
-      <c r="B45" s="317"/>
+      <c r="L44" s="305"/>
+    </row>
+    <row r="45" spans="1:12" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="377"/>
+      <c r="B45" s="375"/>
       <c r="C45" s="93" t="s">
         <v>69</v>
       </c>
@@ -6256,7 +6370,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="8" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:12" ht="7.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="132"/>
       <c r="B46" s="134"/>
       <c r="C46" s="133"/>
@@ -6270,11 +6384,11 @@
       <c r="K46" s="258"/>
       <c r="L46" s="139"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A47" s="322" t="s">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A47" s="343" t="s">
         <v>251</v>
       </c>
-      <c r="B47" s="323"/>
+      <c r="B47" s="345"/>
       <c r="C47" s="190"/>
       <c r="D47" s="190"/>
       <c r="E47" s="190"/>
@@ -6290,9 +6404,9 @@
         <v>345</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="20" x14ac:dyDescent="0.35">
-      <c r="A48" s="341"/>
-      <c r="B48" s="324"/>
+    <row r="48" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A48" s="344"/>
+      <c r="B48" s="346"/>
       <c r="C48" s="186" t="s">
         <v>206</v>
       </c>
@@ -6320,9 +6434,9 @@
         <v>202</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="25" x14ac:dyDescent="0.35">
-      <c r="A49" s="341"/>
-      <c r="B49" s="324"/>
+    <row r="49" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A49" s="344"/>
+      <c r="B49" s="346"/>
       <c r="C49" s="186" t="s">
         <v>209</v>
       </c>
@@ -6350,9 +6464,9 @@
         <v>202</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="20" x14ac:dyDescent="0.35">
-      <c r="A50" s="341"/>
-      <c r="B50" s="324"/>
+    <row r="50" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A50" s="344"/>
+      <c r="B50" s="346"/>
       <c r="C50" s="186" t="s">
         <v>212</v>
       </c>
@@ -6380,9 +6494,9 @@
         <v>231</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="60" x14ac:dyDescent="0.35">
-      <c r="A51" s="341"/>
-      <c r="B51" s="324"/>
+    <row r="51" spans="1:12" ht="61.2" x14ac:dyDescent="0.3">
+      <c r="A51" s="344"/>
+      <c r="B51" s="346"/>
       <c r="C51" s="186" t="s">
         <v>215</v>
       </c>
@@ -6410,9 +6524,9 @@
         <v>202</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="97.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="341"/>
-      <c r="B52" s="324"/>
+    <row r="52" spans="1:12" ht="97.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="344"/>
+      <c r="B52" s="346"/>
       <c r="C52" s="186" t="s">
         <v>218</v>
       </c>
@@ -6440,9 +6554,9 @@
         <v>202</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="102" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="341"/>
-      <c r="B53" s="324"/>
+    <row r="53" spans="1:12" ht="102" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="344"/>
+      <c r="B53" s="346"/>
       <c r="C53" s="237" t="s">
         <v>221</v>
       </c>
@@ -6470,9 +6584,9 @@
         <v>202</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A54" s="341"/>
-      <c r="B54" s="324"/>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A54" s="344"/>
+      <c r="B54" s="346"/>
       <c r="C54" s="237" t="s">
         <v>224</v>
       </c>
@@ -6498,9 +6612,9 @@
         <v>245</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="341"/>
-      <c r="B55" s="324"/>
+    <row r="55" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="344"/>
+      <c r="B55" s="346"/>
       <c r="C55" s="237" t="s">
         <v>226</v>
       </c>
@@ -6526,7 +6640,7 @@
       </c>
       <c r="L55" s="245"/>
     </row>
-    <row r="56" spans="1:12" ht="8" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:12" ht="7.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="57"/>
       <c r="B56" s="68"/>
       <c r="C56" s="58"/>
@@ -6540,11 +6654,11 @@
       <c r="K56" s="58"/>
       <c r="L56" s="60"/>
     </row>
-    <row r="57" spans="1:12" ht="26" x14ac:dyDescent="0.35">
-      <c r="A57" s="322" t="s">
+    <row r="57" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A57" s="343" t="s">
         <v>251</v>
       </c>
-      <c r="B57" s="323"/>
+      <c r="B57" s="345"/>
       <c r="C57" s="190"/>
       <c r="D57" s="190"/>
       <c r="E57" s="190"/>
@@ -6560,9 +6674,9 @@
         <v>346</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="20" x14ac:dyDescent="0.35">
-      <c r="A58" s="341"/>
-      <c r="B58" s="324"/>
+    <row r="58" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A58" s="344"/>
+      <c r="B58" s="346"/>
       <c r="C58" s="186" t="s">
         <v>206</v>
       </c>
@@ -6590,9 +6704,9 @@
         <v>202</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="25" x14ac:dyDescent="0.35">
-      <c r="A59" s="341"/>
-      <c r="B59" s="324"/>
+    <row r="59" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A59" s="344"/>
+      <c r="B59" s="346"/>
       <c r="C59" s="186" t="s">
         <v>209</v>
       </c>
@@ -6620,9 +6734,9 @@
         <v>202</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="20" x14ac:dyDescent="0.35">
-      <c r="A60" s="341"/>
-      <c r="B60" s="324"/>
+    <row r="60" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A60" s="344"/>
+      <c r="B60" s="346"/>
       <c r="C60" s="186" t="s">
         <v>212</v>
       </c>
@@ -6650,9 +6764,9 @@
         <v>231</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="60" x14ac:dyDescent="0.35">
-      <c r="A61" s="341"/>
-      <c r="B61" s="324"/>
+    <row r="61" spans="1:12" ht="61.2" x14ac:dyDescent="0.3">
+      <c r="A61" s="344"/>
+      <c r="B61" s="346"/>
       <c r="C61" s="186" t="s">
         <v>215</v>
       </c>
@@ -6680,9 +6794,9 @@
         <v>202</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="90" x14ac:dyDescent="0.35">
-      <c r="A62" s="341"/>
-      <c r="B62" s="324"/>
+    <row r="62" spans="1:12" ht="91.8" x14ac:dyDescent="0.3">
+      <c r="A62" s="344"/>
+      <c r="B62" s="346"/>
       <c r="C62" s="186" t="s">
         <v>218</v>
       </c>
@@ -6710,9 +6824,9 @@
         <v>202</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="102" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="341"/>
-      <c r="B63" s="324"/>
+    <row r="63" spans="1:12" ht="102" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="344"/>
+      <c r="B63" s="346"/>
       <c r="C63" s="237" t="s">
         <v>221</v>
       </c>
@@ -6740,9 +6854,9 @@
         <v>202</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="25" x14ac:dyDescent="0.35">
-      <c r="A64" s="341"/>
-      <c r="B64" s="324"/>
+    <row r="64" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A64" s="344"/>
+      <c r="B64" s="346"/>
       <c r="C64" s="237" t="s">
         <v>224</v>
       </c>
@@ -6768,9 +6882,9 @@
         <v>245</v>
       </c>
     </row>
-    <row r="65" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A65" s="341"/>
-      <c r="B65" s="324"/>
+    <row r="65" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="344"/>
+      <c r="B65" s="346"/>
       <c r="C65" s="237" t="s">
         <v>226</v>
       </c>
@@ -6796,7 +6910,7 @@
       </c>
       <c r="L65" s="245"/>
     </row>
-    <row r="66" spans="1:12" ht="8" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:12" ht="7.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="57"/>
       <c r="B66" s="68"/>
       <c r="C66" s="58"/>
@@ -6810,11 +6924,11 @@
       <c r="K66" s="58"/>
       <c r="L66" s="60"/>
     </row>
-    <row r="67" spans="1:12" ht="26" x14ac:dyDescent="0.35">
-      <c r="A67" s="322" t="s">
+    <row r="67" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A67" s="343" t="s">
         <v>251</v>
       </c>
-      <c r="B67" s="323"/>
+      <c r="B67" s="345"/>
       <c r="C67" s="190"/>
       <c r="D67" s="190"/>
       <c r="E67" s="190"/>
@@ -6830,9 +6944,9 @@
         <v>347</v>
       </c>
     </row>
-    <row r="68" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="341"/>
-      <c r="B68" s="324"/>
+    <row r="68" spans="1:12" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="344"/>
+      <c r="B68" s="346"/>
       <c r="C68" s="186" t="s">
         <v>206</v>
       </c>
@@ -6860,9 +6974,9 @@
         <v>202</v>
       </c>
     </row>
-    <row r="69" spans="1:12" ht="25" x14ac:dyDescent="0.35">
-      <c r="A69" s="341"/>
-      <c r="B69" s="324"/>
+    <row r="69" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A69" s="344"/>
+      <c r="B69" s="346"/>
       <c r="C69" s="186" t="s">
         <v>209</v>
       </c>
@@ -6890,9 +7004,9 @@
         <v>202</v>
       </c>
     </row>
-    <row r="70" spans="1:12" ht="20" x14ac:dyDescent="0.35">
-      <c r="A70" s="341"/>
-      <c r="B70" s="324"/>
+    <row r="70" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A70" s="344"/>
+      <c r="B70" s="346"/>
       <c r="C70" s="186" t="s">
         <v>212</v>
       </c>
@@ -6920,9 +7034,9 @@
         <v>231</v>
       </c>
     </row>
-    <row r="71" spans="1:12" ht="60" x14ac:dyDescent="0.35">
-      <c r="A71" s="341"/>
-      <c r="B71" s="324"/>
+    <row r="71" spans="1:12" ht="61.2" x14ac:dyDescent="0.3">
+      <c r="A71" s="344"/>
+      <c r="B71" s="346"/>
       <c r="C71" s="186" t="s">
         <v>215</v>
       </c>
@@ -6950,9 +7064,9 @@
         <v>202</v>
       </c>
     </row>
-    <row r="72" spans="1:12" ht="90" x14ac:dyDescent="0.35">
-      <c r="A72" s="341"/>
-      <c r="B72" s="324"/>
+    <row r="72" spans="1:12" ht="91.8" x14ac:dyDescent="0.3">
+      <c r="A72" s="344"/>
+      <c r="B72" s="346"/>
       <c r="C72" s="186" t="s">
         <v>218</v>
       </c>
@@ -6980,9 +7094,9 @@
         <v>202</v>
       </c>
     </row>
-    <row r="73" spans="1:12" ht="30" x14ac:dyDescent="0.35">
-      <c r="A73" s="341"/>
-      <c r="B73" s="324"/>
+    <row r="73" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A73" s="344"/>
+      <c r="B73" s="346"/>
       <c r="C73" s="237" t="s">
         <v>221</v>
       </c>
@@ -7010,9 +7124,9 @@
         <v>202</v>
       </c>
     </row>
-    <row r="74" spans="1:12" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="341"/>
-      <c r="B74" s="324"/>
+    <row r="74" spans="1:12" ht="29.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="344"/>
+      <c r="B74" s="346"/>
       <c r="C74" s="237" t="s">
         <v>224</v>
       </c>
@@ -7038,9 +7152,9 @@
         <v>245</v>
       </c>
     </row>
-    <row r="75" spans="1:12" ht="53.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A75" s="341"/>
-      <c r="B75" s="324"/>
+    <row r="75" spans="1:12" ht="53.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="344"/>
+      <c r="B75" s="346"/>
       <c r="C75" s="237" t="s">
         <v>226</v>
       </c>
@@ -7066,7 +7180,7 @@
       </c>
       <c r="L75" s="245"/>
     </row>
-    <row r="76" spans="1:12" ht="8" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:12" ht="7.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="57"/>
       <c r="B76" s="68"/>
       <c r="C76" s="58"/>
@@ -7080,31 +7194,31 @@
       <c r="K76" s="58"/>
       <c r="L76" s="60"/>
     </row>
-    <row r="77" spans="1:12" ht="37.5" x14ac:dyDescent="0.35">
-      <c r="A77" s="310" t="s">
+    <row r="77" spans="1:12" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A77" s="386" t="s">
         <v>190</v>
       </c>
-      <c r="B77" s="318" t="s">
+      <c r="B77" s="387" t="s">
         <v>109</v>
       </c>
-      <c r="C77" s="339"/>
-      <c r="D77" s="339"/>
-      <c r="E77" s="339"/>
-      <c r="F77" s="339"/>
-      <c r="G77" s="340"/>
+      <c r="C77" s="357"/>
+      <c r="D77" s="357"/>
+      <c r="E77" s="357"/>
+      <c r="F77" s="357"/>
+      <c r="G77" s="358"/>
       <c r="H77" s="51"/>
       <c r="I77" s="217" t="s">
         <v>370</v>
       </c>
-      <c r="J77" s="344"/>
-      <c r="K77" s="344"/>
+      <c r="J77" s="356"/>
+      <c r="K77" s="356"/>
       <c r="L77" s="193" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="78" spans="1:12" ht="80" x14ac:dyDescent="0.35">
-      <c r="A78" s="311"/>
-      <c r="B78" s="319"/>
+    <row r="78" spans="1:12" ht="81.599999999999994" x14ac:dyDescent="0.3">
+      <c r="A78" s="376"/>
+      <c r="B78" s="388"/>
       <c r="C78" s="36" t="s">
         <v>12</v>
       </c>
@@ -7132,9 +7246,9 @@
         <v>202</v>
       </c>
     </row>
-    <row r="79" spans="1:12" ht="110" x14ac:dyDescent="0.35">
-      <c r="A79" s="311"/>
-      <c r="B79" s="319"/>
+    <row r="79" spans="1:12" ht="112.2" x14ac:dyDescent="0.3">
+      <c r="A79" s="376"/>
+      <c r="B79" s="388"/>
       <c r="C79" s="36" t="s">
         <v>111</v>
       </c>
@@ -7160,13 +7274,13 @@
       <c r="K79" s="35" t="s">
         <v>378</v>
       </c>
-      <c r="L79" s="372" t="s">
+      <c r="L79" s="310" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="80" spans="1:12" ht="310" x14ac:dyDescent="0.35">
-      <c r="A80" s="311"/>
-      <c r="B80" s="319"/>
+    <row r="80" spans="1:12" ht="316.2" x14ac:dyDescent="0.3">
+      <c r="A80" s="376"/>
+      <c r="B80" s="388"/>
       <c r="C80" s="67" t="s">
         <v>114</v>
       </c>
@@ -7194,9 +7308,9 @@
         <v>202</v>
       </c>
     </row>
-    <row r="81" spans="1:12" ht="40" x14ac:dyDescent="0.35">
-      <c r="A81" s="311"/>
-      <c r="B81" s="319"/>
+    <row r="81" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A81" s="376"/>
+      <c r="B81" s="388"/>
       <c r="C81" s="36" t="s">
         <v>30</v>
       </c>
@@ -7226,9 +7340,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="82" spans="1:12" ht="40" x14ac:dyDescent="0.35">
-      <c r="A82" s="311"/>
-      <c r="B82" s="319"/>
+    <row r="82" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A82" s="376"/>
+      <c r="B82" s="388"/>
       <c r="C82" s="36" t="s">
         <v>37</v>
       </c>
@@ -7258,9 +7372,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="83" spans="1:12" ht="20" x14ac:dyDescent="0.35">
-      <c r="A83" s="311"/>
-      <c r="B83" s="319"/>
+    <row r="83" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A83" s="376"/>
+      <c r="B83" s="388"/>
       <c r="C83" s="37" t="s">
         <v>117</v>
       </c>
@@ -7281,16 +7395,16 @@
       <c r="J83" s="41" t="s">
         <v>202</v>
       </c>
-      <c r="K83" s="373" t="s">
+      <c r="K83" s="311" t="s">
         <v>46</v>
       </c>
-      <c r="L83" s="374" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" ht="180" x14ac:dyDescent="0.35">
-      <c r="A84" s="311"/>
-      <c r="B84" s="319"/>
+      <c r="L83" s="312" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" ht="183.6" x14ac:dyDescent="0.3">
+      <c r="A84" s="376"/>
+      <c r="B84" s="388"/>
       <c r="C84" s="36" t="s">
         <v>120</v>
       </c>
@@ -7320,9 +7434,9 @@
         <v>369</v>
       </c>
     </row>
-    <row r="85" spans="1:12" ht="40" x14ac:dyDescent="0.35">
-      <c r="A85" s="312"/>
-      <c r="B85" s="320"/>
+    <row r="85" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A85" s="390"/>
+      <c r="B85" s="392"/>
       <c r="C85" s="259" t="s">
         <v>240</v>
       </c>
@@ -7346,9 +7460,9 @@
         <v>321</v>
       </c>
     </row>
-    <row r="86" spans="1:12" ht="100.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A86" s="313"/>
-      <c r="B86" s="321"/>
+    <row r="86" spans="1:12" ht="112.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="377"/>
+      <c r="B86" s="389"/>
       <c r="C86" s="102" t="s">
         <v>123</v>
       </c>
@@ -7378,7 +7492,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="87" spans="1:12" ht="8" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:12" ht="7.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="140"/>
       <c r="B87" s="141"/>
       <c r="C87" s="141"/>
@@ -7392,11 +7506,11 @@
       <c r="K87" s="142"/>
       <c r="L87" s="146"/>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A88" s="322" t="s">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A88" s="343" t="s">
         <v>241</v>
       </c>
-      <c r="B88" s="323"/>
+      <c r="B88" s="345"/>
       <c r="C88" s="190"/>
       <c r="D88" s="190"/>
       <c r="E88" s="190"/>
@@ -7412,9 +7526,9 @@
         <v>349</v>
       </c>
     </row>
-    <row r="89" spans="1:12" ht="20" x14ac:dyDescent="0.35">
-      <c r="A89" s="341"/>
-      <c r="B89" s="324"/>
+    <row r="89" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A89" s="344"/>
+      <c r="B89" s="346"/>
       <c r="C89" s="186" t="s">
         <v>206</v>
       </c>
@@ -7440,9 +7554,9 @@
       </c>
       <c r="L89" s="194"/>
     </row>
-    <row r="90" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="341"/>
-      <c r="B90" s="324"/>
+    <row r="90" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="344"/>
+      <c r="B90" s="346"/>
       <c r="C90" s="186" t="s">
         <v>209</v>
       </c>
@@ -7470,9 +7584,9 @@
         <v>202</v>
       </c>
     </row>
-    <row r="91" spans="1:12" ht="20" x14ac:dyDescent="0.35">
-      <c r="A91" s="341"/>
-      <c r="B91" s="324"/>
+    <row r="91" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A91" s="344"/>
+      <c r="B91" s="346"/>
       <c r="C91" s="186" t="s">
         <v>212</v>
       </c>
@@ -7500,9 +7614,9 @@
         <v>231</v>
       </c>
     </row>
-    <row r="92" spans="1:12" ht="60" x14ac:dyDescent="0.35">
-      <c r="A92" s="341"/>
-      <c r="B92" s="324"/>
+    <row r="92" spans="1:12" ht="61.2" x14ac:dyDescent="0.3">
+      <c r="A92" s="344"/>
+      <c r="B92" s="346"/>
       <c r="C92" s="186" t="s">
         <v>215</v>
       </c>
@@ -7530,9 +7644,9 @@
         <v>202</v>
       </c>
     </row>
-    <row r="93" spans="1:12" ht="90" x14ac:dyDescent="0.35">
-      <c r="A93" s="341"/>
-      <c r="B93" s="324"/>
+    <row r="93" spans="1:12" ht="91.8" x14ac:dyDescent="0.3">
+      <c r="A93" s="344"/>
+      <c r="B93" s="346"/>
       <c r="C93" s="186" t="s">
         <v>218</v>
       </c>
@@ -7560,9 +7674,9 @@
         <v>202</v>
       </c>
     </row>
-    <row r="94" spans="1:12" ht="20" x14ac:dyDescent="0.35">
-      <c r="A94" s="341"/>
-      <c r="B94" s="324"/>
+    <row r="94" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A94" s="344"/>
+      <c r="B94" s="346"/>
       <c r="C94" s="237" t="s">
         <v>221</v>
       </c>
@@ -7590,9 +7704,9 @@
         <v>202</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A95" s="341"/>
-      <c r="B95" s="324"/>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A95" s="344"/>
+      <c r="B95" s="346"/>
       <c r="C95" s="237" t="s">
         <v>224</v>
       </c>
@@ -7618,9 +7732,9 @@
         <v>296</v>
       </c>
     </row>
-    <row r="96" spans="1:12" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A96" s="341"/>
-      <c r="B96" s="324"/>
+    <row r="96" spans="1:12" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A96" s="344"/>
+      <c r="B96" s="346"/>
       <c r="C96" s="237" t="s">
         <v>226</v>
       </c>
@@ -7648,7 +7762,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="97" spans="1:12" ht="8" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:12" ht="7.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" s="140"/>
       <c r="B97" s="141"/>
       <c r="C97" s="141"/>
@@ -7662,11 +7776,11 @@
       <c r="K97" s="142"/>
       <c r="L97" s="146"/>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A98" s="322" t="s">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A98" s="343" t="s">
         <v>241</v>
       </c>
-      <c r="B98" s="323"/>
+      <c r="B98" s="345"/>
       <c r="C98" s="190"/>
       <c r="D98" s="190"/>
       <c r="E98" s="190"/>
@@ -7682,9 +7796,9 @@
         <v>350</v>
       </c>
     </row>
-    <row r="99" spans="1:12" ht="20" x14ac:dyDescent="0.35">
-      <c r="A99" s="341"/>
-      <c r="B99" s="324"/>
+    <row r="99" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A99" s="344"/>
+      <c r="B99" s="346"/>
       <c r="C99" s="186" t="s">
         <v>206</v>
       </c>
@@ -7712,9 +7826,9 @@
         <v>202</v>
       </c>
     </row>
-    <row r="100" spans="1:12" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A100" s="341"/>
-      <c r="B100" s="324"/>
+    <row r="100" spans="1:12" ht="26.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="344"/>
+      <c r="B100" s="346"/>
       <c r="C100" s="186" t="s">
         <v>209</v>
       </c>
@@ -7742,9 +7856,9 @@
         <v>202</v>
       </c>
     </row>
-    <row r="101" spans="1:12" ht="20" x14ac:dyDescent="0.35">
-      <c r="A101" s="341"/>
-      <c r="B101" s="324"/>
+    <row r="101" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A101" s="344"/>
+      <c r="B101" s="346"/>
       <c r="C101" s="186" t="s">
         <v>212</v>
       </c>
@@ -7772,9 +7886,9 @@
         <v>231</v>
       </c>
     </row>
-    <row r="102" spans="1:12" ht="60" x14ac:dyDescent="0.35">
-      <c r="A102" s="341"/>
-      <c r="B102" s="324"/>
+    <row r="102" spans="1:12" ht="61.2" x14ac:dyDescent="0.3">
+      <c r="A102" s="344"/>
+      <c r="B102" s="346"/>
       <c r="C102" s="186" t="s">
         <v>215</v>
       </c>
@@ -7802,9 +7916,9 @@
         <v>202</v>
       </c>
     </row>
-    <row r="103" spans="1:12" ht="97.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A103" s="341"/>
-      <c r="B103" s="324"/>
+    <row r="103" spans="1:12" ht="97.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="344"/>
+      <c r="B103" s="346"/>
       <c r="C103" s="186" t="s">
         <v>218</v>
       </c>
@@ -7832,9 +7946,9 @@
         <v>202</v>
       </c>
     </row>
-    <row r="104" spans="1:12" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A104" s="341"/>
-      <c r="B104" s="324"/>
+    <row r="104" spans="1:12" ht="24.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="344"/>
+      <c r="B104" s="346"/>
       <c r="C104" s="237" t="s">
         <v>221</v>
       </c>
@@ -7862,9 +7976,9 @@
         <v>202</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A105" s="341"/>
-      <c r="B105" s="324"/>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A105" s="344"/>
+      <c r="B105" s="346"/>
       <c r="C105" s="237" t="s">
         <v>224</v>
       </c>
@@ -7890,9 +8004,9 @@
         <v>244</v>
       </c>
     </row>
-    <row r="106" spans="1:12" ht="24.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A106" s="341"/>
-      <c r="B106" s="324"/>
+    <row r="106" spans="1:12" ht="24.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A106" s="344"/>
+      <c r="B106" s="346"/>
       <c r="C106" s="237" t="s">
         <v>226</v>
       </c>
@@ -7920,7 +8034,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="107" spans="1:12" ht="8" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:12" ht="7.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A107" s="57"/>
       <c r="B107" s="68"/>
       <c r="C107" s="58"/>
@@ -7934,11 +8048,11 @@
       <c r="K107" s="58"/>
       <c r="L107" s="60"/>
     </row>
-    <row r="108" spans="1:12" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A108" s="322" t="s">
+    <row r="108" spans="1:12" ht="27.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="343" t="s">
         <v>241</v>
       </c>
-      <c r="B108" s="323"/>
+      <c r="B108" s="345"/>
       <c r="C108" s="190"/>
       <c r="D108" s="190"/>
       <c r="E108" s="190"/>
@@ -7954,9 +8068,9 @@
         <v>352</v>
       </c>
     </row>
-    <row r="109" spans="1:12" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A109" s="341"/>
-      <c r="B109" s="324"/>
+    <row r="109" spans="1:12" ht="26.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="344"/>
+      <c r="B109" s="346"/>
       <c r="C109" s="186" t="s">
         <v>206</v>
       </c>
@@ -7984,9 +8098,9 @@
         <v>202</v>
       </c>
     </row>
-    <row r="110" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A110" s="341"/>
-      <c r="B110" s="324"/>
+    <row r="110" spans="1:12" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="344"/>
+      <c r="B110" s="346"/>
       <c r="C110" s="186" t="s">
         <v>209</v>
       </c>
@@ -8014,9 +8128,9 @@
         <v>202</v>
       </c>
     </row>
-    <row r="111" spans="1:12" ht="20" x14ac:dyDescent="0.35">
-      <c r="A111" s="341"/>
-      <c r="B111" s="324"/>
+    <row r="111" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A111" s="344"/>
+      <c r="B111" s="346"/>
       <c r="C111" s="186" t="s">
         <v>212</v>
       </c>
@@ -8044,9 +8158,9 @@
         <v>231</v>
       </c>
     </row>
-    <row r="112" spans="1:12" ht="60" x14ac:dyDescent="0.35">
-      <c r="A112" s="341"/>
-      <c r="B112" s="324"/>
+    <row r="112" spans="1:12" ht="61.2" x14ac:dyDescent="0.3">
+      <c r="A112" s="344"/>
+      <c r="B112" s="346"/>
       <c r="C112" s="186" t="s">
         <v>215</v>
       </c>
@@ -8074,9 +8188,9 @@
         <v>202</v>
       </c>
     </row>
-    <row r="113" spans="1:12" ht="90" x14ac:dyDescent="0.35">
-      <c r="A113" s="341"/>
-      <c r="B113" s="324"/>
+    <row r="113" spans="1:12" ht="91.8" x14ac:dyDescent="0.3">
+      <c r="A113" s="344"/>
+      <c r="B113" s="346"/>
       <c r="C113" s="186" t="s">
         <v>218</v>
       </c>
@@ -8104,9 +8218,9 @@
         <v>202</v>
       </c>
     </row>
-    <row r="114" spans="1:12" ht="20" x14ac:dyDescent="0.35">
-      <c r="A114" s="341"/>
-      <c r="B114" s="324"/>
+    <row r="114" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A114" s="344"/>
+      <c r="B114" s="346"/>
       <c r="C114" s="237" t="s">
         <v>221</v>
       </c>
@@ -8134,9 +8248,9 @@
         <v>202</v>
       </c>
     </row>
-    <row r="115" spans="1:12" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A115" s="341"/>
-      <c r="B115" s="324"/>
+    <row r="115" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="344"/>
+      <c r="B115" s="346"/>
       <c r="C115" s="237" t="s">
         <v>224</v>
       </c>
@@ -8162,9 +8276,9 @@
         <v>296</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A116" s="341"/>
-      <c r="B116" s="324"/>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A116" s="344"/>
+      <c r="B116" s="346"/>
       <c r="C116" s="237" t="s">
         <v>226</v>
       </c>
@@ -8192,7 +8306,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="117" spans="1:12" ht="8" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:12" ht="7.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A117" s="286"/>
       <c r="B117" s="287"/>
       <c r="C117" s="288"/>
@@ -8206,11 +8320,11 @@
       <c r="K117" s="294"/>
       <c r="L117" s="295"/>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A118" s="322" t="s">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A118" s="343" t="s">
         <v>241</v>
       </c>
-      <c r="B118" s="323"/>
+      <c r="B118" s="345"/>
       <c r="C118" s="190"/>
       <c r="D118" s="190"/>
       <c r="E118" s="190"/>
@@ -8226,9 +8340,9 @@
         <v>351</v>
       </c>
     </row>
-    <row r="119" spans="1:12" ht="20" x14ac:dyDescent="0.35">
-      <c r="A119" s="341"/>
-      <c r="B119" s="324"/>
+    <row r="119" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A119" s="344"/>
+      <c r="B119" s="346"/>
       <c r="C119" s="186" t="s">
         <v>206</v>
       </c>
@@ -8256,9 +8370,9 @@
         <v>202</v>
       </c>
     </row>
-    <row r="120" spans="1:12" ht="25" x14ac:dyDescent="0.35">
-      <c r="A120" s="341"/>
-      <c r="B120" s="324"/>
+    <row r="120" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A120" s="344"/>
+      <c r="B120" s="346"/>
       <c r="C120" s="186" t="s">
         <v>209</v>
       </c>
@@ -8286,9 +8400,9 @@
         <v>202</v>
       </c>
     </row>
-    <row r="121" spans="1:12" ht="20" x14ac:dyDescent="0.35">
-      <c r="A121" s="341"/>
-      <c r="B121" s="324"/>
+    <row r="121" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A121" s="344"/>
+      <c r="B121" s="346"/>
       <c r="C121" s="186" t="s">
         <v>212</v>
       </c>
@@ -8316,9 +8430,9 @@
         <v>231</v>
       </c>
     </row>
-    <row r="122" spans="1:12" ht="60" x14ac:dyDescent="0.35">
-      <c r="A122" s="341"/>
-      <c r="B122" s="324"/>
+    <row r="122" spans="1:12" ht="61.2" x14ac:dyDescent="0.3">
+      <c r="A122" s="344"/>
+      <c r="B122" s="346"/>
       <c r="C122" s="186" t="s">
         <v>215</v>
       </c>
@@ -8346,9 +8460,9 @@
         <v>202</v>
       </c>
     </row>
-    <row r="123" spans="1:12" ht="90" x14ac:dyDescent="0.35">
-      <c r="A123" s="341"/>
-      <c r="B123" s="324"/>
+    <row r="123" spans="1:12" ht="91.8" x14ac:dyDescent="0.3">
+      <c r="A123" s="344"/>
+      <c r="B123" s="346"/>
       <c r="C123" s="186" t="s">
         <v>218</v>
       </c>
@@ -8376,9 +8490,9 @@
         <v>202</v>
       </c>
     </row>
-    <row r="124" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A124" s="341"/>
-      <c r="B124" s="324"/>
+    <row r="124" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="344"/>
+      <c r="B124" s="346"/>
       <c r="C124" s="237" t="s">
         <v>221</v>
       </c>
@@ -8406,9 +8520,9 @@
         <v>202</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A125" s="341"/>
-      <c r="B125" s="324"/>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A125" s="344"/>
+      <c r="B125" s="346"/>
       <c r="C125" s="237" t="s">
         <v>224</v>
       </c>
@@ -8434,9 +8548,9 @@
         <v>244</v>
       </c>
     </row>
-    <row r="126" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A126" s="341"/>
-      <c r="B126" s="324"/>
+    <row r="126" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A126" s="344"/>
+      <c r="B126" s="346"/>
       <c r="C126" s="237" t="s">
         <v>226</v>
       </c>
@@ -8464,7 +8578,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="127" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A127" s="140"/>
       <c r="B127" s="141"/>
       <c r="C127" s="141"/>
@@ -8478,20 +8592,20 @@
       <c r="K127" s="142"/>
       <c r="L127" s="146"/>
     </row>
-    <row r="128" spans="1:12" ht="26" x14ac:dyDescent="0.35">
-      <c r="A128" s="331" t="s">
+    <row r="128" spans="1:12" ht="27" x14ac:dyDescent="0.3">
+      <c r="A128" s="352" t="s">
         <v>384</v>
       </c>
-      <c r="B128" s="362" t="s">
+      <c r="B128" s="379" t="s">
         <v>355</v>
       </c>
-      <c r="C128" s="365"/>
-      <c r="D128" s="365"/>
-      <c r="E128" s="365"/>
-      <c r="F128" s="365"/>
-      <c r="G128" s="365"/>
+      <c r="C128" s="342"/>
+      <c r="D128" s="342"/>
+      <c r="E128" s="342"/>
+      <c r="F128" s="342"/>
+      <c r="G128" s="342"/>
       <c r="H128" s="149"/>
-      <c r="I128" s="369" t="s">
+      <c r="I128" s="307" t="s">
         <v>373</v>
       </c>
       <c r="J128" s="148"/>
@@ -8500,9 +8614,9 @@
         <v>374</v>
       </c>
     </row>
-    <row r="129" spans="1:12" ht="80" x14ac:dyDescent="0.35">
-      <c r="A129" s="361"/>
-      <c r="B129" s="363"/>
+    <row r="129" spans="1:12" ht="81.599999999999994" x14ac:dyDescent="0.3">
+      <c r="A129" s="378"/>
+      <c r="B129" s="380"/>
       <c r="C129" s="281" t="s">
         <v>12</v>
       </c>
@@ -8520,7 +8634,7 @@
       <c r="I129" s="153" t="s">
         <v>202</v>
       </c>
-      <c r="J129" s="368" t="s">
+      <c r="J129" s="306" t="s">
         <v>202</v>
       </c>
       <c r="K129" s="183" t="s">
@@ -8530,10 +8644,10 @@
         <v>202</v>
       </c>
     </row>
-    <row r="130" spans="1:12" ht="110" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A130" s="361"/>
-      <c r="B130" s="363"/>
-      <c r="C130" s="395" t="s">
+    <row r="130" spans="1:12" ht="109.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="378"/>
+      <c r="B130" s="380"/>
+      <c r="C130" s="330" t="s">
         <v>111</v>
       </c>
       <c r="D130" s="46" t="s">
@@ -8542,29 +8656,29 @@
       <c r="E130" s="46" t="s">
         <v>113</v>
       </c>
-      <c r="F130" s="394" t="s">
+      <c r="F130" s="329" t="s">
         <v>68</v>
       </c>
       <c r="G130" s="251" t="s">
         <v>33</v>
       </c>
       <c r="H130" s="89"/>
-      <c r="I130" s="396" t="s">
-        <v>202</v>
-      </c>
-      <c r="J130" s="368" t="s">
+      <c r="I130" s="331" t="s">
+        <v>202</v>
+      </c>
+      <c r="J130" s="306" t="s">
         <v>202</v>
       </c>
       <c r="K130" s="300" t="s">
         <v>396</v>
       </c>
-      <c r="L130" s="372" t="s">
+      <c r="L130" s="310" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="131" spans="1:12" ht="310" x14ac:dyDescent="0.35">
-      <c r="A131" s="361"/>
-      <c r="B131" s="363"/>
+    <row r="131" spans="1:12" ht="316.2" x14ac:dyDescent="0.3">
+      <c r="A131" s="378"/>
+      <c r="B131" s="380"/>
       <c r="C131" s="281" t="s">
         <v>114</v>
       </c>
@@ -8592,9 +8706,9 @@
         <v>202</v>
       </c>
     </row>
-    <row r="132" spans="1:12" ht="40" x14ac:dyDescent="0.35">
-      <c r="A132" s="361"/>
-      <c r="B132" s="363"/>
+    <row r="132" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A132" s="378"/>
+      <c r="B132" s="380"/>
       <c r="C132" s="281" t="s">
         <v>30</v>
       </c>
@@ -8624,9 +8738,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="133" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A133" s="361"/>
-      <c r="B133" s="363"/>
+    <row r="133" spans="1:12" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="378"/>
+      <c r="B133" s="380"/>
       <c r="C133" s="281" t="s">
         <v>37</v>
       </c>
@@ -8656,9 +8770,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="134" spans="1:12" ht="32" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A134" s="361"/>
-      <c r="B134" s="363"/>
+    <row r="134" spans="1:12" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="378"/>
+      <c r="B134" s="380"/>
       <c r="C134" s="282" t="s">
         <v>117</v>
       </c>
@@ -8686,9 +8800,9 @@
         <v>202</v>
       </c>
     </row>
-    <row r="135" spans="1:12" ht="20" x14ac:dyDescent="0.35">
-      <c r="A135" s="361"/>
-      <c r="B135" s="363"/>
+    <row r="135" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A135" s="378"/>
+      <c r="B135" s="380"/>
       <c r="C135" s="283" t="s">
         <v>192</v>
       </c>
@@ -8716,9 +8830,9 @@
         <v>202</v>
       </c>
     </row>
-    <row r="136" spans="1:12" ht="51.5" x14ac:dyDescent="0.35">
-      <c r="A136" s="361"/>
-      <c r="B136" s="363"/>
+    <row r="136" spans="1:12" ht="52.2" x14ac:dyDescent="0.3">
+      <c r="A136" s="378"/>
+      <c r="B136" s="380"/>
       <c r="C136" s="283" t="s">
         <v>191</v>
       </c>
@@ -8741,16 +8855,16 @@
       <c r="J136" s="152" t="s">
         <v>364</v>
       </c>
-      <c r="K136" s="370" t="s">
+      <c r="K136" s="308" t="s">
         <v>375</v>
       </c>
       <c r="L136" s="197" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="137" spans="1:12" ht="40" x14ac:dyDescent="0.35">
-      <c r="A137" s="361"/>
-      <c r="B137" s="363"/>
+    <row r="137" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A137" s="378"/>
+      <c r="B137" s="380"/>
       <c r="C137" s="283" t="s">
         <v>193</v>
       </c>
@@ -8780,9 +8894,9 @@
         <v>202</v>
       </c>
     </row>
-    <row r="138" spans="1:12" ht="40" x14ac:dyDescent="0.35">
-      <c r="A138" s="361"/>
-      <c r="B138" s="363"/>
+    <row r="138" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A138" s="378"/>
+      <c r="B138" s="380"/>
       <c r="C138" s="283" t="s">
         <v>194</v>
       </c>
@@ -8812,9 +8926,9 @@
         <v>202</v>
       </c>
     </row>
-    <row r="139" spans="1:12" ht="30.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A139" s="332"/>
-      <c r="B139" s="364"/>
+    <row r="139" spans="1:12" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A139" s="353"/>
+      <c r="B139" s="381"/>
       <c r="C139" s="284" t="s">
         <v>195</v>
       </c>
@@ -8844,7 +8958,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="140" spans="1:12" ht="8" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:12" ht="7.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A140" s="57"/>
       <c r="B140" s="68"/>
       <c r="C140" s="58"/>
@@ -8858,11 +8972,11 @@
       <c r="K140" s="58"/>
       <c r="L140" s="60"/>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A141" s="310" t="s">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A141" s="386" t="s">
         <v>126</v>
       </c>
-      <c r="B141" s="314" t="s">
+      <c r="B141" s="373" t="s">
         <v>127</v>
       </c>
       <c r="C141" s="110"/>
@@ -8878,9 +8992,9 @@
       <c r="K141" s="110"/>
       <c r="L141" s="98"/>
     </row>
-    <row r="142" spans="1:12" ht="100" x14ac:dyDescent="0.35">
-      <c r="A142" s="311"/>
-      <c r="B142" s="315"/>
+    <row r="142" spans="1:12" ht="102" x14ac:dyDescent="0.3">
+      <c r="A142" s="376"/>
+      <c r="B142" s="374"/>
       <c r="C142" s="3" t="s">
         <v>128</v>
       </c>
@@ -8908,9 +9022,9 @@
         <v>171</v>
       </c>
     </row>
-    <row r="143" spans="1:12" ht="90.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A143" s="313"/>
-      <c r="B143" s="317"/>
+    <row r="143" spans="1:12" ht="92.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A143" s="377"/>
+      <c r="B143" s="375"/>
       <c r="C143" s="113" t="s">
         <v>132</v>
       </c>
@@ -8938,7 +9052,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="144" spans="1:12" ht="8" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:12" ht="7.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A144" s="57"/>
       <c r="B144" s="68"/>
       <c r="C144" s="58"/>
@@ -8952,18 +9066,18 @@
       <c r="K144" s="58"/>
       <c r="L144" s="60"/>
     </row>
-    <row r="145" spans="1:12" ht="70" x14ac:dyDescent="0.35">
-      <c r="A145" s="322" t="s">
+    <row r="145" spans="1:12" ht="71.400000000000006" x14ac:dyDescent="0.3">
+      <c r="A145" s="343" t="s">
         <v>135</v>
       </c>
-      <c r="B145" s="314" t="s">
+      <c r="B145" s="373" t="s">
         <v>136</v>
       </c>
-      <c r="C145" s="335"/>
-      <c r="D145" s="335"/>
-      <c r="E145" s="335"/>
-      <c r="F145" s="335"/>
-      <c r="G145" s="336"/>
+      <c r="C145" s="362"/>
+      <c r="D145" s="362"/>
+      <c r="E145" s="362"/>
+      <c r="F145" s="362"/>
+      <c r="G145" s="363"/>
       <c r="H145" s="51"/>
       <c r="I145" s="217" t="s">
         <v>140</v>
@@ -8976,9 +9090,9 @@
         <v>179</v>
       </c>
     </row>
-    <row r="146" spans="1:12" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A146" s="311"/>
-      <c r="B146" s="315"/>
+    <row r="146" spans="1:12" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A146" s="376"/>
+      <c r="B146" s="374"/>
       <c r="C146" s="3" t="s">
         <v>137</v>
       </c>
@@ -9006,9 +9120,9 @@
         <v>202</v>
       </c>
     </row>
-    <row r="147" spans="1:12" ht="20" x14ac:dyDescent="0.35">
-      <c r="A147" s="311"/>
-      <c r="B147" s="315"/>
+    <row r="147" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A147" s="376"/>
+      <c r="B147" s="374"/>
       <c r="C147" s="3" t="s">
         <v>143</v>
       </c>
@@ -9036,9 +9150,9 @@
         <v>202</v>
       </c>
     </row>
-    <row r="148" spans="1:12" ht="30.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A148" s="313"/>
-      <c r="B148" s="317"/>
+    <row r="148" spans="1:12" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A148" s="377"/>
+      <c r="B148" s="375"/>
       <c r="C148" s="113" t="s">
         <v>147</v>
       </c>
@@ -9066,7 +9180,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="149" spans="1:12" ht="8" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:12" ht="7.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A149" s="57"/>
       <c r="B149" s="68"/>
       <c r="C149" s="58"/>
@@ -9080,18 +9194,18 @@
       <c r="K149" s="58"/>
       <c r="L149" s="60"/>
     </row>
-    <row r="150" spans="1:12" ht="100.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A150" s="322" t="s">
+    <row r="150" spans="1:12" ht="100.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A150" s="343" t="s">
         <v>310</v>
       </c>
-      <c r="B150" s="314" t="s">
+      <c r="B150" s="373" t="s">
         <v>136</v>
       </c>
-      <c r="C150" s="335"/>
-      <c r="D150" s="335"/>
-      <c r="E150" s="335"/>
-      <c r="F150" s="335"/>
-      <c r="G150" s="336"/>
+      <c r="C150" s="362"/>
+      <c r="D150" s="362"/>
+      <c r="E150" s="362"/>
+      <c r="F150" s="362"/>
+      <c r="G150" s="363"/>
       <c r="H150" s="51"/>
       <c r="I150" s="121" t="s">
         <v>151</v>
@@ -9104,9 +9218,9 @@
         <v>179</v>
       </c>
     </row>
-    <row r="151" spans="1:12" ht="30" x14ac:dyDescent="0.35">
-      <c r="A151" s="311"/>
-      <c r="B151" s="315"/>
+    <row r="151" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A151" s="376"/>
+      <c r="B151" s="374"/>
       <c r="C151" s="3" t="s">
         <v>137</v>
       </c>
@@ -9134,9 +9248,9 @@
         <v>319</v>
       </c>
     </row>
-    <row r="152" spans="1:12" ht="20" x14ac:dyDescent="0.35">
-      <c r="A152" s="311"/>
-      <c r="B152" s="315"/>
+    <row r="152" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A152" s="376"/>
+      <c r="B152" s="374"/>
       <c r="C152" s="3" t="s">
         <v>143</v>
       </c>
@@ -9164,9 +9278,9 @@
         <v>319</v>
       </c>
     </row>
-    <row r="153" spans="1:12" ht="30.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A153" s="313"/>
-      <c r="B153" s="317"/>
+    <row r="153" spans="1:12" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A153" s="377"/>
+      <c r="B153" s="375"/>
       <c r="C153" s="113" t="s">
         <v>147</v>
       </c>
@@ -9194,7 +9308,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="154" spans="1:12" ht="8" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:12" ht="7.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A154" s="57"/>
       <c r="B154" s="68"/>
       <c r="C154" s="58"/>
@@ -9208,18 +9322,18 @@
       <c r="K154" s="58"/>
       <c r="L154" s="60"/>
     </row>
-    <row r="155" spans="1:12" ht="70" x14ac:dyDescent="0.35">
-      <c r="A155" s="322" t="s">
+    <row r="155" spans="1:12" ht="71.400000000000006" x14ac:dyDescent="0.3">
+      <c r="A155" s="343" t="s">
         <v>182</v>
       </c>
-      <c r="B155" s="314" t="s">
+      <c r="B155" s="373" t="s">
         <v>136</v>
       </c>
-      <c r="C155" s="337"/>
-      <c r="D155" s="337"/>
-      <c r="E155" s="337"/>
-      <c r="F155" s="337"/>
-      <c r="G155" s="338"/>
+      <c r="C155" s="370"/>
+      <c r="D155" s="370"/>
+      <c r="E155" s="370"/>
+      <c r="F155" s="370"/>
+      <c r="G155" s="371"/>
       <c r="H155" s="124"/>
       <c r="I155" s="121" t="s">
         <v>183</v>
@@ -9232,9 +9346,9 @@
         <v>179</v>
       </c>
     </row>
-    <row r="156" spans="1:12" ht="30" x14ac:dyDescent="0.35">
-      <c r="A156" s="341"/>
-      <c r="B156" s="315"/>
+    <row r="156" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A156" s="344"/>
+      <c r="B156" s="374"/>
       <c r="C156" s="187" t="s">
         <v>137</v>
       </c>
@@ -9262,9 +9376,9 @@
         <v>202</v>
       </c>
     </row>
-    <row r="157" spans="1:12" ht="20" x14ac:dyDescent="0.35">
-      <c r="A157" s="341"/>
-      <c r="B157" s="315"/>
+    <row r="157" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A157" s="344"/>
+      <c r="B157" s="374"/>
       <c r="C157" s="187" t="s">
         <v>143</v>
       </c>
@@ -9292,9 +9406,9 @@
         <v>202</v>
       </c>
     </row>
-    <row r="158" spans="1:12" ht="30.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A158" s="342"/>
-      <c r="B158" s="317"/>
+    <row r="158" spans="1:12" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A158" s="372"/>
+      <c r="B158" s="375"/>
       <c r="C158" s="198" t="s">
         <v>147</v>
       </c>
@@ -9322,7 +9436,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="159" spans="1:12" ht="8" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:12" ht="7.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A159" s="57"/>
       <c r="B159" s="68"/>
       <c r="C159" s="58"/>
@@ -9336,11 +9450,11 @@
       <c r="K159" s="58"/>
       <c r="L159" s="60"/>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A160" s="322" t="s">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A160" s="343" t="s">
         <v>152</v>
       </c>
-      <c r="B160" s="314" t="s">
+      <c r="B160" s="373" t="s">
         <v>136</v>
       </c>
       <c r="C160" s="110"/>
@@ -9354,9 +9468,9 @@
       <c r="K160" s="127"/>
       <c r="L160" s="128"/>
     </row>
-    <row r="161" spans="1:12" ht="30" x14ac:dyDescent="0.35">
-      <c r="A161" s="311"/>
-      <c r="B161" s="315"/>
+    <row r="161" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A161" s="376"/>
+      <c r="B161" s="374"/>
       <c r="C161" s="3" t="s">
         <v>137</v>
       </c>
@@ -9384,9 +9498,9 @@
         <v>202</v>
       </c>
     </row>
-    <row r="162" spans="1:12" ht="40" x14ac:dyDescent="0.35">
-      <c r="A162" s="311"/>
-      <c r="B162" s="315"/>
+    <row r="162" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A162" s="376"/>
+      <c r="B162" s="374"/>
       <c r="C162" s="3" t="s">
         <v>143</v>
       </c>
@@ -9414,9 +9528,9 @@
         <v>153</v>
       </c>
     </row>
-    <row r="163" spans="1:12" ht="30.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A163" s="313"/>
-      <c r="B163" s="317"/>
+    <row r="163" spans="1:12" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A163" s="377"/>
+      <c r="B163" s="375"/>
       <c r="C163" s="113" t="s">
         <v>147</v>
       </c>
@@ -9444,7 +9558,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="164" spans="1:12" ht="8" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:12" ht="7.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A164" s="57"/>
       <c r="B164" s="68"/>
       <c r="C164" s="58"/>
@@ -9458,29 +9572,29 @@
       <c r="K164" s="58"/>
       <c r="L164" s="60"/>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A165" s="310" t="s">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A165" s="386" t="s">
         <v>155</v>
       </c>
-      <c r="B165" s="318" t="s">
+      <c r="B165" s="387" t="s">
         <v>156</v>
       </c>
-      <c r="C165" s="339"/>
-      <c r="D165" s="339"/>
-      <c r="E165" s="339"/>
-      <c r="F165" s="339"/>
-      <c r="G165" s="340"/>
+      <c r="C165" s="357"/>
+      <c r="D165" s="357"/>
+      <c r="E165" s="357"/>
+      <c r="F165" s="357"/>
+      <c r="G165" s="358"/>
       <c r="H165" s="51"/>
       <c r="I165" s="121" t="s">
         <v>140</v>
       </c>
-      <c r="J165" s="344"/>
-      <c r="K165" s="344"/>
+      <c r="J165" s="356"/>
+      <c r="K165" s="356"/>
       <c r="L165" s="101"/>
     </row>
-    <row r="166" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A166" s="311"/>
-      <c r="B166" s="319"/>
+    <row r="166" spans="1:12" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A166" s="376"/>
+      <c r="B166" s="388"/>
       <c r="C166" s="36" t="s">
         <v>157</v>
       </c>
@@ -9508,9 +9622,9 @@
         <v>184</v>
       </c>
     </row>
-    <row r="167" spans="1:12" ht="110.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A167" s="313"/>
-      <c r="B167" s="321"/>
+    <row r="167" spans="1:12" ht="112.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A167" s="377"/>
+      <c r="B167" s="389"/>
       <c r="C167" s="102" t="s">
         <v>161</v>
       </c>
@@ -9538,7 +9652,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="168" spans="1:12" ht="8" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:12" ht="7.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A168" s="57"/>
       <c r="B168" s="68"/>
       <c r="C168" s="58"/>
@@ -9552,29 +9666,29 @@
       <c r="K168" s="58"/>
       <c r="L168" s="60"/>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A169" s="322" t="s">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A169" s="343" t="s">
         <v>311</v>
       </c>
-      <c r="B169" s="318" t="s">
+      <c r="B169" s="387" t="s">
         <v>156</v>
       </c>
-      <c r="C169" s="339"/>
-      <c r="D169" s="339"/>
-      <c r="E169" s="339"/>
-      <c r="F169" s="339"/>
-      <c r="G169" s="340"/>
+      <c r="C169" s="357"/>
+      <c r="D169" s="357"/>
+      <c r="E169" s="357"/>
+      <c r="F169" s="357"/>
+      <c r="G169" s="358"/>
       <c r="H169" s="51"/>
       <c r="I169" s="121" t="s">
         <v>186</v>
       </c>
-      <c r="J169" s="344"/>
-      <c r="K169" s="344"/>
+      <c r="J169" s="356"/>
+      <c r="K169" s="356"/>
       <c r="L169" s="101"/>
     </row>
-    <row r="170" spans="1:12" ht="130" x14ac:dyDescent="0.35">
-      <c r="A170" s="311"/>
-      <c r="B170" s="319"/>
+    <row r="170" spans="1:12" ht="132.6" x14ac:dyDescent="0.3">
+      <c r="A170" s="376"/>
+      <c r="B170" s="388"/>
       <c r="C170" s="36" t="s">
         <v>157</v>
       </c>
@@ -9602,9 +9716,9 @@
         <v>184</v>
       </c>
     </row>
-    <row r="171" spans="1:12" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A171" s="313"/>
-      <c r="B171" s="321"/>
+    <row r="171" spans="1:12" ht="25.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A171" s="377"/>
+      <c r="B171" s="389"/>
       <c r="C171" s="102" t="s">
         <v>161</v>
       </c>
@@ -9632,7 +9746,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="172" spans="1:12" ht="8" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:12" ht="7.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A172" s="140"/>
       <c r="B172" s="141"/>
       <c r="C172" s="141"/>
@@ -9646,11 +9760,11 @@
       <c r="K172" s="142"/>
       <c r="L172" s="146"/>
     </row>
-    <row r="173" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A173" s="331" t="s">
+    <row r="173" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A173" s="352" t="s">
         <v>306</v>
       </c>
-      <c r="B173" s="333"/>
+      <c r="B173" s="354"/>
       <c r="C173" s="154" t="s">
         <v>252</v>
       </c>
@@ -9676,9 +9790,9 @@
         <v>353</v>
       </c>
     </row>
-    <row r="174" spans="1:12" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A174" s="332"/>
-      <c r="B174" s="334"/>
+    <row r="174" spans="1:12" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A174" s="353"/>
+      <c r="B174" s="355"/>
       <c r="C174" s="161" t="s">
         <v>147</v>
       </c>
@@ -9704,7 +9818,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="175" spans="1:12" ht="8" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:12" ht="7.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A175" s="140"/>
       <c r="B175" s="141"/>
       <c r="C175" s="141"/>
@@ -9718,11 +9832,11 @@
       <c r="K175" s="142"/>
       <c r="L175" s="146"/>
     </row>
-    <row r="176" spans="1:12" ht="21.5" x14ac:dyDescent="0.35">
-      <c r="A176" s="331" t="s">
+    <row r="176" spans="1:12" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A176" s="352" t="s">
         <v>290</v>
       </c>
-      <c r="B176" s="333"/>
+      <c r="B176" s="354"/>
       <c r="C176" s="154" t="s">
         <v>252</v>
       </c>
@@ -9744,13 +9858,13 @@
       <c r="K176" s="155" t="s">
         <v>291</v>
       </c>
-      <c r="L176" s="371" t="s">
+      <c r="L176" s="309" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="177" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A177" s="332"/>
-      <c r="B177" s="334"/>
+    <row r="177" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A177" s="353"/>
+      <c r="B177" s="355"/>
       <c r="C177" s="161" t="s">
         <v>147</v>
       </c>
@@ -9776,7 +9890,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="178" spans="1:12" ht="8" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:12" ht="7.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A178" s="166"/>
       <c r="B178" s="167"/>
       <c r="C178" s="167"/>
@@ -9790,11 +9904,11 @@
       <c r="K178" s="56"/>
       <c r="L178" s="169"/>
     </row>
-    <row r="179" spans="1:12" ht="21.5" x14ac:dyDescent="0.35">
-      <c r="A179" s="331" t="s">
+    <row r="179" spans="1:12" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A179" s="352" t="s">
         <v>316</v>
       </c>
-      <c r="B179" s="333"/>
+      <c r="B179" s="354"/>
       <c r="C179" s="154" t="s">
         <v>252</v>
       </c>
@@ -9820,9 +9934,9 @@
         <v>377</v>
       </c>
     </row>
-    <row r="180" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A180" s="332"/>
-      <c r="B180" s="334"/>
+    <row r="180" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A180" s="353"/>
+      <c r="B180" s="355"/>
       <c r="C180" s="161" t="s">
         <v>147</v>
       </c>
@@ -9848,7 +9962,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="181" spans="1:12" ht="8" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:12" ht="7.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A181" s="166"/>
       <c r="B181" s="167"/>
       <c r="C181" s="167"/>
@@ -9862,11 +9976,11 @@
       <c r="K181" s="56"/>
       <c r="L181" s="169"/>
     </row>
-    <row r="182" spans="1:12" ht="21.5" x14ac:dyDescent="0.35">
-      <c r="A182" s="331" t="s">
+    <row r="182" spans="1:12" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A182" s="352" t="s">
         <v>300</v>
       </c>
-      <c r="B182" s="333"/>
+      <c r="B182" s="354"/>
       <c r="C182" s="154" t="s">
         <v>252</v>
       </c>
@@ -9892,9 +10006,9 @@
         <v>354</v>
       </c>
     </row>
-    <row r="183" spans="1:12" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A183" s="332"/>
-      <c r="B183" s="334"/>
+    <row r="183" spans="1:12" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A183" s="353"/>
+      <c r="B183" s="355"/>
       <c r="C183" s="161" t="s">
         <v>147</v>
       </c>
@@ -9920,7 +10034,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="184" spans="1:12" ht="8" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:12" ht="7.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A184" s="166"/>
       <c r="B184" s="167"/>
       <c r="C184" s="167"/>
@@ -9934,11 +10048,11 @@
       <c r="K184" s="56"/>
       <c r="L184" s="169"/>
     </row>
-    <row r="185" spans="1:12" ht="30" x14ac:dyDescent="0.35">
-      <c r="A185" s="328" t="s">
+    <row r="185" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A185" s="383" t="s">
         <v>257</v>
       </c>
-      <c r="B185" s="325" t="s">
+      <c r="B185" s="347" t="s">
         <v>258</v>
       </c>
       <c r="C185" s="179" t="s">
@@ -9966,9 +10080,9 @@
         <v>271</v>
       </c>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A186" s="329"/>
-      <c r="B186" s="326"/>
+    <row r="186" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A186" s="384"/>
+      <c r="B186" s="348"/>
       <c r="C186" s="179" t="s">
         <v>261</v>
       </c>
@@ -9994,9 +10108,9 @@
         <v>202</v>
       </c>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A187" s="329"/>
-      <c r="B187" s="326"/>
+    <row r="187" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A187" s="384"/>
+      <c r="B187" s="348"/>
       <c r="C187" s="179" t="s">
         <v>263</v>
       </c>
@@ -10022,9 +10136,9 @@
         <v>202</v>
       </c>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A188" s="329"/>
-      <c r="B188" s="326"/>
+    <row r="188" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A188" s="384"/>
+      <c r="B188" s="348"/>
       <c r="C188" s="186" t="s">
         <v>264</v>
       </c>
@@ -10050,9 +10164,9 @@
         <v>202</v>
       </c>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A189" s="329"/>
-      <c r="B189" s="326"/>
+    <row r="189" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A189" s="384"/>
+      <c r="B189" s="348"/>
       <c r="C189" s="186" t="s">
         <v>266</v>
       </c>
@@ -10078,9 +10192,9 @@
         <v>202</v>
       </c>
     </row>
-    <row r="190" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A190" s="330"/>
-      <c r="B190" s="327"/>
+    <row r="190" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A190" s="385"/>
+      <c r="B190" s="382"/>
       <c r="C190" s="204" t="s">
         <v>268</v>
       </c>
@@ -10106,7 +10220,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="191" spans="1:12" ht="8" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:12" ht="7.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A191" s="222"/>
       <c r="B191" s="223"/>
       <c r="C191" s="224"/>
@@ -10120,11 +10234,11 @@
       <c r="K191" s="230"/>
       <c r="L191" s="231"/>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A192" s="347" t="s">
+    <row r="192" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A192" s="349" t="s">
         <v>288</v>
       </c>
-      <c r="B192" s="325" t="s">
+      <c r="B192" s="347" t="s">
         <v>273</v>
       </c>
       <c r="C192" s="234" t="s">
@@ -10156,9 +10270,9 @@
         <v>202</v>
       </c>
     </row>
-    <row r="193" spans="1:12" ht="40" x14ac:dyDescent="0.35">
-      <c r="A193" s="348"/>
-      <c r="B193" s="326"/>
+    <row r="193" spans="1:12" ht="40.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A193" s="350"/>
+      <c r="B193" s="348"/>
       <c r="C193" s="186" t="s">
         <v>277</v>
       </c>
@@ -10188,9 +10302,9 @@
         <v>383</v>
       </c>
     </row>
-    <row r="194" spans="1:12" ht="20" x14ac:dyDescent="0.35">
-      <c r="A194" s="348"/>
-      <c r="B194" s="326"/>
+    <row r="194" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A194" s="350"/>
+      <c r="B194" s="348"/>
       <c r="C194" s="186" t="s">
         <v>279</v>
       </c>
@@ -10220,9 +10334,9 @@
         <v>202</v>
       </c>
     </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A195" s="348"/>
-      <c r="B195" s="326"/>
+    <row r="195" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A195" s="350"/>
+      <c r="B195" s="348"/>
       <c r="C195" s="186" t="s">
         <v>281</v>
       </c>
@@ -10252,60 +10366,60 @@
         <v>202</v>
       </c>
     </row>
-    <row r="196" spans="1:12" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A196" s="381"/>
-      <c r="B196" s="326"/>
-      <c r="C196" s="382" t="s">
+    <row r="196" spans="1:12" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A196" s="351"/>
+      <c r="B196" s="348"/>
+      <c r="C196" s="317" t="s">
         <v>284</v>
       </c>
-      <c r="D196" s="383" t="s">
+      <c r="D196" s="318" t="s">
         <v>285</v>
       </c>
-      <c r="E196" s="383" t="s">
+      <c r="E196" s="318" t="s">
         <v>286</v>
       </c>
-      <c r="F196" s="384" t="s">
+      <c r="F196" s="319" t="s">
         <v>15</v>
       </c>
-      <c r="G196" s="385" t="s">
+      <c r="G196" s="320" t="s">
         <v>33</v>
       </c>
       <c r="H196" s="171"/>
-      <c r="I196" s="386" t="s">
-        <v>202</v>
-      </c>
-      <c r="J196" s="384" t="s">
-        <v>202</v>
-      </c>
-      <c r="K196" s="383" t="s">
+      <c r="I196" s="321" t="s">
+        <v>202</v>
+      </c>
+      <c r="J196" s="319" t="s">
+        <v>202</v>
+      </c>
+      <c r="K196" s="318" t="s">
         <v>232</v>
       </c>
-      <c r="L196" s="387" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="197" spans="1:12" ht="8" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A197" s="388"/>
-      <c r="B197" s="389"/>
-      <c r="C197" s="390"/>
-      <c r="D197" s="391"/>
-      <c r="E197" s="391"/>
-      <c r="F197" s="392"/>
+      <c r="L196" s="322" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="197" spans="1:12" ht="7.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A197" s="323"/>
+      <c r="B197" s="324"/>
+      <c r="C197" s="325"/>
+      <c r="D197" s="326"/>
+      <c r="E197" s="326"/>
+      <c r="F197" s="327"/>
       <c r="G197" s="44"/>
-      <c r="H197" s="393"/>
+      <c r="H197" s="328"/>
       <c r="I197" s="54"/>
       <c r="J197" s="54"/>
       <c r="K197" s="172"/>
       <c r="L197" s="55"/>
     </row>
-    <row r="198" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A198" s="349" t="s">
+    <row r="198" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A198" s="340" t="s">
         <v>385</v>
       </c>
-      <c r="B198" s="375" t="s">
+      <c r="B198" s="338" t="s">
         <v>386</v>
       </c>
-      <c r="C198" s="376" t="s">
+      <c r="C198" s="313" t="s">
         <v>387</v>
       </c>
       <c r="D198" s="299" t="s">
@@ -10314,10 +10428,10 @@
       <c r="E198" s="299" t="s">
         <v>390</v>
       </c>
-      <c r="F198" s="377" t="s">
+      <c r="F198" s="314" t="s">
         <v>22</v>
       </c>
-      <c r="G198" s="379"/>
+      <c r="G198" s="315"/>
       <c r="H198" s="149"/>
       <c r="I198" s="158" t="s">
         <v>393</v>
@@ -10330,9 +10444,9 @@
       </c>
       <c r="L198" s="160"/>
     </row>
-    <row r="199" spans="1:12" ht="32" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A199" s="351"/>
-      <c r="B199" s="378"/>
+    <row r="199" spans="1:12" ht="42.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A199" s="341"/>
+      <c r="B199" s="339"/>
       <c r="C199" s="161" t="s">
         <v>161</v>
       </c>
@@ -10345,7 +10459,7 @@
       <c r="F199" s="199">
         <v>1</v>
       </c>
-      <c r="G199" s="380"/>
+      <c r="G199" s="316"/>
       <c r="H199" s="150"/>
       <c r="I199" s="164" t="s">
         <v>202</v>
@@ -10360,7 +10474,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A200" s="78"/>
       <c r="B200" s="78"/>
       <c r="C200" s="78"/>
@@ -10374,7 +10488,7 @@
       <c r="K200" s="79"/>
       <c r="L200" s="79"/>
     </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A201" s="78"/>
       <c r="B201" s="78"/>
       <c r="C201" s="78"/>
@@ -10388,7 +10502,7 @@
       <c r="K201" s="79"/>
       <c r="L201" s="79"/>
     </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A202" s="78"/>
       <c r="B202" s="78"/>
       <c r="C202" s="78"/>
@@ -10402,7 +10516,7 @@
       <c r="K202" s="79"/>
       <c r="L202" s="79"/>
     </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A203" s="78"/>
       <c r="B203" s="78"/>
       <c r="C203" s="78"/>
@@ -10416,7 +10530,7 @@
       <c r="K203" s="79"/>
       <c r="L203" s="79"/>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A204" s="78"/>
       <c r="B204" s="78"/>
       <c r="C204" s="78"/>
@@ -10430,7 +10544,7 @@
       <c r="K204" s="79"/>
       <c r="L204" s="79"/>
     </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A205" s="78"/>
       <c r="B205" s="78"/>
       <c r="C205" s="78"/>
@@ -10444,7 +10558,7 @@
       <c r="K205" s="79"/>
       <c r="L205" s="79"/>
     </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A206" s="78"/>
       <c r="B206" s="78"/>
       <c r="C206" s="78"/>
@@ -10458,7 +10572,7 @@
       <c r="K206" s="79"/>
       <c r="L206" s="79"/>
     </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A207" s="78"/>
       <c r="B207" s="78"/>
       <c r="C207" s="78"/>
@@ -10472,7 +10586,7 @@
       <c r="K207" s="79"/>
       <c r="L207" s="79"/>
     </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A208" s="78"/>
       <c r="B208" s="78"/>
       <c r="C208" s="78"/>
@@ -10486,7 +10600,7 @@
       <c r="K208" s="79"/>
       <c r="L208" s="79"/>
     </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A209" s="78"/>
       <c r="B209" s="78"/>
       <c r="C209" s="78"/>
@@ -10500,7 +10614,7 @@
       <c r="K209" s="79"/>
       <c r="L209" s="79"/>
     </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A210" s="78"/>
       <c r="B210" s="78"/>
       <c r="C210" s="78"/>
@@ -10514,7 +10628,7 @@
       <c r="K210" s="79"/>
       <c r="L210" s="79"/>
     </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A211" s="78"/>
       <c r="B211" s="78"/>
       <c r="C211" s="78"/>
@@ -10528,7 +10642,7 @@
       <c r="K211" s="79"/>
       <c r="L211" s="79"/>
     </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A212" s="78"/>
       <c r="B212" s="78"/>
       <c r="C212" s="78"/>
@@ -10542,7 +10656,7 @@
       <c r="K212" s="79"/>
       <c r="L212" s="79"/>
     </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A213" s="78"/>
       <c r="B213" s="78"/>
       <c r="C213" s="78"/>
@@ -10556,7 +10670,7 @@
       <c r="K213" s="79"/>
       <c r="L213" s="79"/>
     </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A214" s="78"/>
       <c r="B214" s="78"/>
       <c r="C214" s="78"/>
@@ -10570,7 +10684,7 @@
       <c r="K214" s="79"/>
       <c r="L214" s="79"/>
     </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A215" s="78"/>
       <c r="B215" s="78"/>
       <c r="C215" s="78"/>
@@ -10584,7 +10698,7 @@
       <c r="K215" s="79"/>
       <c r="L215" s="79"/>
     </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A216" s="78"/>
       <c r="B216" s="78"/>
       <c r="C216" s="78"/>
@@ -10598,7 +10712,7 @@
       <c r="K216" s="79"/>
       <c r="L216" s="79"/>
     </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A217" s="78"/>
       <c r="B217" s="78"/>
       <c r="C217" s="78"/>
@@ -10612,7 +10726,7 @@
       <c r="K217" s="79"/>
       <c r="L217" s="79"/>
     </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A218" s="78"/>
       <c r="B218" s="78"/>
       <c r="C218" s="78"/>
@@ -10626,7 +10740,7 @@
       <c r="K218" s="79"/>
       <c r="L218" s="79"/>
     </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A219" s="78"/>
       <c r="B219" s="78"/>
       <c r="C219" s="78"/>
@@ -10640,7 +10754,7 @@
       <c r="K219" s="79"/>
       <c r="L219" s="79"/>
     </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A220" s="78"/>
       <c r="B220" s="78"/>
       <c r="C220" s="78"/>
@@ -10654,7 +10768,7 @@
       <c r="K220" s="79"/>
       <c r="L220" s="79"/>
     </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A221" s="78"/>
       <c r="B221" s="78"/>
       <c r="C221" s="78"/>
@@ -10668,7 +10782,7 @@
       <c r="K221" s="79"/>
       <c r="L221" s="79"/>
     </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A222" s="78"/>
       <c r="B222" s="78"/>
       <c r="C222" s="78"/>
@@ -10682,7 +10796,7 @@
       <c r="K222" s="79"/>
       <c r="L222" s="79"/>
     </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A223" s="78"/>
       <c r="B223" s="78"/>
       <c r="C223" s="78"/>
@@ -10696,7 +10810,7 @@
       <c r="K223" s="79"/>
       <c r="L223" s="79"/>
     </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A224" s="78"/>
       <c r="B224" s="78"/>
       <c r="C224" s="78"/>
@@ -10710,7 +10824,7 @@
       <c r="K224" s="79"/>
       <c r="L224" s="79"/>
     </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A225" s="78"/>
       <c r="B225" s="78"/>
       <c r="C225" s="78"/>
@@ -10724,7 +10838,7 @@
       <c r="K225" s="79"/>
       <c r="L225" s="79"/>
     </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A226" s="78"/>
       <c r="B226" s="78"/>
       <c r="C226" s="78"/>
@@ -10738,7 +10852,7 @@
       <c r="K226" s="79"/>
       <c r="L226" s="79"/>
     </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A227" s="78"/>
       <c r="B227" s="78"/>
       <c r="C227" s="78"/>
@@ -10752,7 +10866,7 @@
       <c r="K227" s="79"/>
       <c r="L227" s="79"/>
     </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A228" s="78"/>
       <c r="B228" s="78"/>
       <c r="C228" s="78"/>
@@ -10766,7 +10880,7 @@
       <c r="K228" s="79"/>
       <c r="L228" s="79"/>
     </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A229" s="78"/>
       <c r="B229" s="78"/>
       <c r="C229" s="78"/>
@@ -10780,7 +10894,7 @@
       <c r="K229" s="79"/>
       <c r="L229" s="79"/>
     </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A230" s="78"/>
       <c r="B230" s="78"/>
       <c r="C230" s="78"/>
@@ -10794,7 +10908,7 @@
       <c r="K230" s="79"/>
       <c r="L230" s="79"/>
     </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A231" s="78"/>
       <c r="B231" s="78"/>
       <c r="C231" s="78"/>
@@ -10808,7 +10922,7 @@
       <c r="K231" s="79"/>
       <c r="L231" s="79"/>
     </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A232" s="78"/>
       <c r="B232" s="78"/>
       <c r="C232" s="78"/>
@@ -10822,7 +10936,7 @@
       <c r="K232" s="79"/>
       <c r="L232" s="79"/>
     </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A233" s="78"/>
       <c r="B233" s="78"/>
       <c r="C233" s="78"/>
@@ -10836,7 +10950,7 @@
       <c r="K233" s="79"/>
       <c r="L233" s="79"/>
     </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A234" s="78"/>
       <c r="B234" s="78"/>
       <c r="C234" s="78"/>
@@ -10850,7 +10964,7 @@
       <c r="K234" s="79"/>
       <c r="L234" s="79"/>
     </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A235" s="78"/>
       <c r="B235" s="78"/>
       <c r="C235" s="78"/>
@@ -10864,7 +10978,7 @@
       <c r="K235" s="79"/>
       <c r="L235" s="79"/>
     </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A236" s="78"/>
       <c r="B236" s="78"/>
       <c r="C236" s="78"/>
@@ -10878,7 +10992,7 @@
       <c r="K236" s="79"/>
       <c r="L236" s="79"/>
     </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A237" s="78"/>
       <c r="B237" s="78"/>
       <c r="C237" s="78"/>
@@ -10892,7 +11006,7 @@
       <c r="K237" s="79"/>
       <c r="L237" s="79"/>
     </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A238" s="78"/>
       <c r="B238" s="78"/>
       <c r="C238" s="78"/>
@@ -10906,7 +11020,7 @@
       <c r="K238" s="79"/>
       <c r="L238" s="79"/>
     </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A239" s="78"/>
       <c r="B239" s="78"/>
       <c r="C239" s="78"/>
@@ -10920,7 +11034,7 @@
       <c r="K239" s="79"/>
       <c r="L239" s="79"/>
     </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A240" s="78"/>
       <c r="B240" s="78"/>
       <c r="C240" s="78"/>
@@ -10934,7 +11048,7 @@
       <c r="K240" s="79"/>
       <c r="L240" s="79"/>
     </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A241" s="78"/>
       <c r="B241" s="78"/>
       <c r="C241" s="78"/>
@@ -10948,7 +11062,7 @@
       <c r="K241" s="79"/>
       <c r="L241" s="79"/>
     </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A242" s="78"/>
       <c r="B242" s="78"/>
       <c r="C242" s="78"/>
@@ -10962,7 +11076,7 @@
       <c r="K242" s="79"/>
       <c r="L242" s="79"/>
     </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A243" s="78"/>
       <c r="B243" s="78"/>
       <c r="C243" s="78"/>
@@ -10976,7 +11090,7 @@
       <c r="K243" s="79"/>
       <c r="L243" s="79"/>
     </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A244" s="78"/>
       <c r="B244" s="78"/>
       <c r="C244" s="78"/>
@@ -10990,7 +11104,7 @@
       <c r="K244" s="79"/>
       <c r="L244" s="79"/>
     </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A245" s="78"/>
       <c r="B245" s="78"/>
       <c r="C245" s="78"/>
@@ -11004,7 +11118,7 @@
       <c r="K245" s="79"/>
       <c r="L245" s="79"/>
     </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A246" s="78"/>
       <c r="B246" s="78"/>
       <c r="C246" s="78"/>
@@ -11018,7 +11132,7 @@
       <c r="K246" s="79"/>
       <c r="L246" s="79"/>
     </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A247" s="78"/>
       <c r="B247" s="78"/>
       <c r="C247" s="78"/>
@@ -11032,7 +11146,7 @@
       <c r="K247" s="79"/>
       <c r="L247" s="79"/>
     </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A248" s="78"/>
       <c r="B248" s="78"/>
       <c r="C248" s="78"/>
@@ -11046,7 +11160,7 @@
       <c r="K248" s="79"/>
       <c r="L248" s="79"/>
     </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A249" s="78"/>
       <c r="B249" s="78"/>
       <c r="C249" s="78"/>
@@ -11060,7 +11174,7 @@
       <c r="K249" s="79"/>
       <c r="L249" s="79"/>
     </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A250" s="78"/>
       <c r="B250" s="78"/>
       <c r="C250" s="78"/>
@@ -11074,7 +11188,7 @@
       <c r="K250" s="79"/>
       <c r="L250" s="79"/>
     </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A251" s="78"/>
       <c r="B251" s="78"/>
       <c r="C251" s="78"/>
@@ -11088,7 +11202,7 @@
       <c r="K251" s="79"/>
       <c r="L251" s="79"/>
     </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A252" s="78"/>
       <c r="B252" s="78"/>
       <c r="C252" s="78"/>
@@ -11102,7 +11216,7 @@
       <c r="K252" s="79"/>
       <c r="L252" s="79"/>
     </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A253" s="78"/>
       <c r="B253" s="78"/>
       <c r="C253" s="78"/>
@@ -11116,7 +11230,7 @@
       <c r="K253" s="79"/>
       <c r="L253" s="79"/>
     </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A254" s="78"/>
       <c r="B254" s="78"/>
       <c r="C254" s="78"/>
@@ -11130,7 +11244,7 @@
       <c r="K254" s="79"/>
       <c r="L254" s="79"/>
     </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A255" s="78"/>
       <c r="B255" s="78"/>
       <c r="C255" s="78"/>
@@ -11144,7 +11258,7 @@
       <c r="K255" s="79"/>
       <c r="L255" s="79"/>
     </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A256" s="78"/>
       <c r="B256" s="78"/>
       <c r="C256" s="78"/>
@@ -11158,7 +11272,7 @@
       <c r="K256" s="79"/>
       <c r="L256" s="79"/>
     </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A257" s="78"/>
       <c r="B257" s="78"/>
       <c r="C257" s="78"/>
@@ -11172,7 +11286,7 @@
       <c r="K257" s="79"/>
       <c r="L257" s="79"/>
     </row>
-    <row r="258" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A258" s="78"/>
       <c r="B258" s="78"/>
       <c r="C258" s="78"/>
@@ -11186,7 +11300,7 @@
       <c r="K258" s="79"/>
       <c r="L258" s="79"/>
     </row>
-    <row r="259" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A259" s="78"/>
       <c r="B259" s="78"/>
       <c r="C259" s="78"/>
@@ -11200,7 +11314,7 @@
       <c r="K259" s="79"/>
       <c r="L259" s="79"/>
     </row>
-    <row r="260" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A260" s="78"/>
       <c r="B260" s="78"/>
       <c r="C260" s="78"/>
@@ -11214,7 +11328,7 @@
       <c r="K260" s="79"/>
       <c r="L260" s="79"/>
     </row>
-    <row r="261" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A261" s="78"/>
       <c r="B261" s="78"/>
       <c r="C261" s="78"/>
@@ -11228,7 +11342,7 @@
       <c r="K261" s="79"/>
       <c r="L261" s="79"/>
     </row>
-    <row r="262" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A262" s="78"/>
       <c r="B262" s="78"/>
       <c r="C262" s="78"/>
@@ -11242,7 +11356,7 @@
       <c r="K262" s="79"/>
       <c r="L262" s="79"/>
     </row>
-    <row r="263" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A263" s="78"/>
       <c r="B263" s="78"/>
       <c r="C263" s="78"/>
@@ -11256,7 +11370,7 @@
       <c r="K263" s="79"/>
       <c r="L263" s="79"/>
     </row>
-    <row r="264" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A264" s="78"/>
       <c r="B264" s="78"/>
       <c r="C264" s="78"/>
@@ -11270,7 +11384,7 @@
       <c r="K264" s="79"/>
       <c r="L264" s="79"/>
     </row>
-    <row r="265" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A265" s="78"/>
       <c r="B265" s="78"/>
       <c r="C265" s="78"/>
@@ -11284,7 +11398,7 @@
       <c r="K265" s="79"/>
       <c r="L265" s="79"/>
     </row>
-    <row r="266" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A266" s="78"/>
       <c r="B266" s="78"/>
       <c r="C266" s="78"/>
@@ -11298,7 +11412,7 @@
       <c r="K266" s="79"/>
       <c r="L266" s="79"/>
     </row>
-    <row r="267" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A267" s="78"/>
       <c r="B267" s="78"/>
       <c r="C267" s="78"/>
@@ -11312,7 +11426,7 @@
       <c r="K267" s="79"/>
       <c r="L267" s="79"/>
     </row>
-    <row r="268" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A268" s="78"/>
       <c r="B268" s="78"/>
       <c r="C268" s="78"/>
@@ -11326,7 +11440,7 @@
       <c r="K268" s="79"/>
       <c r="L268" s="79"/>
     </row>
-    <row r="269" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A269" s="78"/>
       <c r="B269" s="78"/>
       <c r="C269" s="78"/>
@@ -11340,7 +11454,7 @@
       <c r="K269" s="79"/>
       <c r="L269" s="79"/>
     </row>
-    <row r="270" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A270" s="78"/>
       <c r="B270" s="78"/>
       <c r="C270" s="78"/>
@@ -11354,7 +11468,7 @@
       <c r="K270" s="79"/>
       <c r="L270" s="79"/>
     </row>
-    <row r="271" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A271" s="78"/>
       <c r="B271" s="78"/>
       <c r="C271" s="78"/>
@@ -11368,7 +11482,7 @@
       <c r="K271" s="79"/>
       <c r="L271" s="79"/>
     </row>
-    <row r="272" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A272" s="78"/>
       <c r="B272" s="78"/>
       <c r="C272" s="78"/>
@@ -11382,7 +11496,7 @@
       <c r="K272" s="79"/>
       <c r="L272" s="79"/>
     </row>
-    <row r="273" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A273" s="78"/>
       <c r="B273" s="78"/>
       <c r="C273" s="80"/>
@@ -11396,7 +11510,7 @@
       <c r="K273" s="79"/>
       <c r="L273" s="79"/>
     </row>
-    <row r="274" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A274" s="78"/>
       <c r="B274" s="78"/>
       <c r="C274" s="80"/>
@@ -11410,7 +11524,7 @@
       <c r="K274" s="79"/>
       <c r="L274" s="79"/>
     </row>
-    <row r="275" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A275" s="78"/>
       <c r="B275" s="78"/>
       <c r="C275" s="80"/>
@@ -11424,7 +11538,7 @@
       <c r="K275" s="79"/>
       <c r="L275" s="79"/>
     </row>
-    <row r="276" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A276" s="78"/>
       <c r="B276" s="78"/>
       <c r="C276" s="80"/>
@@ -11438,7 +11552,7 @@
       <c r="K276" s="79"/>
       <c r="L276" s="79"/>
     </row>
-    <row r="277" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A277" s="78"/>
       <c r="B277" s="78"/>
       <c r="C277" s="80"/>
@@ -11452,7 +11566,7 @@
       <c r="K277" s="79"/>
       <c r="L277" s="79"/>
     </row>
-    <row r="278" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A278" s="78"/>
       <c r="B278" s="78"/>
       <c r="C278" s="80"/>
@@ -11466,7 +11580,7 @@
       <c r="K278" s="79"/>
       <c r="L278" s="79"/>
     </row>
-    <row r="279" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A279" s="78"/>
       <c r="B279" s="78"/>
       <c r="C279" s="80"/>
@@ -11480,7 +11594,7 @@
       <c r="K279" s="79"/>
       <c r="L279" s="79"/>
     </row>
-    <row r="280" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A280" s="78"/>
       <c r="B280" s="78"/>
       <c r="C280" s="80"/>
@@ -11494,7 +11608,7 @@
       <c r="K280" s="79"/>
       <c r="L280" s="79"/>
     </row>
-    <row r="281" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A281" s="78"/>
       <c r="B281" s="78"/>
       <c r="C281" s="80"/>
@@ -11508,7 +11622,7 @@
       <c r="K281" s="79"/>
       <c r="L281" s="79"/>
     </row>
-    <row r="282" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A282" s="78"/>
       <c r="B282" s="78"/>
       <c r="C282" s="80"/>
@@ -11522,7 +11636,7 @@
       <c r="K282" s="79"/>
       <c r="L282" s="79"/>
     </row>
-    <row r="283" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A283" s="78"/>
       <c r="B283" s="78"/>
       <c r="C283" s="80"/>
@@ -11536,7 +11650,7 @@
       <c r="K283" s="79"/>
       <c r="L283" s="79"/>
     </row>
-    <row r="284" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A284" s="78"/>
       <c r="B284" s="78"/>
       <c r="C284" s="80"/>
@@ -11550,7 +11664,7 @@
       <c r="K284" s="79"/>
       <c r="L284" s="79"/>
     </row>
-    <row r="285" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A285" s="78"/>
       <c r="B285" s="78"/>
       <c r="C285" s="80"/>
@@ -11564,7 +11678,7 @@
       <c r="K285" s="79"/>
       <c r="L285" s="79"/>
     </row>
-    <row r="286" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A286" s="78"/>
       <c r="B286" s="78"/>
       <c r="C286" s="80"/>
@@ -11578,7 +11692,7 @@
       <c r="K286" s="79"/>
       <c r="L286" s="79"/>
     </row>
-    <row r="287" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A287" s="78"/>
       <c r="B287" s="78"/>
       <c r="C287" s="80"/>
@@ -11592,7 +11706,7 @@
       <c r="K287" s="79"/>
       <c r="L287" s="79"/>
     </row>
-    <row r="288" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A288" s="78"/>
       <c r="B288" s="78"/>
       <c r="C288" s="80"/>
@@ -11606,7 +11720,7 @@
       <c r="K288" s="79"/>
       <c r="L288" s="79"/>
     </row>
-    <row r="289" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A289" s="78"/>
       <c r="B289" s="78"/>
       <c r="C289" s="80"/>
@@ -11620,7 +11734,7 @@
       <c r="K289" s="79"/>
       <c r="L289" s="79"/>
     </row>
-    <row r="290" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A290" s="78"/>
       <c r="B290" s="78"/>
       <c r="C290" s="80"/>
@@ -11634,7 +11748,7 @@
       <c r="K290" s="79"/>
       <c r="L290" s="79"/>
     </row>
-    <row r="291" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A291" s="78"/>
       <c r="B291" s="78"/>
       <c r="C291" s="80"/>
@@ -11648,7 +11762,7 @@
       <c r="K291" s="79"/>
       <c r="L291" s="79"/>
     </row>
-    <row r="292" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A292" s="78"/>
       <c r="B292" s="78"/>
       <c r="C292" s="80"/>
@@ -11662,7 +11776,7 @@
       <c r="K292" s="79"/>
       <c r="L292" s="79"/>
     </row>
-    <row r="293" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A293" s="78"/>
       <c r="B293" s="78"/>
       <c r="C293" s="80"/>
@@ -11676,7 +11790,7 @@
       <c r="K293" s="79"/>
       <c r="L293" s="79"/>
     </row>
-    <row r="294" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A294" s="78"/>
       <c r="B294" s="78"/>
       <c r="C294" s="80"/>
@@ -11690,7 +11804,7 @@
       <c r="K294" s="79"/>
       <c r="L294" s="79"/>
     </row>
-    <row r="295" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A295" s="78"/>
       <c r="B295" s="78"/>
       <c r="C295" s="80"/>
@@ -11704,7 +11818,7 @@
       <c r="K295" s="79"/>
       <c r="L295" s="79"/>
     </row>
-    <row r="296" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A296" s="78"/>
       <c r="B296" s="78"/>
       <c r="C296" s="80"/>
@@ -11718,7 +11832,7 @@
       <c r="K296" s="79"/>
       <c r="L296" s="79"/>
     </row>
-    <row r="297" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A297" s="78"/>
       <c r="B297" s="78"/>
       <c r="C297" s="80"/>
@@ -11732,7 +11846,7 @@
       <c r="K297" s="79"/>
       <c r="L297" s="79"/>
     </row>
-    <row r="298" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A298" s="78"/>
       <c r="B298" s="78"/>
       <c r="C298" s="80"/>
@@ -11746,7 +11860,7 @@
       <c r="K298" s="79"/>
       <c r="L298" s="79"/>
     </row>
-    <row r="299" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A299" s="78"/>
       <c r="B299" s="78"/>
       <c r="C299" s="80"/>
@@ -11760,7 +11874,7 @@
       <c r="K299" s="79"/>
       <c r="L299" s="79"/>
     </row>
-    <row r="300" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A300" s="78"/>
       <c r="B300" s="78"/>
       <c r="C300" s="80"/>
@@ -11774,7 +11888,7 @@
       <c r="K300" s="79"/>
       <c r="L300" s="79"/>
     </row>
-    <row r="301" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A301" s="78"/>
       <c r="B301" s="78"/>
       <c r="C301" s="80"/>
@@ -11788,7 +11902,7 @@
       <c r="K301" s="79"/>
       <c r="L301" s="79"/>
     </row>
-    <row r="302" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A302" s="78"/>
       <c r="B302" s="78"/>
       <c r="C302" s="80"/>
@@ -11802,7 +11916,7 @@
       <c r="K302" s="79"/>
       <c r="L302" s="79"/>
     </row>
-    <row r="303" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A303" s="80"/>
       <c r="B303" s="80"/>
       <c r="C303" s="80"/>
@@ -11816,7 +11930,7 @@
       <c r="K303" s="79"/>
       <c r="L303" s="79"/>
     </row>
-    <row r="304" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A304" s="80"/>
       <c r="B304" s="80"/>
       <c r="C304" s="80"/>
@@ -11830,7 +11944,7 @@
       <c r="K304" s="79"/>
       <c r="L304" s="79"/>
     </row>
-    <row r="305" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A305" s="80"/>
       <c r="B305" s="80"/>
       <c r="C305" s="80"/>
@@ -11844,7 +11958,7 @@
       <c r="K305" s="79"/>
       <c r="L305" s="79"/>
     </row>
-    <row r="306" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A306" s="80"/>
       <c r="B306" s="80"/>
       <c r="C306" s="80"/>
@@ -11858,7 +11972,7 @@
       <c r="K306" s="79"/>
       <c r="L306" s="79"/>
     </row>
-    <row r="307" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A307" s="80"/>
       <c r="B307" s="80"/>
       <c r="C307" s="80"/>
@@ -11872,7 +11986,7 @@
       <c r="K307" s="79"/>
       <c r="L307" s="79"/>
     </row>
-    <row r="308" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A308" s="80"/>
       <c r="B308" s="80"/>
       <c r="C308" s="80"/>
@@ -11886,7 +12000,7 @@
       <c r="K308" s="79"/>
       <c r="L308" s="79"/>
     </row>
-    <row r="309" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A309" s="80"/>
       <c r="B309" s="80"/>
       <c r="C309" s="80"/>
@@ -11900,7 +12014,7 @@
       <c r="K309" s="80"/>
       <c r="L309" s="80"/>
     </row>
-    <row r="310" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A310" s="80"/>
       <c r="B310" s="80"/>
       <c r="C310" s="80"/>
@@ -11914,7 +12028,7 @@
       <c r="K310" s="80"/>
       <c r="L310" s="80"/>
     </row>
-    <row r="311" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A311" s="80"/>
       <c r="B311" s="80"/>
       <c r="C311" s="80"/>
@@ -11928,7 +12042,7 @@
       <c r="K311" s="80"/>
       <c r="L311" s="80"/>
     </row>
-    <row r="312" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A312" s="80"/>
       <c r="B312" s="80"/>
       <c r="C312" s="80"/>
@@ -11944,6 +12058,64 @@
     </row>
   </sheetData>
   <mergeCells count="74">
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="A3:A10"/>
+    <mergeCell ref="B3:B10"/>
+    <mergeCell ref="A13:G13"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="A34:A45"/>
+    <mergeCell ref="B34:B45"/>
+    <mergeCell ref="A77:A86"/>
+    <mergeCell ref="B77:B86"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A25:A32"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="A15:A23"/>
+    <mergeCell ref="B15:B23"/>
+    <mergeCell ref="B25:B32"/>
+    <mergeCell ref="A108:A116"/>
+    <mergeCell ref="B108:B116"/>
+    <mergeCell ref="B185:B190"/>
+    <mergeCell ref="A185:A190"/>
+    <mergeCell ref="A179:A180"/>
+    <mergeCell ref="B179:B180"/>
+    <mergeCell ref="A160:A163"/>
+    <mergeCell ref="B160:B163"/>
+    <mergeCell ref="A165:A167"/>
+    <mergeCell ref="B165:B167"/>
+    <mergeCell ref="A169:A171"/>
+    <mergeCell ref="B169:B171"/>
+    <mergeCell ref="A141:A143"/>
+    <mergeCell ref="B141:B143"/>
+    <mergeCell ref="C145:G145"/>
+    <mergeCell ref="C150:G150"/>
+    <mergeCell ref="C155:G155"/>
+    <mergeCell ref="C165:G165"/>
+    <mergeCell ref="A88:A96"/>
+    <mergeCell ref="B88:B96"/>
+    <mergeCell ref="A155:A158"/>
+    <mergeCell ref="B155:B158"/>
+    <mergeCell ref="A118:A126"/>
+    <mergeCell ref="B118:B126"/>
+    <mergeCell ref="A145:A148"/>
+    <mergeCell ref="B145:B148"/>
+    <mergeCell ref="A150:A153"/>
+    <mergeCell ref="B150:B153"/>
+    <mergeCell ref="A128:A139"/>
+    <mergeCell ref="B128:B139"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="J77:K77"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="B176:B177"/>
+    <mergeCell ref="A182:A183"/>
+    <mergeCell ref="B182:B183"/>
+    <mergeCell ref="J165:K165"/>
+    <mergeCell ref="J169:K169"/>
+    <mergeCell ref="C169:G169"/>
     <mergeCell ref="B198:B199"/>
     <mergeCell ref="A198:A199"/>
     <mergeCell ref="C128:G128"/>
@@ -11960,64 +12132,6 @@
     <mergeCell ref="A173:A174"/>
     <mergeCell ref="B173:B174"/>
     <mergeCell ref="A176:A177"/>
-    <mergeCell ref="B176:B177"/>
-    <mergeCell ref="A182:A183"/>
-    <mergeCell ref="B182:B183"/>
-    <mergeCell ref="J165:K165"/>
-    <mergeCell ref="J169:K169"/>
-    <mergeCell ref="C169:G169"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="C77:G77"/>
-    <mergeCell ref="J77:K77"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="C145:G145"/>
-    <mergeCell ref="C150:G150"/>
-    <mergeCell ref="C155:G155"/>
-    <mergeCell ref="C165:G165"/>
-    <mergeCell ref="A88:A96"/>
-    <mergeCell ref="B88:B96"/>
-    <mergeCell ref="A155:A158"/>
-    <mergeCell ref="B155:B158"/>
-    <mergeCell ref="A118:A126"/>
-    <mergeCell ref="B118:B126"/>
-    <mergeCell ref="A145:A148"/>
-    <mergeCell ref="B145:B148"/>
-    <mergeCell ref="A150:A153"/>
-    <mergeCell ref="B150:B153"/>
-    <mergeCell ref="A128:A139"/>
-    <mergeCell ref="B128:B139"/>
-    <mergeCell ref="A108:A116"/>
-    <mergeCell ref="B108:B116"/>
-    <mergeCell ref="B185:B190"/>
-    <mergeCell ref="A185:A190"/>
-    <mergeCell ref="A179:A180"/>
-    <mergeCell ref="B179:B180"/>
-    <mergeCell ref="A160:A163"/>
-    <mergeCell ref="B160:B163"/>
-    <mergeCell ref="A165:A167"/>
-    <mergeCell ref="B165:B167"/>
-    <mergeCell ref="A169:A171"/>
-    <mergeCell ref="B169:B171"/>
-    <mergeCell ref="A141:A143"/>
-    <mergeCell ref="B141:B143"/>
-    <mergeCell ref="A34:A45"/>
-    <mergeCell ref="B34:B45"/>
-    <mergeCell ref="A77:A86"/>
-    <mergeCell ref="B77:B86"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A25:A32"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="A15:A23"/>
-    <mergeCell ref="B15:B23"/>
-    <mergeCell ref="B25:B32"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="A3:A10"/>
-    <mergeCell ref="B3:B10"/>
-    <mergeCell ref="A13:G13"/>
-    <mergeCell ref="I13:L13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/INSPIRE/BHR-P INSPIRE mapping.xlsx
+++ b/INSPIRE/BHR-P INSPIRE mapping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\BROprogramma\BHR-P\INSPIRE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDA83941-1D76-4595-BBE5-0B4F0F6A8DC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2C1817D-84D2-4B38-80B5-15B20042230C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="64005" yWindow="4515" windowWidth="29040" windowHeight="15840" xr2:uid="{9EC988E2-FBDB-4D73-8B6C-36B7CA6B99DA}"/>
+    <workbookView xWindow="15" yWindow="0" windowWidth="28770" windowHeight="15600" activeTab="2" xr2:uid="{9EC988E2-FBDB-4D73-8B6C-36B7CA6B99DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Versiehistorie" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1215" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1223" uniqueCount="415">
   <si>
     <t>Type</t>
   </si>
@@ -608,12 +608,6 @@
     <t>-- Name --_x000D_ is original classification_x000D_ _x000D_ _x000D_ Boolean value to indicate whether the specified horizon notation system was the original notation system to describe the horizon._x000D__x000D_This is to indicate whether the horizon notation has been determined in the field (or for derived soil profiles during the original derivation), or has been adapted, changed or assigned on the basis of the original horizon description later. This might be relevant for data quality information.</t>
   </si>
   <si>
-    <t>Boolean_x000D__x000D_* TRUE_x000D_* FALSE</t>
-  </si>
-  <si>
-    <t>Vaste waarde 'TRUE'</t>
-  </si>
-  <si>
     <t>Booronderzoek</t>
   </si>
   <si>
@@ -913,25 +907,6 @@
     <t>boorprofiel</t>
   </si>
   <si>
-    <t>SoilHorizonObservation</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">SoilHorizonObservation 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>SoilProfileElementObservation</t>
-    </r>
-  </si>
-  <si>
     <t>Organische stofgehalte</t>
   </si>
   <si>
@@ -986,9 +961,6 @@
     <t>vaste waarde: 'Soil Profile Parameter Name'</t>
   </si>
   <si>
-    <t>vaste waarde: 'meter'</t>
-  </si>
-  <si>
     <t>Process</t>
   </si>
   <si>
@@ -1096,9 +1068,6 @@
     <t>vaste waarde: 'Profile Element Parameter Name'</t>
   </si>
   <si>
-    <t>vaste waarde: 'percentage'</t>
-  </si>
-  <si>
     <t>zuurgraad strooisellaag</t>
   </si>
   <si>
@@ -1134,10 +1103,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">OM_OBservation
-</t>
-  </si>
-  <si>
     <t>gemiddeld hoogste grondwaterstand</t>
   </si>
   <si>
@@ -1160,10 +1125,6 @@
     <t>OtherHorizonNotationType  (voor SoilHorizon_laagcomponent)</t>
   </si>
   <si>
-    <t xml:space="preserve">Zie OtherHorizonNotationType (voor SoilHorizon_Strooisellaag) en OtherHorizonNotationType (voor SoilHorizon_laagcomponent)
-Zie OtherHorzisonNotationType (voor SoilHorizon_Vast gesteentelaag) </t>
-  </si>
-  <si>
     <t>Verzadigde doorlatendheid</t>
   </si>
   <si>
@@ -1177,16 +1138,10 @@
 (Voor verzadigde doorlatendheid)</t>
   </si>
   <si>
-    <t>vaste waarde: 'meter per 24 uur'</t>
-  </si>
-  <si>
     <t>Bovengrens in Strooisellaag is een negatief getal.) Haal hier de min van af, zodat het een positief getal wordt. Dit is de correctiewaarde voor het omrekenen.</t>
   </si>
   <si>
     <t xml:space="preserve">binnen een boorprofiel kunnen meerdere laagcomponenten voorkomen, deze hebben dezelfde boven en ondergrens. </t>
-  </si>
-  <si>
-    <t>Zie SoilHorizonObservation als aanwezig, anders: gegeven is niet aanwezig (Kardinaliteit 0..1)</t>
   </si>
   <si>
     <t>zuurgraad strooisellaag is niet altijd aanwezig bij een strooisellaag. 
@@ -1303,9 +1258,6 @@
   </si>
   <si>
     <t>Zie SoilHorizon en Zie SoilLayer</t>
-  </si>
-  <si>
-    <t>Vaste waarde 'Borehole'</t>
   </si>
   <si>
     <t>gemiddeld laaggste grondwaterstand</t>
@@ -1377,9 +1329,6 @@
   <si>
     <t>Bodemlaag
 Vast gesteentelaag</t>
-  </si>
-  <si>
-    <t>Elke Vast gesteentelaag en (heterogene) bodemlaag met meer dan 1 laagcomponent  van het BHR-P-object wordt een SoilHorizon.</t>
   </si>
   <si>
     <t>één op één overnemen als aanwezig.
@@ -1494,9 +1443,6 @@
     <t>an identification of the soil profile according to a specific classification scheme.</t>
   </si>
   <si>
-    <t>soil name</t>
-  </si>
-  <si>
     <t>name of the soil profiule according to a specific classification scheme</t>
   </si>
   <si>
@@ -1513,9 +1459,6 @@
   </si>
   <si>
     <t>Bodemclassificatie</t>
-  </si>
-  <si>
-    <t>vaste waarde: YES</t>
   </si>
   <si>
     <t>Zie OtherSoilNameType</t>
@@ -1784,17 +1727,98 @@
     <t>Thijs Knapen</t>
   </si>
   <si>
+    <t>1) GeologicalCollection: type verwijderd uit mapping (is niet van toepassing). N.b. beschreven in versieregel hierboven, maar stond er nog. Waarschijnlijk vergeten.
+2) Label toegevoegd bij Borehole.purpose (en URI van codelist value expliciet aangegeven)</t>
+  </si>
+  <si>
+    <t>1) Soilplot.soilPlotType URI en Label toegevoegd voor INSPIRE codeList value.</t>
+  </si>
+  <si>
     <t>Vaste codelijst waarde 'pedological survey'
 URI: http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/pedologicalSurvey
-Label: pedological survey -&gt; title="bodemkundig onderzoek"</t>
-  </si>
-  <si>
-    <t>In XML komt het er als volgt te staan. Alhoewel xlink:title optioneel is, wel toegevoegd ihkv consistentie met andere BHR mappings (o.a. BHR-GT).
-&lt;ge:purpose xlink:href="http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/pedologicalSurvey" xlink:title="bodemkundig onderzoek"/&gt;</t>
-  </si>
-  <si>
-    <t>1) GeologicalCollection: type verwijderd uit mapping (is niet van toepassing). N.b. beschreven in versieregel hierboven, maar stond er nog. Waarschijnlijk vergeten.
-2) Label toegevoegd bij Borehole.purpose (en URI van codelist value expliciet aangegeven)</t>
+Label: pedological survey (EN), pedologisch onderzoek (NL)</t>
+  </si>
+  <si>
+    <t>Alhoewel xlink:title optioneel is, wel toegevoegd t.b.v. leesbaarheid en consistentie met andere BHR mappings (o.a. BHR-GT). In XML komt het er als volgt te staan:
+&lt;so:soilPlotType xlink:href="http://inspire.ec.europa.eu/codelist/SoilPlotTypeValue/borehole" xlink:title="boorgat"/&gt;</t>
+  </si>
+  <si>
+    <t>Alhoewel xlink:title optioneel is, wel toegevoegd t.b.v. leesbaarheid en consistentie met andere BHR mappings (o.a. BHR-GT). In XML komt het er als volgt te staan:
+&lt;ge:purpose xlink:href="http://inspire.ec.europa.eu/codelist/BoreholePurposeValue/pedologicalSurvey" xlink:title="pedologisch onderzoek"/&gt;
+Note: Label INSPIRE (EN) is 'pedological survey'. Eerst handmatig vertaald in lijn met BRO BHR-P naar 'bodemkundig onderzoek'. Echter, het blijkt dat de INSPIRE ook zelf vertalingen naar NL heeft gemaakt (INSPIRE website m.b.t. codelist waarden kan ingesteld worden op NL via knop in het midden bovenin). INSPIRE NL vertaling is 'pedologisch onderzoek'.</t>
+  </si>
+  <si>
+    <t>Vaste codelijst waarde 'Borehole'
+URI: http://inspire.ec.europa.eu/codelist/SoilPlotTypeValue/borehole
+Label: borehole (EN), boorgat (NL)</t>
+  </si>
+  <si>
+    <t>profileElementObservation</t>
+  </si>
+  <si>
+    <t>Zie profileElementObservation als aanwezig, anders: gegeven is niet aanwezig (Kardinaliteit 0..1)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">profileElementObservation 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>SoilProfileElementObservation</t>
+    </r>
+  </si>
+  <si>
+    <t>1) xlink:title (Label) aangepast bij Borehole.purpose.
+Label INSPIRE (EN) is 'pedological survey'. Eerst handmatig vertaald in lijn met BRO BHR-P naar 'bodemkundig onderzoek'.
+Echter, het blijkt dat de INSPIRE ook zelf vertalingen naar NL heeft gemaakt (INSPIRE website m.b.t. codelist waarden kan ingesteld worden op NL via knop in het midden bovenin). INSPIRE NL vertaling is 'pedologisch onderzoek'.
+2) Analoog ook xlink:title (Label) aangepast bij SoilPlot.soilPlotType van 'boring' naar 'boorgat'.
+3) Hernoeming van 'SoilHorizonObservation' naar 'profileElementObservation' zowel als elementnaam binnen feature type 'SoilHorizon', als de daarop volgende feature type namen</t>
+  </si>
+  <si>
+    <t>soilName</t>
+  </si>
+  <si>
+    <t>vaste waarde: true</t>
+  </si>
+  <si>
+    <t>Boolean
+* true
+* false</t>
+  </si>
+  <si>
+    <t>Vaste waarde 'true'</t>
+  </si>
+  <si>
+    <t>Elke Vast gesteentelaag en (heterogene) bodemlaag met meer dan 1 laagcomponent  van het BHR-P-object wordt een SoilLayer.</t>
+  </si>
+  <si>
+    <t>Zie OtherHorizonNotationType (voor SoilHorizon_Strooisellaag) en OtherHorizonNotationType (voor SoilHorizon_laagcomponent)</t>
+  </si>
+  <si>
+    <t>1) Aanpassing naam INSPIRE element 'soil name' -&gt; 'soilName' bij feature type 'OtherSoilNameType'
+2) Aanpassing waarde voor OtherSoilNameType.isOriginalClassification van YES -&gt; true omdat het type boolean is en in XML YES geen valide boolean waarde is.
+3) Aanpassing toegestane waardes voor Boolean Datatype. ipv 'TRUE' en 'FALSE' is dit 'true' en 'false'. Dit bij het XML element 'isOriginalClassification' van zowel het INSPIRE feature type 'OtherHorizonNotationType  (voor SoilHorizon_Strooisellaag)' als het INSPIRE feature type 'OtherHorizonNotationType  (voor SoilHorizon_laagcomponent)'. Ook de vaste waarde om te mappen aangepast van 'TRUE' naar 'true'.
+4) Toelichting aangepast bij INSPIRE feature type 'SoilLayer'. Ipv "Elke ... wordt een SoilHorizon" -&gt; "Elke ... wordt een SoilLayer"
+5) 3e item "Zie OtherHorzisonNotationType (voor SoilHorizon_Vast gesteentelaag) " weggehaald uit Mapping waarde van SoilHorizon.otherHorizonNotation. Vaste gesteentelagen worden namelijk gemapt op de SoilLayer feature types van INSPIRE, en de aangegeven beschrijving "OtherHorzisonNotationType (voor SoilHorizon_Vast gesteentelaag)" kwam verder ook helemaal niet voor in de Mapping...</t>
+  </si>
+  <si>
+    <t>vaste waarde: 'm'</t>
+  </si>
+  <si>
+    <t>vaste waarde: '%'</t>
+  </si>
+  <si>
+    <t>vaste waarde: 'm/d'</t>
+  </si>
+  <si>
+    <t>Aanpassing van eenheden onder de ObservedProperty feature types naar korte naam.</t>
   </si>
 </sst>
 </file>
@@ -3232,7 +3256,7 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="54" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="374">
+  <cellXfs count="375">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -4184,169 +4208,172 @@
     <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="64" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="35" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="35" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="35" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="35" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="35" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="35" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="35" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="35" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="35" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="36" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="35" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="35" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="35" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="35" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="35" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="35" borderId="26" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="35" borderId="28" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="35" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="35" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="35" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="35" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="35" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="35" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="35" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="35" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="35" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="47" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="42" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="36" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="35" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="35" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="35" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="35" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="35" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="35" borderId="26" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="35" borderId="28" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4453,8 +4480,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E1B5367F-5984-440B-AA5E-E038832E8BE1}" name="Table2" displayName="Table2" ref="A1:C5" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
-  <autoFilter ref="A1:C5" xr:uid="{E1B5367F-5984-440B-AA5E-E038832E8BE1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E1B5367F-5984-440B-AA5E-E038832E8BE1}" name="Table2" displayName="Table2" ref="A1:C9" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+  <autoFilter ref="A1:C9" xr:uid="{E1B5367F-5984-440B-AA5E-E038832E8BE1}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{3B7620E9-2724-4EC8-895F-236800022218}" name="Datum" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{763D4B01-9A07-4CB0-AD8F-12267E62F4FD}" name="Auteur" dataDxfId="1"/>
@@ -4761,10 +4788,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0145EFC-D383-480B-921A-260DD7020D92}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4777,13 +4804,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="314" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="B1" s="314" t="s">
-        <v>385</v>
+        <v>371</v>
       </c>
       <c r="C1" s="314" t="s">
-        <v>388</v>
+        <v>374</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -4791,10 +4818,10 @@
         <v>44469</v>
       </c>
       <c r="B2" s="314" t="s">
+        <v>372</v>
+      </c>
+      <c r="C2" s="314" t="s">
         <v>386</v>
-      </c>
-      <c r="C2" s="314" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -4802,10 +4829,10 @@
         <v>44824</v>
       </c>
       <c r="B3" s="314" t="s">
-        <v>387</v>
+        <v>373</v>
       </c>
       <c r="C3" s="314" t="s">
-        <v>406</v>
+        <v>392</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="135" x14ac:dyDescent="0.25">
@@ -4813,10 +4840,10 @@
         <v>44851</v>
       </c>
       <c r="B4" s="314" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="C4" s="314" t="s">
-        <v>401</v>
+        <v>387</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="75" x14ac:dyDescent="0.25">
@@ -4824,47 +4851,91 @@
         <v>44853</v>
       </c>
       <c r="B5" s="314" t="s">
-        <v>407</v>
+        <v>393</v>
       </c>
       <c r="C5" s="314" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="315">
+        <v>44853</v>
+      </c>
+      <c r="B6" s="314" t="s">
+        <v>393</v>
+      </c>
+      <c r="C6" s="314" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="165" x14ac:dyDescent="0.25">
+      <c r="A7" s="315">
+        <v>44855</v>
+      </c>
+      <c r="B7" s="314" t="s">
+        <v>393</v>
+      </c>
+      <c r="C7" s="314" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="285" x14ac:dyDescent="0.25">
+      <c r="A8" s="315">
+        <v>44864</v>
+      </c>
+      <c r="B8" s="314" t="s">
+        <v>393</v>
+      </c>
+      <c r="C8" s="314" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C10" s="316" t="s">
-        <v>395</v>
-      </c>
-      <c r="D10"/>
+    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="315">
+        <v>44867</v>
+      </c>
+      <c r="B9" s="314" t="s">
+        <v>393</v>
+      </c>
+      <c r="C9" s="314" t="s">
+        <v>414</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C11" s="310" t="s">
-        <v>396</v>
-      </c>
-      <c r="D11" s="317" t="s">
-        <v>372</v>
-      </c>
+      <c r="C11" s="316" t="s">
+        <v>381</v>
+      </c>
+      <c r="D11"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C12" s="310" t="s">
-        <v>397</v>
+        <v>382</v>
       </c>
       <c r="D12" s="318" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C13" s="310" t="s">
-        <v>405</v>
-      </c>
-      <c r="D13" s="317" t="s">
-        <v>373</v>
+        <v>383</v>
+      </c>
+      <c r="D13" s="318" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="C14" s="310" t="s">
+        <v>391</v>
+      </c>
+      <c r="D14" s="317" t="s">
+        <v>359</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D11" r:id="rId1" xr:uid="{03BEE954-1AB9-4C51-BC8D-0D73ED349013}"/>
-    <hyperlink ref="D13" r:id="rId2" xr:uid="{B1C98CB8-A0F1-417E-B958-96438D73696D}"/>
-    <hyperlink ref="D12" r:id="rId3" xr:uid="{746E5985-06BF-489B-9C39-DA0E46F50DBA}"/>
+    <hyperlink ref="D12" r:id="rId1" xr:uid="{03BEE954-1AB9-4C51-BC8D-0D73ED349013}"/>
+    <hyperlink ref="D14" r:id="rId2" xr:uid="{B1C98CB8-A0F1-417E-B958-96438D73696D}"/>
+    <hyperlink ref="D13" r:id="rId3" xr:uid="{746E5985-06BF-489B-9C39-DA0E46F50DBA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -4877,7 +4948,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63DEB1A9-BE3B-4756-8642-0318C8321472}">
   <dimension ref="B1:B23"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
@@ -4888,27 +4959,27 @@
   <sheetData>
     <row r="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1" s="312" t="s">
-        <v>382</v>
+        <v>368</v>
       </c>
     </row>
     <row r="2" spans="2:2" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B2" s="310" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
     </row>
     <row r="3" spans="2:2" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B3" s="310" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
     </row>
     <row r="5" spans="2:2" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B5" s="310" t="s">
-        <v>368</v>
+        <v>354</v>
       </c>
     </row>
     <row r="6" spans="2:2" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B6" s="310" t="s">
-        <v>369</v>
+        <v>355</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.25">
@@ -4916,42 +4987,42 @@
     </row>
     <row r="8" spans="2:2" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B8" s="310" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B9" s="311" t="s">
-        <v>374</v>
+        <v>360</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B10" s="311" t="s">
-        <v>375</v>
+        <v>361</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B11" s="311" t="s">
-        <v>376</v>
+        <v>362</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B12" s="311" t="s">
-        <v>377</v>
+        <v>363</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B13" s="311" t="s">
-        <v>378</v>
+        <v>364</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B14" s="311" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B15" s="311" t="s">
-        <v>380</v>
+        <v>366</v>
       </c>
     </row>
     <row r="16" spans="2:2" x14ac:dyDescent="0.25">
@@ -4959,7 +5030,7 @@
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="310" t="s">
-        <v>371</v>
+        <v>357</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
@@ -4967,22 +5038,22 @@
     </row>
     <row r="19" spans="2:2" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B19" s="310" t="s">
-        <v>381</v>
+        <v>367</v>
       </c>
     </row>
     <row r="20" spans="2:2" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B20" s="310" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" s="312" t="s">
-        <v>398</v>
+        <v>384</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" s="313" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
     </row>
   </sheetData>
@@ -4995,8 +5066,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8840443-9901-44DF-A1FA-73C1552394AB}">
   <dimension ref="A1:O300"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B10"/>
+    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K74" sqref="K74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5017,22 +5088,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="324" t="s">
-        <v>402</v>
-      </c>
-      <c r="B1" s="319"/>
-      <c r="C1" s="319"/>
-      <c r="D1" s="319"/>
-      <c r="E1" s="319"/>
-      <c r="F1" s="319"/>
-      <c r="G1" s="319"/>
+      <c r="A1" s="367" t="s">
+        <v>388</v>
+      </c>
+      <c r="B1" s="368"/>
+      <c r="C1" s="368"/>
+      <c r="D1" s="368"/>
+      <c r="E1" s="368"/>
+      <c r="F1" s="368"/>
+      <c r="G1" s="368"/>
       <c r="H1" s="53"/>
-      <c r="I1" s="319" t="s">
-        <v>404</v>
-      </c>
-      <c r="J1" s="319"/>
-      <c r="K1" s="319"/>
-      <c r="L1" s="319"/>
+      <c r="I1" s="368" t="s">
+        <v>390</v>
+      </c>
+      <c r="J1" s="368"/>
+      <c r="K1" s="368"/>
+      <c r="L1" s="368"/>
     </row>
     <row r="2" spans="1:15" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="60" t="s">
@@ -5071,30 +5142,30 @@
       </c>
     </row>
     <row r="3" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="320" t="s">
+      <c r="A3" s="371" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="322" t="s">
+      <c r="B3" s="373" t="s">
         <v>73</v>
       </c>
-      <c r="C3" s="355"/>
-      <c r="D3" s="356"/>
-      <c r="E3" s="356"/>
-      <c r="F3" s="356"/>
-      <c r="G3" s="356"/>
+      <c r="C3" s="369"/>
+      <c r="D3" s="370"/>
+      <c r="E3" s="370"/>
+      <c r="F3" s="370"/>
+      <c r="G3" s="370"/>
       <c r="H3" s="21"/>
       <c r="I3" s="16" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="J3" s="282"/>
       <c r="K3" s="280"/>
       <c r="L3" s="17" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="321"/>
-      <c r="B4" s="323"/>
+      <c r="A4" s="372"/>
+      <c r="B4" s="374"/>
       <c r="C4" s="8" t="s">
         <v>11</v>
       </c>
@@ -5112,7 +5183,7 @@
       </c>
       <c r="H4" s="21"/>
       <c r="I4" s="18" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="J4" s="9" t="s">
         <v>16</v>
@@ -5121,12 +5192,12 @@
         <v>17</v>
       </c>
       <c r="L4" s="229" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="321"/>
-      <c r="B5" s="323"/>
+      <c r="A5" s="372"/>
+      <c r="B5" s="374"/>
       <c r="C5" s="8" t="s">
         <v>76</v>
       </c>
@@ -5150,15 +5221,15 @@
         <v>74</v>
       </c>
       <c r="K5" s="174" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="L5" s="230" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="321"/>
-      <c r="B6" s="323"/>
+      <c r="A6" s="372"/>
+      <c r="B6" s="374"/>
       <c r="C6" s="8" t="s">
         <v>79</v>
       </c>
@@ -5176,21 +5247,21 @@
       </c>
       <c r="H6" s="21"/>
       <c r="I6" s="18" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>392</v>
+        <v>378</v>
       </c>
       <c r="L6" s="15" t="s">
-        <v>393</v>
+        <v>379</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="321"/>
-      <c r="B7" s="323"/>
+      <c r="A7" s="372"/>
+      <c r="B7" s="374"/>
       <c r="C7" s="8" t="s">
         <v>82</v>
       </c>
@@ -5208,10 +5279,10 @@
       </c>
       <c r="H7" s="21"/>
       <c r="I7" s="18" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K7" s="10" t="s">
         <v>85</v>
@@ -5221,8 +5292,8 @@
       </c>
     </row>
     <row r="8" spans="1:15" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="321"/>
-      <c r="B8" s="323"/>
+      <c r="A8" s="372"/>
+      <c r="B8" s="374"/>
       <c r="C8" s="8" t="s">
         <v>68</v>
       </c>
@@ -5243,7 +5314,7 @@
         <v>22</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K8" s="13" t="s">
         <v>89</v>
@@ -5252,9 +5323,9 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="321"/>
-      <c r="B9" s="323"/>
+    <row r="9" spans="1:15" ht="101.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="372"/>
+      <c r="B9" s="374"/>
       <c r="C9" s="55" t="s">
         <v>91</v>
       </c>
@@ -5272,21 +5343,21 @@
       </c>
       <c r="H9" s="21"/>
       <c r="I9" s="20" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="J9" s="12" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K9" s="14" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="L9" s="19" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="321"/>
-      <c r="B10" s="323"/>
+      <c r="A10" s="372"/>
+      <c r="B10" s="374"/>
       <c r="C10" s="23" t="s">
         <v>94</v>
       </c>
@@ -5310,29 +5381,29 @@
         <v>74</v>
       </c>
       <c r="K10" s="170" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="L10" s="26" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="324" t="s">
-        <v>403</v>
-      </c>
-      <c r="B11" s="319"/>
-      <c r="C11" s="319"/>
-      <c r="D11" s="319"/>
-      <c r="E11" s="319"/>
-      <c r="F11" s="319"/>
-      <c r="G11" s="319"/>
+      <c r="A11" s="367" t="s">
+        <v>389</v>
+      </c>
+      <c r="B11" s="368"/>
+      <c r="C11" s="368"/>
+      <c r="D11" s="368"/>
+      <c r="E11" s="368"/>
+      <c r="F11" s="368"/>
+      <c r="G11" s="368"/>
       <c r="H11" s="159"/>
-      <c r="I11" s="319" t="s">
-        <v>404</v>
-      </c>
-      <c r="J11" s="319"/>
-      <c r="K11" s="319"/>
-      <c r="L11" s="319"/>
+      <c r="I11" s="368" t="s">
+        <v>390</v>
+      </c>
+      <c r="J11" s="368"/>
+      <c r="K11" s="368"/>
+      <c r="L11" s="368"/>
     </row>
     <row r="12" spans="1:15" s="66" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="60" t="s">
@@ -5371,30 +5442,30 @@
       </c>
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="325" t="s">
+      <c r="A13" s="357" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="329" t="s">
+      <c r="B13" s="348" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="337"/>
-      <c r="D13" s="337"/>
-      <c r="E13" s="337"/>
-      <c r="F13" s="337"/>
-      <c r="G13" s="338"/>
+      <c r="C13" s="343"/>
+      <c r="D13" s="343"/>
+      <c r="E13" s="343"/>
+      <c r="F13" s="343"/>
+      <c r="G13" s="344"/>
       <c r="H13" s="43"/>
       <c r="I13" s="238" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J13" s="192"/>
       <c r="K13" s="281"/>
       <c r="L13" s="228" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="101.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="326"/>
-      <c r="B14" s="330"/>
+        <v>155</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+      <c r="A14" s="351"/>
+      <c r="B14" s="349"/>
       <c r="C14" s="3" t="s">
         <v>11</v>
       </c>
@@ -5419,12 +5490,12 @@
         <v>17</v>
       </c>
       <c r="L14" s="229" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="326"/>
-      <c r="B15" s="330"/>
+      <c r="A15" s="351"/>
+      <c r="B15" s="349"/>
       <c r="C15" s="3" t="s">
         <v>18</v>
       </c>
@@ -5454,9 +5525,9 @@
       <c r="N15" s="44"/>
       <c r="O15" s="44"/>
     </row>
-    <row r="16" spans="1:15" ht="67.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="326"/>
-      <c r="B16" s="330"/>
+    <row r="16" spans="1:15" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A16" s="351"/>
+      <c r="B16" s="349"/>
       <c r="C16" s="3" t="s">
         <v>26</v>
       </c>
@@ -5472,21 +5543,21 @@
       <c r="G16" s="237"/>
       <c r="H16" s="162"/>
       <c r="I16" s="240" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="J16" s="163" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K16" s="278" t="s">
-        <v>336</v>
+        <v>399</v>
       </c>
       <c r="L16" s="182" t="s">
-        <v>191</v>
+        <v>397</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="326"/>
-      <c r="B17" s="330"/>
+      <c r="A17" s="351"/>
+      <c r="B17" s="349"/>
       <c r="C17" s="3" t="s">
         <v>29</v>
       </c>
@@ -5517,8 +5588,8 @@
       </c>
     </row>
     <row r="18" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="326"/>
-      <c r="B18" s="330"/>
+      <c r="A18" s="351"/>
+      <c r="B18" s="349"/>
       <c r="C18" s="3" t="s">
         <v>36</v>
       </c>
@@ -5536,26 +5607,26 @@
       </c>
       <c r="H18" s="162"/>
       <c r="I18" s="239" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="J18" s="167" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="L18" s="71" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="67.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="326"/>
-      <c r="B19" s="330"/>
+    <row r="19" spans="1:12" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A19" s="351"/>
+      <c r="B19" s="349"/>
       <c r="C19" s="4" t="s">
         <v>40</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>41</v>
@@ -5568,21 +5639,21 @@
       </c>
       <c r="H19" s="162"/>
       <c r="I19" s="241" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="J19" s="171" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K19" s="170" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="L19" s="232" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="328"/>
-      <c r="B20" s="332"/>
+      <c r="A20" s="352"/>
+      <c r="B20" s="350"/>
       <c r="C20" s="80" t="s">
         <v>42</v>
       </c>
@@ -5600,16 +5671,16 @@
       </c>
       <c r="H20" s="54"/>
       <c r="I20" s="84" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="J20" s="234" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K20" s="233" t="s">
         <v>45</v>
       </c>
       <c r="L20" s="235" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="8.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5627,28 +5698,28 @@
       <c r="L21" s="51"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="325" t="s">
-        <v>313</v>
-      </c>
-      <c r="B22" s="329" t="s">
+      <c r="A22" s="357" t="s">
+        <v>303</v>
+      </c>
+      <c r="B22" s="348" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="337"/>
-      <c r="D22" s="337"/>
-      <c r="E22" s="337"/>
-      <c r="F22" s="337"/>
-      <c r="G22" s="338"/>
+      <c r="C22" s="343"/>
+      <c r="D22" s="343"/>
+      <c r="E22" s="343"/>
+      <c r="F22" s="343"/>
+      <c r="G22" s="344"/>
       <c r="H22" s="43"/>
       <c r="I22" s="203" t="s">
-        <v>178</v>
-      </c>
-      <c r="J22" s="364"/>
-      <c r="K22" s="364"/>
+        <v>176</v>
+      </c>
+      <c r="J22" s="338"/>
+      <c r="K22" s="338"/>
       <c r="L22" s="85"/>
     </row>
-    <row r="23" spans="1:12" ht="112.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="326"/>
-      <c r="B23" s="330"/>
+    <row r="23" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="A23" s="351"/>
+      <c r="B23" s="349"/>
       <c r="C23" s="3" t="s">
         <v>11</v>
       </c>
@@ -5656,7 +5727,7 @@
         <v>47</v>
       </c>
       <c r="E23" s="174" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>14</v>
@@ -5664,21 +5735,21 @@
       <c r="G23" s="237"/>
       <c r="H23" s="162"/>
       <c r="I23" s="239" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="J23" s="163" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K23" s="279" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="L23" s="229" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="326"/>
-      <c r="B24" s="330"/>
+      <c r="A24" s="351"/>
+      <c r="B24" s="349"/>
       <c r="C24" s="3" t="s">
         <v>48</v>
       </c>
@@ -5696,19 +5767,19 @@
       </c>
       <c r="H24" s="162"/>
       <c r="I24" s="239" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="J24" s="163"/>
       <c r="K24" s="279" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="L24" s="230" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="123.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="326"/>
-      <c r="B25" s="330"/>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="101.25" x14ac:dyDescent="0.25">
+      <c r="A25" s="351"/>
+      <c r="B25" s="349"/>
       <c r="C25" s="3" t="s">
         <v>51</v>
       </c>
@@ -5726,21 +5797,21 @@
       </c>
       <c r="H25" s="162"/>
       <c r="I25" s="239" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="J25" s="167" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K25" s="174" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="L25" s="230" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="326"/>
-      <c r="B26" s="330"/>
+      <c r="A26" s="351"/>
+      <c r="B26" s="349"/>
       <c r="C26" s="3" t="s">
         <v>54</v>
       </c>
@@ -5758,21 +5829,21 @@
       </c>
       <c r="H26" s="162"/>
       <c r="I26" s="240" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="J26" s="163" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K26" s="278" t="s">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="L26" s="182" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="326"/>
-      <c r="B27" s="330"/>
+      <c r="A27" s="351"/>
+      <c r="B27" s="349"/>
       <c r="C27" s="3" t="s">
         <v>58</v>
       </c>
@@ -5790,10 +5861,10 @@
       </c>
       <c r="H27" s="162"/>
       <c r="I27" s="240" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="J27" s="163" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K27" s="38" t="s">
         <v>17</v>
@@ -5803,8 +5874,8 @@
       </c>
     </row>
     <row r="28" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="326"/>
-      <c r="B28" s="330"/>
+      <c r="A28" s="351"/>
+      <c r="B28" s="349"/>
       <c r="C28" s="3" t="s">
         <v>61</v>
       </c>
@@ -5822,10 +5893,10 @@
       </c>
       <c r="H28" s="162"/>
       <c r="I28" s="240" t="s">
+        <v>190</v>
+      </c>
+      <c r="J28" s="163" t="s">
         <v>192</v>
-      </c>
-      <c r="J28" s="163" t="s">
-        <v>194</v>
       </c>
       <c r="K28" s="38" t="s">
         <v>17</v>
@@ -5835,8 +5906,8 @@
       </c>
     </row>
     <row r="29" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A29" s="326"/>
-      <c r="B29" s="330"/>
+      <c r="A29" s="351"/>
+      <c r="B29" s="349"/>
       <c r="C29" s="3" t="s">
         <v>29</v>
       </c>
@@ -5867,8 +5938,8 @@
       </c>
     </row>
     <row r="30" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A30" s="326"/>
-      <c r="B30" s="330"/>
+      <c r="A30" s="351"/>
+      <c r="B30" s="349"/>
       <c r="C30" s="3" t="s">
         <v>36</v>
       </c>
@@ -5886,21 +5957,21 @@
       </c>
       <c r="H30" s="162"/>
       <c r="I30" s="239" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="J30" s="167" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K30" s="174" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="L30" s="71" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="102" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="326"/>
-      <c r="B31" s="330"/>
+      <c r="A31" s="351"/>
+      <c r="B31" s="349"/>
       <c r="C31" s="4" t="s">
         <v>64</v>
       </c>
@@ -5918,27 +5989,27 @@
       </c>
       <c r="H31" s="162"/>
       <c r="I31" s="241" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="J31" s="171" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K31" s="170" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="L31" s="232" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="327"/>
-      <c r="B32" s="331"/>
+      <c r="A32" s="364"/>
+      <c r="B32" s="365"/>
       <c r="C32" s="252" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="D32" s="253"/>
       <c r="E32" s="253" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="F32" s="254" t="s">
         <v>57</v>
@@ -5950,13 +6021,13 @@
       <c r="I32" s="274"/>
       <c r="J32" s="275"/>
       <c r="K32" s="276" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="L32" s="283"/>
     </row>
     <row r="33" spans="1:12" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="328"/>
-      <c r="B33" s="332"/>
+      <c r="A33" s="352"/>
+      <c r="B33" s="350"/>
       <c r="C33" s="80" t="s">
         <v>68</v>
       </c>
@@ -5972,16 +6043,16 @@
       <c r="G33" s="83"/>
       <c r="H33" s="54"/>
       <c r="I33" s="84" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="J33" s="234" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K33" s="233" t="s">
         <v>71</v>
       </c>
       <c r="L33" s="235" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="8.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5999,10 +6070,10 @@
       <c r="L34" s="126"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="346" t="s">
-        <v>239</v>
-      </c>
-      <c r="B35" s="348"/>
+      <c r="A35" s="323" t="s">
+        <v>235</v>
+      </c>
+      <c r="B35" s="325"/>
       <c r="C35" s="176"/>
       <c r="D35" s="176"/>
       <c r="E35" s="176"/>
@@ -6010,25 +6081,25 @@
       <c r="G35" s="200"/>
       <c r="H35" s="43"/>
       <c r="I35" s="156" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="J35" s="178"/>
       <c r="K35" s="176"/>
       <c r="L35" s="179" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="347"/>
-      <c r="B36" s="349"/>
+        <v>305</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A36" s="324"/>
+      <c r="B36" s="326"/>
       <c r="C36" s="172" t="s">
+        <v>193</v>
+      </c>
+      <c r="D36" s="169" t="s">
+        <v>194</v>
+      </c>
+      <c r="E36" s="169" t="s">
         <v>195</v>
-      </c>
-      <c r="D36" s="169" t="s">
-        <v>196</v>
-      </c>
-      <c r="E36" s="169" t="s">
-        <v>197</v>
       </c>
       <c r="F36" s="163">
         <v>1</v>
@@ -6036,29 +6107,29 @@
       <c r="G36" s="218"/>
       <c r="H36" s="157"/>
       <c r="I36" s="204" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="J36" s="168" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K36" s="169" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="L36" s="180" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="347"/>
-      <c r="B37" s="349"/>
+      <c r="A37" s="324"/>
+      <c r="B37" s="326"/>
       <c r="C37" s="172" t="s">
+        <v>196</v>
+      </c>
+      <c r="D37" s="169" t="s">
+        <v>197</v>
+      </c>
+      <c r="E37" s="169" t="s">
         <v>198</v>
-      </c>
-      <c r="D37" s="169" t="s">
-        <v>199</v>
-      </c>
-      <c r="E37" s="169" t="s">
-        <v>200</v>
       </c>
       <c r="F37" s="163">
         <v>1</v>
@@ -6066,29 +6137,29 @@
       <c r="G37" s="218"/>
       <c r="H37" s="157"/>
       <c r="I37" s="204" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="J37" s="168" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K37" s="169" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="L37" s="180" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="347"/>
-      <c r="B38" s="349"/>
+      <c r="A38" s="324"/>
+      <c r="B38" s="326"/>
       <c r="C38" s="172" t="s">
+        <v>199</v>
+      </c>
+      <c r="D38" s="169" t="s">
+        <v>200</v>
+      </c>
+      <c r="E38" s="169" t="s">
         <v>201</v>
-      </c>
-      <c r="D38" s="169" t="s">
-        <v>202</v>
-      </c>
-      <c r="E38" s="169" t="s">
-        <v>203</v>
       </c>
       <c r="F38" s="163" t="s">
         <v>14</v>
@@ -6096,29 +6167,29 @@
       <c r="G38" s="218"/>
       <c r="H38" s="157"/>
       <c r="I38" s="204" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="J38" s="168" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K38" s="169" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="L38" s="180" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" ht="67.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="347"/>
-      <c r="B39" s="349"/>
+        <v>218</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A39" s="324"/>
+      <c r="B39" s="326"/>
       <c r="C39" s="172" t="s">
+        <v>202</v>
+      </c>
+      <c r="D39" s="169" t="s">
+        <v>203</v>
+      </c>
+      <c r="E39" s="169" t="s">
         <v>204</v>
-      </c>
-      <c r="D39" s="169" t="s">
-        <v>205</v>
-      </c>
-      <c r="E39" s="169" t="s">
-        <v>206</v>
       </c>
       <c r="F39" s="163" t="s">
         <v>57</v>
@@ -6126,29 +6197,29 @@
       <c r="G39" s="218"/>
       <c r="H39" s="157"/>
       <c r="I39" s="204" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="J39" s="168" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K39" s="169" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="L39" s="180" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="347"/>
-      <c r="B40" s="349"/>
+      <c r="A40" s="324"/>
+      <c r="B40" s="326"/>
       <c r="C40" s="172" t="s">
+        <v>205</v>
+      </c>
+      <c r="D40" s="169" t="s">
+        <v>206</v>
+      </c>
+      <c r="E40" s="169" t="s">
         <v>207</v>
-      </c>
-      <c r="D40" s="169" t="s">
-        <v>208</v>
-      </c>
-      <c r="E40" s="169" t="s">
-        <v>209</v>
       </c>
       <c r="F40" s="163" t="s">
         <v>57</v>
@@ -6156,29 +6227,29 @@
       <c r="G40" s="218"/>
       <c r="H40" s="157"/>
       <c r="I40" s="204" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="J40" s="168" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K40" s="169" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="L40" s="180" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="102" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="347"/>
-      <c r="B41" s="349"/>
+      <c r="A41" s="324"/>
+      <c r="B41" s="326"/>
       <c r="C41" s="223" t="s">
+        <v>208</v>
+      </c>
+      <c r="D41" s="224" t="s">
+        <v>209</v>
+      </c>
+      <c r="E41" s="224" t="s">
         <v>210</v>
-      </c>
-      <c r="D41" s="224" t="s">
-        <v>211</v>
-      </c>
-      <c r="E41" s="224" t="s">
-        <v>212</v>
       </c>
       <c r="F41" s="225">
         <v>1</v>
@@ -6186,27 +6257,27 @@
       <c r="G41" s="218"/>
       <c r="H41" s="157"/>
       <c r="I41" s="242" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="J41" s="226" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K41" s="227" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="L41" s="231" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="347"/>
-      <c r="B42" s="349"/>
+      <c r="A42" s="324"/>
+      <c r="B42" s="326"/>
       <c r="C42" s="223" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D42" s="224"/>
       <c r="E42" s="224" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F42" s="225">
         <v>1</v>
@@ -6214,29 +6285,29 @@
       <c r="G42" s="218"/>
       <c r="H42" s="157"/>
       <c r="I42" s="242" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="J42" s="226" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K42" s="227" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="L42" s="231" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="347"/>
-      <c r="B43" s="349"/>
+        <v>230</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="324"/>
+      <c r="B43" s="326"/>
       <c r="C43" s="223" t="s">
+        <v>213</v>
+      </c>
+      <c r="D43" s="224" t="s">
+        <v>214</v>
+      </c>
+      <c r="E43" s="224" t="s">
         <v>215</v>
-      </c>
-      <c r="D43" s="224" t="s">
-        <v>216</v>
-      </c>
-      <c r="E43" s="224" t="s">
-        <v>217</v>
       </c>
       <c r="F43" s="225">
         <v>1</v>
@@ -6244,13 +6315,13 @@
       <c r="G43" s="218"/>
       <c r="H43" s="157"/>
       <c r="I43" s="242" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="J43" s="226" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K43" s="227" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="L43" s="231"/>
     </row>
@@ -6269,10 +6340,10 @@
       <c r="L44" s="51"/>
     </row>
     <row r="45" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A45" s="346" t="s">
-        <v>239</v>
-      </c>
-      <c r="B45" s="348"/>
+      <c r="A45" s="323" t="s">
+        <v>235</v>
+      </c>
+      <c r="B45" s="325"/>
       <c r="C45" s="176"/>
       <c r="D45" s="176"/>
       <c r="E45" s="176"/>
@@ -6280,25 +6351,25 @@
       <c r="G45" s="200"/>
       <c r="H45" s="43"/>
       <c r="I45" s="156" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="J45" s="178"/>
       <c r="K45" s="176"/>
       <c r="L45" s="179" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="347"/>
-      <c r="B46" s="349"/>
+        <v>306</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A46" s="324"/>
+      <c r="B46" s="326"/>
       <c r="C46" s="172" t="s">
+        <v>193</v>
+      </c>
+      <c r="D46" s="169" t="s">
+        <v>194</v>
+      </c>
+      <c r="E46" s="169" t="s">
         <v>195</v>
-      </c>
-      <c r="D46" s="169" t="s">
-        <v>196</v>
-      </c>
-      <c r="E46" s="169" t="s">
-        <v>197</v>
       </c>
       <c r="F46" s="163">
         <v>1</v>
@@ -6306,29 +6377,29 @@
       <c r="G46" s="218"/>
       <c r="H46" s="157"/>
       <c r="I46" s="204" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="J46" s="168" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K46" s="169" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="L46" s="180" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="347"/>
-      <c r="B47" s="349"/>
+      <c r="A47" s="324"/>
+      <c r="B47" s="326"/>
       <c r="C47" s="172" t="s">
+        <v>196</v>
+      </c>
+      <c r="D47" s="169" t="s">
+        <v>197</v>
+      </c>
+      <c r="E47" s="169" t="s">
         <v>198</v>
-      </c>
-      <c r="D47" s="169" t="s">
-        <v>199</v>
-      </c>
-      <c r="E47" s="169" t="s">
-        <v>200</v>
       </c>
       <c r="F47" s="163">
         <v>1</v>
@@ -6336,29 +6407,29 @@
       <c r="G47" s="218"/>
       <c r="H47" s="157"/>
       <c r="I47" s="204" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="J47" s="168" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K47" s="169" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="L47" s="180" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A48" s="347"/>
-      <c r="B48" s="349"/>
+      <c r="A48" s="324"/>
+      <c r="B48" s="326"/>
       <c r="C48" s="172" t="s">
+        <v>199</v>
+      </c>
+      <c r="D48" s="169" t="s">
+        <v>200</v>
+      </c>
+      <c r="E48" s="169" t="s">
         <v>201</v>
-      </c>
-      <c r="D48" s="169" t="s">
-        <v>202</v>
-      </c>
-      <c r="E48" s="169" t="s">
-        <v>203</v>
       </c>
       <c r="F48" s="163" t="s">
         <v>14</v>
@@ -6366,29 +6437,29 @@
       <c r="G48" s="218"/>
       <c r="H48" s="157"/>
       <c r="I48" s="204" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="J48" s="168" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K48" s="169" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="L48" s="180" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" ht="67.5" x14ac:dyDescent="0.25">
-      <c r="A49" s="347"/>
-      <c r="B49" s="349"/>
+        <v>218</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A49" s="324"/>
+      <c r="B49" s="326"/>
       <c r="C49" s="172" t="s">
+        <v>202</v>
+      </c>
+      <c r="D49" s="169" t="s">
+        <v>203</v>
+      </c>
+      <c r="E49" s="169" t="s">
         <v>204</v>
-      </c>
-      <c r="D49" s="169" t="s">
-        <v>205</v>
-      </c>
-      <c r="E49" s="169" t="s">
-        <v>206</v>
       </c>
       <c r="F49" s="163" t="s">
         <v>57</v>
@@ -6396,29 +6467,29 @@
       <c r="G49" s="218"/>
       <c r="H49" s="157"/>
       <c r="I49" s="204" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="J49" s="168" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K49" s="169" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="L49" s="180" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" ht="123.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="347"/>
-      <c r="B50" s="349"/>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="101.25" x14ac:dyDescent="0.25">
+      <c r="A50" s="324"/>
+      <c r="B50" s="326"/>
       <c r="C50" s="172" t="s">
+        <v>205</v>
+      </c>
+      <c r="D50" s="169" t="s">
+        <v>206</v>
+      </c>
+      <c r="E50" s="169" t="s">
         <v>207</v>
-      </c>
-      <c r="D50" s="169" t="s">
-        <v>208</v>
-      </c>
-      <c r="E50" s="169" t="s">
-        <v>209</v>
       </c>
       <c r="F50" s="163" t="s">
         <v>57</v>
@@ -6426,29 +6497,29 @@
       <c r="G50" s="218"/>
       <c r="H50" s="157"/>
       <c r="I50" s="204" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="J50" s="168" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K50" s="169" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="L50" s="180" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="51" spans="1:12" ht="102" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="347"/>
-      <c r="B51" s="349"/>
+      <c r="A51" s="324"/>
+      <c r="B51" s="326"/>
       <c r="C51" s="223" t="s">
+        <v>208</v>
+      </c>
+      <c r="D51" s="224" t="s">
+        <v>209</v>
+      </c>
+      <c r="E51" s="224" t="s">
         <v>210</v>
-      </c>
-      <c r="D51" s="224" t="s">
-        <v>211</v>
-      </c>
-      <c r="E51" s="224" t="s">
-        <v>212</v>
       </c>
       <c r="F51" s="225">
         <v>1</v>
@@ -6456,27 +6527,27 @@
       <c r="G51" s="218"/>
       <c r="H51" s="157"/>
       <c r="I51" s="242" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="J51" s="226" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K51" s="227" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="L51" s="231" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="52" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A52" s="347"/>
-      <c r="B52" s="349"/>
+      <c r="A52" s="324"/>
+      <c r="B52" s="326"/>
       <c r="C52" s="223" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D52" s="224"/>
       <c r="E52" s="224" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F52" s="225">
         <v>1</v>
@@ -6484,29 +6555,29 @@
       <c r="G52" s="218"/>
       <c r="H52" s="157"/>
       <c r="I52" s="242" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="J52" s="226" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="K52" s="227" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="L52" s="231" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="347"/>
-      <c r="B53" s="349"/>
+        <v>230</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="324"/>
+      <c r="B53" s="326"/>
       <c r="C53" s="223" t="s">
+        <v>213</v>
+      </c>
+      <c r="D53" s="224" t="s">
+        <v>214</v>
+      </c>
+      <c r="E53" s="224" t="s">
         <v>215</v>
-      </c>
-      <c r="D53" s="224" t="s">
-        <v>216</v>
-      </c>
-      <c r="E53" s="224" t="s">
-        <v>217</v>
       </c>
       <c r="F53" s="225">
         <v>1</v>
@@ -6514,13 +6585,13 @@
       <c r="G53" s="218"/>
       <c r="H53" s="157"/>
       <c r="I53" s="242" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="J53" s="226" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K53" s="227" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="L53" s="231"/>
     </row>
@@ -6539,10 +6610,10 @@
       <c r="L54" s="51"/>
     </row>
     <row r="55" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A55" s="346" t="s">
-        <v>239</v>
-      </c>
-      <c r="B55" s="348"/>
+      <c r="A55" s="323" t="s">
+        <v>235</v>
+      </c>
+      <c r="B55" s="325"/>
       <c r="C55" s="176"/>
       <c r="D55" s="176"/>
       <c r="E55" s="176"/>
@@ -6550,25 +6621,25 @@
       <c r="G55" s="200"/>
       <c r="H55" s="43"/>
       <c r="I55" s="156" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="J55" s="178"/>
       <c r="K55" s="176"/>
       <c r="L55" s="179" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
     </row>
     <row r="56" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="347"/>
-      <c r="B56" s="349"/>
+      <c r="A56" s="324"/>
+      <c r="B56" s="326"/>
       <c r="C56" s="172" t="s">
+        <v>193</v>
+      </c>
+      <c r="D56" s="169" t="s">
+        <v>194</v>
+      </c>
+      <c r="E56" s="169" t="s">
         <v>195</v>
-      </c>
-      <c r="D56" s="169" t="s">
-        <v>196</v>
-      </c>
-      <c r="E56" s="169" t="s">
-        <v>197</v>
       </c>
       <c r="F56" s="163">
         <v>1</v>
@@ -6576,29 +6647,29 @@
       <c r="G56" s="218"/>
       <c r="H56" s="157"/>
       <c r="I56" s="204" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="J56" s="168" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K56" s="169" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="L56" s="180" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A57" s="347"/>
-      <c r="B57" s="349"/>
+      <c r="A57" s="324"/>
+      <c r="B57" s="326"/>
       <c r="C57" s="172" t="s">
+        <v>196</v>
+      </c>
+      <c r="D57" s="169" t="s">
+        <v>197</v>
+      </c>
+      <c r="E57" s="169" t="s">
         <v>198</v>
-      </c>
-      <c r="D57" s="169" t="s">
-        <v>199</v>
-      </c>
-      <c r="E57" s="169" t="s">
-        <v>200</v>
       </c>
       <c r="F57" s="163">
         <v>1</v>
@@ -6606,29 +6677,29 @@
       <c r="G57" s="218"/>
       <c r="H57" s="157"/>
       <c r="I57" s="204" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="J57" s="168" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K57" s="169" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="L57" s="180" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="58" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A58" s="347"/>
-      <c r="B58" s="349"/>
+      <c r="A58" s="324"/>
+      <c r="B58" s="326"/>
       <c r="C58" s="172" t="s">
+        <v>199</v>
+      </c>
+      <c r="D58" s="169" t="s">
+        <v>200</v>
+      </c>
+      <c r="E58" s="169" t="s">
         <v>201</v>
-      </c>
-      <c r="D58" s="169" t="s">
-        <v>202</v>
-      </c>
-      <c r="E58" s="169" t="s">
-        <v>203</v>
       </c>
       <c r="F58" s="163" t="s">
         <v>14</v>
@@ -6636,29 +6707,29 @@
       <c r="G58" s="218"/>
       <c r="H58" s="157"/>
       <c r="I58" s="204" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="J58" s="168" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K58" s="169" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="L58" s="180" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" ht="67.5" x14ac:dyDescent="0.25">
-      <c r="A59" s="347"/>
-      <c r="B59" s="349"/>
+        <v>218</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A59" s="324"/>
+      <c r="B59" s="326"/>
       <c r="C59" s="172" t="s">
+        <v>202</v>
+      </c>
+      <c r="D59" s="169" t="s">
+        <v>203</v>
+      </c>
+      <c r="E59" s="169" t="s">
         <v>204</v>
-      </c>
-      <c r="D59" s="169" t="s">
-        <v>205</v>
-      </c>
-      <c r="E59" s="169" t="s">
-        <v>206</v>
       </c>
       <c r="F59" s="163" t="s">
         <v>57</v>
@@ -6666,29 +6737,29 @@
       <c r="G59" s="218"/>
       <c r="H59" s="157"/>
       <c r="I59" s="204" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="J59" s="168" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K59" s="169" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="L59" s="180" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" ht="123.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="347"/>
-      <c r="B60" s="349"/>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" ht="101.25" x14ac:dyDescent="0.25">
+      <c r="A60" s="324"/>
+      <c r="B60" s="326"/>
       <c r="C60" s="172" t="s">
+        <v>205</v>
+      </c>
+      <c r="D60" s="169" t="s">
+        <v>206</v>
+      </c>
+      <c r="E60" s="169" t="s">
         <v>207</v>
-      </c>
-      <c r="D60" s="169" t="s">
-        <v>208</v>
-      </c>
-      <c r="E60" s="169" t="s">
-        <v>209</v>
       </c>
       <c r="F60" s="163" t="s">
         <v>57</v>
@@ -6696,29 +6767,29 @@
       <c r="G60" s="218"/>
       <c r="H60" s="157"/>
       <c r="I60" s="204" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="J60" s="168" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K60" s="169" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="L60" s="180" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="347"/>
-      <c r="B61" s="349"/>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A61" s="324"/>
+      <c r="B61" s="326"/>
       <c r="C61" s="223" t="s">
+        <v>208</v>
+      </c>
+      <c r="D61" s="224" t="s">
+        <v>209</v>
+      </c>
+      <c r="E61" s="224" t="s">
         <v>210</v>
-      </c>
-      <c r="D61" s="224" t="s">
-        <v>211</v>
-      </c>
-      <c r="E61" s="224" t="s">
-        <v>212</v>
       </c>
       <c r="F61" s="225">
         <v>1</v>
@@ -6726,27 +6797,27 @@
       <c r="G61" s="218"/>
       <c r="H61" s="157"/>
       <c r="I61" s="242" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="J61" s="226" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K61" s="227" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="L61" s="231" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="62" spans="1:12" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="347"/>
-      <c r="B62" s="349"/>
+      <c r="A62" s="324"/>
+      <c r="B62" s="326"/>
       <c r="C62" s="223" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D62" s="224"/>
       <c r="E62" s="224" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F62" s="225">
         <v>1</v>
@@ -6754,29 +6825,29 @@
       <c r="G62" s="218"/>
       <c r="H62" s="157"/>
       <c r="I62" s="242" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="J62" s="226" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="K62" s="227" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="L62" s="231" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="63" spans="1:12" ht="53.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="347"/>
-      <c r="B63" s="349"/>
+      <c r="A63" s="324"/>
+      <c r="B63" s="326"/>
       <c r="C63" s="223" t="s">
+        <v>213</v>
+      </c>
+      <c r="D63" s="224" t="s">
+        <v>214</v>
+      </c>
+      <c r="E63" s="224" t="s">
         <v>215</v>
-      </c>
-      <c r="D63" s="224" t="s">
-        <v>216</v>
-      </c>
-      <c r="E63" s="224" t="s">
-        <v>217</v>
       </c>
       <c r="F63" s="225">
         <v>1</v>
@@ -6784,13 +6855,13 @@
       <c r="G63" s="218"/>
       <c r="H63" s="157"/>
       <c r="I63" s="242" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="J63" s="226" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K63" s="227" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="L63" s="231"/>
     </row>
@@ -6809,30 +6880,30 @@
       <c r="L64" s="51"/>
     </row>
     <row r="65" spans="1:12" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A65" s="325" t="s">
-        <v>179</v>
-      </c>
-      <c r="B65" s="333" t="s">
+      <c r="A65" s="357" t="s">
+        <v>177</v>
+      </c>
+      <c r="B65" s="361" t="s">
         <v>100</v>
       </c>
-      <c r="C65" s="360"/>
-      <c r="D65" s="360"/>
-      <c r="E65" s="360"/>
-      <c r="F65" s="360"/>
-      <c r="G65" s="361"/>
+      <c r="C65" s="339"/>
+      <c r="D65" s="339"/>
+      <c r="E65" s="339"/>
+      <c r="F65" s="339"/>
+      <c r="G65" s="340"/>
       <c r="H65" s="43"/>
       <c r="I65" s="203" t="s">
-        <v>339</v>
-      </c>
-      <c r="J65" s="359"/>
-      <c r="K65" s="359"/>
+        <v>328</v>
+      </c>
+      <c r="J65" s="341"/>
+      <c r="K65" s="341"/>
       <c r="L65" s="179" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" ht="112.5" x14ac:dyDescent="0.25">
-      <c r="A66" s="326"/>
-      <c r="B66" s="334"/>
+        <v>329</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="A66" s="351"/>
+      <c r="B66" s="362"/>
       <c r="C66" s="29" t="s">
         <v>11</v>
       </c>
@@ -6848,21 +6919,21 @@
       <c r="G66" s="39"/>
       <c r="H66" s="162"/>
       <c r="I66" s="240" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="J66" s="163" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K66" s="169" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="L66" s="229" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" ht="123.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="326"/>
-      <c r="B67" s="334"/>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" ht="101.25" x14ac:dyDescent="0.25">
+      <c r="A67" s="351"/>
+      <c r="B67" s="362"/>
       <c r="C67" s="29" t="s">
         <v>102</v>
       </c>
@@ -6880,21 +6951,21 @@
       </c>
       <c r="H67" s="162"/>
       <c r="I67" s="239" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="J67" s="34" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K67" s="28" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="L67" s="288" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" ht="405" x14ac:dyDescent="0.25">
-      <c r="A68" s="326"/>
-      <c r="B68" s="334"/>
+        <v>336</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" ht="337.5" x14ac:dyDescent="0.25">
+      <c r="A68" s="351"/>
+      <c r="B68" s="362"/>
       <c r="C68" s="58" t="s">
         <v>105</v>
       </c>
@@ -6910,21 +6981,21 @@
       <c r="G68" s="39"/>
       <c r="H68" s="162"/>
       <c r="I68" s="239" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="J68" s="34" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K68" s="28" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="L68" s="72" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="69" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A69" s="326"/>
-      <c r="B69" s="334"/>
+      <c r="A69" s="351"/>
+      <c r="B69" s="362"/>
       <c r="C69" s="29" t="s">
         <v>29</v>
       </c>
@@ -6955,8 +7026,8 @@
       </c>
     </row>
     <row r="70" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A70" s="326"/>
-      <c r="B70" s="334"/>
+      <c r="A70" s="351"/>
+      <c r="B70" s="362"/>
       <c r="C70" s="29" t="s">
         <v>36</v>
       </c>
@@ -6974,10 +7045,10 @@
       </c>
       <c r="H70" s="162"/>
       <c r="I70" s="239" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="J70" s="167" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K70" s="1" t="s">
         <v>38</v>
@@ -6987,8 +7058,8 @@
       </c>
     </row>
     <row r="71" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A71" s="326"/>
-      <c r="B71" s="334"/>
+      <c r="A71" s="351"/>
+      <c r="B71" s="362"/>
       <c r="C71" s="30" t="s">
         <v>108</v>
       </c>
@@ -7004,21 +7075,21 @@
       <c r="G71" s="40"/>
       <c r="H71" s="162"/>
       <c r="I71" s="41" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="J71" s="34" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K71" s="289" t="s">
         <v>45</v>
       </c>
       <c r="L71" s="290" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" ht="213.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="326"/>
-      <c r="B72" s="334"/>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" ht="191.25" x14ac:dyDescent="0.25">
+      <c r="A72" s="351"/>
+      <c r="B72" s="362"/>
       <c r="C72" s="29" t="s">
         <v>111</v>
       </c>
@@ -7036,27 +7107,27 @@
       </c>
       <c r="H72" s="162"/>
       <c r="I72" s="41" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="J72" s="34" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K72" s="174" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="L72" s="182" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A73" s="327"/>
-      <c r="B73" s="335"/>
+        <v>327</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A73" s="364"/>
+      <c r="B73" s="366"/>
       <c r="C73" s="244" t="s">
-        <v>229</v>
+        <v>400</v>
       </c>
       <c r="D73" s="249"/>
       <c r="E73" s="198" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="F73" s="250" t="s">
         <v>57</v>
@@ -7068,15 +7139,15 @@
       <c r="I73" s="245"/>
       <c r="J73" s="199"/>
       <c r="K73" s="198" t="s">
-        <v>308</v>
+        <v>401</v>
       </c>
       <c r="L73" s="246" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" ht="124.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="328"/>
-      <c r="B74" s="336"/>
+        <v>299</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" ht="113.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="352"/>
+      <c r="B74" s="363"/>
       <c r="C74" s="89" t="s">
         <v>114</v>
       </c>
@@ -7094,16 +7165,16 @@
       </c>
       <c r="H74" s="54"/>
       <c r="I74" s="93" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="J74" s="94" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K74" s="95" t="s">
-        <v>300</v>
+        <v>409</v>
       </c>
       <c r="L74" s="96" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="75" spans="1:12" ht="8.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7121,10 +7192,10 @@
       <c r="L75" s="133"/>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A76" s="346" t="s">
-        <v>230</v>
-      </c>
-      <c r="B76" s="348"/>
+      <c r="A76" s="323" t="s">
+        <v>402</v>
+      </c>
+      <c r="B76" s="325"/>
       <c r="C76" s="176"/>
       <c r="D76" s="176"/>
       <c r="E76" s="176"/>
@@ -7132,25 +7203,25 @@
       <c r="G76" s="200"/>
       <c r="H76" s="43"/>
       <c r="I76" s="156" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="J76" s="178"/>
       <c r="K76" s="176"/>
       <c r="L76" s="179" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="347"/>
-      <c r="B77" s="349"/>
+        <v>309</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A77" s="324"/>
+      <c r="B77" s="326"/>
       <c r="C77" s="172" t="s">
+        <v>193</v>
+      </c>
+      <c r="D77" s="169" t="s">
+        <v>194</v>
+      </c>
+      <c r="E77" s="169" t="s">
         <v>195</v>
-      </c>
-      <c r="D77" s="169" t="s">
-        <v>196</v>
-      </c>
-      <c r="E77" s="169" t="s">
-        <v>197</v>
       </c>
       <c r="F77" s="163">
         <v>1</v>
@@ -7158,27 +7229,27 @@
       <c r="G77" s="218"/>
       <c r="H77" s="157"/>
       <c r="I77" s="204" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="J77" s="168" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K77" s="169" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="L77" s="180"/>
     </row>
     <row r="78" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="347"/>
-      <c r="B78" s="349"/>
+      <c r="A78" s="324"/>
+      <c r="B78" s="326"/>
       <c r="C78" s="172" t="s">
+        <v>196</v>
+      </c>
+      <c r="D78" s="169" t="s">
+        <v>197</v>
+      </c>
+      <c r="E78" s="169" t="s">
         <v>198</v>
-      </c>
-      <c r="D78" s="169" t="s">
-        <v>199</v>
-      </c>
-      <c r="E78" s="169" t="s">
-        <v>200</v>
       </c>
       <c r="F78" s="163">
         <v>1</v>
@@ -7186,29 +7257,29 @@
       <c r="G78" s="218"/>
       <c r="H78" s="157"/>
       <c r="I78" s="204" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="J78" s="168" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K78" s="169" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="L78" s="180" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="79" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A79" s="347"/>
-      <c r="B79" s="349"/>
+      <c r="A79" s="324"/>
+      <c r="B79" s="326"/>
       <c r="C79" s="172" t="s">
+        <v>199</v>
+      </c>
+      <c r="D79" s="169" t="s">
+        <v>200</v>
+      </c>
+      <c r="E79" s="169" t="s">
         <v>201</v>
-      </c>
-      <c r="D79" s="169" t="s">
-        <v>202</v>
-      </c>
-      <c r="E79" s="169" t="s">
-        <v>203</v>
       </c>
       <c r="F79" s="163" t="s">
         <v>14</v>
@@ -7216,29 +7287,29 @@
       <c r="G79" s="218"/>
       <c r="H79" s="157"/>
       <c r="I79" s="204" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="J79" s="168" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K79" s="169" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="L79" s="180" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" ht="67.5" x14ac:dyDescent="0.25">
-      <c r="A80" s="347"/>
-      <c r="B80" s="349"/>
+        <v>218</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A80" s="324"/>
+      <c r="B80" s="326"/>
       <c r="C80" s="172" t="s">
+        <v>202</v>
+      </c>
+      <c r="D80" s="169" t="s">
+        <v>203</v>
+      </c>
+      <c r="E80" s="169" t="s">
         <v>204</v>
-      </c>
-      <c r="D80" s="169" t="s">
-        <v>205</v>
-      </c>
-      <c r="E80" s="169" t="s">
-        <v>206</v>
       </c>
       <c r="F80" s="163" t="s">
         <v>57</v>
@@ -7246,29 +7317,29 @@
       <c r="G80" s="218"/>
       <c r="H80" s="157"/>
       <c r="I80" s="204" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="J80" s="168" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K80" s="169" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="L80" s="180" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" ht="123.75" x14ac:dyDescent="0.25">
-      <c r="A81" s="347"/>
-      <c r="B81" s="349"/>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" ht="101.25" x14ac:dyDescent="0.25">
+      <c r="A81" s="324"/>
+      <c r="B81" s="326"/>
       <c r="C81" s="172" t="s">
+        <v>205</v>
+      </c>
+      <c r="D81" s="169" t="s">
+        <v>206</v>
+      </c>
+      <c r="E81" s="169" t="s">
         <v>207</v>
-      </c>
-      <c r="D81" s="169" t="s">
-        <v>208</v>
-      </c>
-      <c r="E81" s="169" t="s">
-        <v>209</v>
       </c>
       <c r="F81" s="163" t="s">
         <v>57</v>
@@ -7276,29 +7347,29 @@
       <c r="G81" s="218"/>
       <c r="H81" s="157"/>
       <c r="I81" s="204" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="J81" s="168" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="K81" s="169" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="L81" s="180" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A82" s="347"/>
-      <c r="B82" s="349"/>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A82" s="324"/>
+      <c r="B82" s="326"/>
       <c r="C82" s="223" t="s">
+        <v>208</v>
+      </c>
+      <c r="D82" s="224" t="s">
+        <v>209</v>
+      </c>
+      <c r="E82" s="224" t="s">
         <v>210</v>
-      </c>
-      <c r="D82" s="224" t="s">
-        <v>211</v>
-      </c>
-      <c r="E82" s="224" t="s">
-        <v>212</v>
       </c>
       <c r="F82" s="225">
         <v>1</v>
@@ -7306,27 +7377,27 @@
       <c r="G82" s="218"/>
       <c r="H82" s="157"/>
       <c r="I82" s="242" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="J82" s="226" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K82" s="227" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="L82" s="231" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A83" s="347"/>
-      <c r="B83" s="349"/>
+      <c r="A83" s="324"/>
+      <c r="B83" s="326"/>
       <c r="C83" s="223" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D83" s="224"/>
       <c r="E83" s="224" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F83" s="225">
         <v>1</v>
@@ -7334,29 +7405,29 @@
       <c r="G83" s="218"/>
       <c r="H83" s="157"/>
       <c r="I83" s="242" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="J83" s="226" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="K83" s="227" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="L83" s="231" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
     </row>
     <row r="84" spans="1:12" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="347"/>
-      <c r="B84" s="349"/>
+      <c r="A84" s="324"/>
+      <c r="B84" s="326"/>
       <c r="C84" s="223" t="s">
+        <v>213</v>
+      </c>
+      <c r="D84" s="224" t="s">
+        <v>214</v>
+      </c>
+      <c r="E84" s="224" t="s">
         <v>215</v>
-      </c>
-      <c r="D84" s="224" t="s">
-        <v>216</v>
-      </c>
-      <c r="E84" s="224" t="s">
-        <v>217</v>
       </c>
       <c r="F84" s="225">
         <v>1</v>
@@ -7364,16 +7435,16 @@
       <c r="G84" s="218"/>
       <c r="H84" s="157"/>
       <c r="I84" s="242" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="J84" s="226" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K84" s="227" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="L84" s="231" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="85" spans="1:12" ht="8.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7391,10 +7462,10 @@
       <c r="L85" s="133"/>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A86" s="346" t="s">
-        <v>230</v>
-      </c>
-      <c r="B86" s="348"/>
+      <c r="A86" s="323" t="s">
+        <v>402</v>
+      </c>
+      <c r="B86" s="325"/>
       <c r="C86" s="176"/>
       <c r="D86" s="176"/>
       <c r="E86" s="176"/>
@@ -7402,25 +7473,25 @@
       <c r="G86" s="200"/>
       <c r="H86" s="43"/>
       <c r="I86" s="156" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="J86" s="178"/>
       <c r="K86" s="176"/>
       <c r="L86" s="179" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A87" s="347"/>
-      <c r="B87" s="349"/>
+        <v>310</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A87" s="324"/>
+      <c r="B87" s="326"/>
       <c r="C87" s="172" t="s">
+        <v>193</v>
+      </c>
+      <c r="D87" s="169" t="s">
+        <v>194</v>
+      </c>
+      <c r="E87" s="169" t="s">
         <v>195</v>
-      </c>
-      <c r="D87" s="169" t="s">
-        <v>196</v>
-      </c>
-      <c r="E87" s="169" t="s">
-        <v>197</v>
       </c>
       <c r="F87" s="163">
         <v>1</v>
@@ -7428,29 +7499,29 @@
       <c r="G87" s="218"/>
       <c r="H87" s="157"/>
       <c r="I87" s="204" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="J87" s="168" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K87" s="169" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="L87" s="180" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="88" spans="1:12" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="347"/>
-      <c r="B88" s="349"/>
+      <c r="A88" s="324"/>
+      <c r="B88" s="326"/>
       <c r="C88" s="172" t="s">
+        <v>196</v>
+      </c>
+      <c r="D88" s="169" t="s">
+        <v>197</v>
+      </c>
+      <c r="E88" s="169" t="s">
         <v>198</v>
-      </c>
-      <c r="D88" s="169" t="s">
-        <v>199</v>
-      </c>
-      <c r="E88" s="169" t="s">
-        <v>200</v>
       </c>
       <c r="F88" s="163">
         <v>1</v>
@@ -7458,29 +7529,29 @@
       <c r="G88" s="218"/>
       <c r="H88" s="157"/>
       <c r="I88" s="204" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="J88" s="168" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K88" s="169" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="L88" s="180" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="89" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A89" s="347"/>
-      <c r="B89" s="349"/>
+      <c r="A89" s="324"/>
+      <c r="B89" s="326"/>
       <c r="C89" s="172" t="s">
+        <v>199</v>
+      </c>
+      <c r="D89" s="169" t="s">
+        <v>200</v>
+      </c>
+      <c r="E89" s="169" t="s">
         <v>201</v>
-      </c>
-      <c r="D89" s="169" t="s">
-        <v>202</v>
-      </c>
-      <c r="E89" s="169" t="s">
-        <v>203</v>
       </c>
       <c r="F89" s="163" t="s">
         <v>14</v>
@@ -7488,29 +7559,29 @@
       <c r="G89" s="218"/>
       <c r="H89" s="157"/>
       <c r="I89" s="204" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="J89" s="168" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K89" s="169" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="L89" s="180" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" ht="67.5" x14ac:dyDescent="0.25">
-      <c r="A90" s="347"/>
-      <c r="B90" s="349"/>
+        <v>218</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A90" s="324"/>
+      <c r="B90" s="326"/>
       <c r="C90" s="172" t="s">
+        <v>202</v>
+      </c>
+      <c r="D90" s="169" t="s">
+        <v>203</v>
+      </c>
+      <c r="E90" s="169" t="s">
         <v>204</v>
-      </c>
-      <c r="D90" s="169" t="s">
-        <v>205</v>
-      </c>
-      <c r="E90" s="169" t="s">
-        <v>206</v>
       </c>
       <c r="F90" s="163" t="s">
         <v>57</v>
@@ -7518,29 +7589,29 @@
       <c r="G90" s="218"/>
       <c r="H90" s="157"/>
       <c r="I90" s="204" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="J90" s="168" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K90" s="169" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="L90" s="180" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="91" spans="1:12" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="347"/>
-      <c r="B91" s="349"/>
+      <c r="A91" s="324"/>
+      <c r="B91" s="326"/>
       <c r="C91" s="172" t="s">
+        <v>205</v>
+      </c>
+      <c r="D91" s="169" t="s">
+        <v>206</v>
+      </c>
+      <c r="E91" s="169" t="s">
         <v>207</v>
-      </c>
-      <c r="D91" s="169" t="s">
-        <v>208</v>
-      </c>
-      <c r="E91" s="169" t="s">
-        <v>209</v>
       </c>
       <c r="F91" s="163" t="s">
         <v>57</v>
@@ -7548,29 +7619,29 @@
       <c r="G91" s="218"/>
       <c r="H91" s="157"/>
       <c r="I91" s="204" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="J91" s="168" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K91" s="169" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="L91" s="180" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="92" spans="1:12" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="347"/>
-      <c r="B92" s="349"/>
+      <c r="A92" s="324"/>
+      <c r="B92" s="326"/>
       <c r="C92" s="223" t="s">
+        <v>208</v>
+      </c>
+      <c r="D92" s="224" t="s">
+        <v>209</v>
+      </c>
+      <c r="E92" s="224" t="s">
         <v>210</v>
-      </c>
-      <c r="D92" s="224" t="s">
-        <v>211</v>
-      </c>
-      <c r="E92" s="224" t="s">
-        <v>212</v>
       </c>
       <c r="F92" s="225">
         <v>1</v>
@@ -7578,27 +7649,27 @@
       <c r="G92" s="218"/>
       <c r="H92" s="157"/>
       <c r="I92" s="242" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="J92" s="226" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K92" s="227" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="L92" s="231" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A93" s="347"/>
-      <c r="B93" s="349"/>
+      <c r="A93" s="324"/>
+      <c r="B93" s="326"/>
       <c r="C93" s="223" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D93" s="224"/>
       <c r="E93" s="224" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F93" s="225">
         <v>1</v>
@@ -7606,29 +7677,29 @@
       <c r="G93" s="218"/>
       <c r="H93" s="157"/>
       <c r="I93" s="242" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="J93" s="226" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="K93" s="227" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="L93" s="231" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="94" spans="1:12" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="347"/>
-      <c r="B94" s="349"/>
+      <c r="A94" s="324"/>
+      <c r="B94" s="326"/>
       <c r="C94" s="223" t="s">
+        <v>213</v>
+      </c>
+      <c r="D94" s="224" t="s">
+        <v>214</v>
+      </c>
+      <c r="E94" s="224" t="s">
         <v>215</v>
-      </c>
-      <c r="D94" s="224" t="s">
-        <v>216</v>
-      </c>
-      <c r="E94" s="224" t="s">
-        <v>217</v>
       </c>
       <c r="F94" s="225">
         <v>1</v>
@@ -7636,16 +7707,16 @@
       <c r="G94" s="218"/>
       <c r="H94" s="157"/>
       <c r="I94" s="242" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="J94" s="226" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K94" s="227" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="L94" s="231" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="95" spans="1:12" ht="8.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7663,10 +7734,10 @@
       <c r="L95" s="51"/>
     </row>
     <row r="96" spans="1:12" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="346" t="s">
-        <v>230</v>
-      </c>
-      <c r="B96" s="348"/>
+      <c r="A96" s="323" t="s">
+        <v>402</v>
+      </c>
+      <c r="B96" s="325"/>
       <c r="C96" s="176"/>
       <c r="D96" s="176"/>
       <c r="E96" s="176"/>
@@ -7674,25 +7745,25 @@
       <c r="G96" s="200"/>
       <c r="H96" s="43"/>
       <c r="I96" s="156" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="J96" s="178"/>
       <c r="K96" s="176"/>
       <c r="L96" s="179" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
     </row>
     <row r="97" spans="1:12" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="347"/>
-      <c r="B97" s="349"/>
+      <c r="A97" s="324"/>
+      <c r="B97" s="326"/>
       <c r="C97" s="172" t="s">
+        <v>193</v>
+      </c>
+      <c r="D97" s="169" t="s">
+        <v>194</v>
+      </c>
+      <c r="E97" s="169" t="s">
         <v>195</v>
-      </c>
-      <c r="D97" s="169" t="s">
-        <v>196</v>
-      </c>
-      <c r="E97" s="169" t="s">
-        <v>197</v>
       </c>
       <c r="F97" s="163">
         <v>1</v>
@@ -7700,29 +7771,29 @@
       <c r="G97" s="218"/>
       <c r="H97" s="157"/>
       <c r="I97" s="204" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="J97" s="168" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K97" s="169" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="L97" s="180" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="98" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="347"/>
-      <c r="B98" s="349"/>
+      <c r="A98" s="324"/>
+      <c r="B98" s="326"/>
       <c r="C98" s="172" t="s">
+        <v>196</v>
+      </c>
+      <c r="D98" s="169" t="s">
+        <v>197</v>
+      </c>
+      <c r="E98" s="169" t="s">
         <v>198</v>
-      </c>
-      <c r="D98" s="169" t="s">
-        <v>199</v>
-      </c>
-      <c r="E98" s="169" t="s">
-        <v>200</v>
       </c>
       <c r="F98" s="163">
         <v>1</v>
@@ -7730,29 +7801,29 @@
       <c r="G98" s="218"/>
       <c r="H98" s="157"/>
       <c r="I98" s="204" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="J98" s="168" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K98" s="169" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="L98" s="180" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="99" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A99" s="347"/>
-      <c r="B99" s="349"/>
+      <c r="A99" s="324"/>
+      <c r="B99" s="326"/>
       <c r="C99" s="172" t="s">
+        <v>199</v>
+      </c>
+      <c r="D99" s="169" t="s">
+        <v>200</v>
+      </c>
+      <c r="E99" s="169" t="s">
         <v>201</v>
-      </c>
-      <c r="D99" s="169" t="s">
-        <v>202</v>
-      </c>
-      <c r="E99" s="169" t="s">
-        <v>203</v>
       </c>
       <c r="F99" s="163" t="s">
         <v>14</v>
@@ -7760,29 +7831,29 @@
       <c r="G99" s="218"/>
       <c r="H99" s="157"/>
       <c r="I99" s="204" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="J99" s="168" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K99" s="169" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="L99" s="180" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12" ht="67.5" x14ac:dyDescent="0.25">
-      <c r="A100" s="347"/>
-      <c r="B100" s="349"/>
+        <v>218</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A100" s="324"/>
+      <c r="B100" s="326"/>
       <c r="C100" s="172" t="s">
+        <v>202</v>
+      </c>
+      <c r="D100" s="169" t="s">
+        <v>203</v>
+      </c>
+      <c r="E100" s="169" t="s">
         <v>204</v>
-      </c>
-      <c r="D100" s="169" t="s">
-        <v>205</v>
-      </c>
-      <c r="E100" s="169" t="s">
-        <v>206</v>
       </c>
       <c r="F100" s="163" t="s">
         <v>57</v>
@@ -7790,29 +7861,29 @@
       <c r="G100" s="218"/>
       <c r="H100" s="157"/>
       <c r="I100" s="204" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="J100" s="168" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K100" s="169" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="L100" s="180" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12" ht="123.75" x14ac:dyDescent="0.25">
-      <c r="A101" s="347"/>
-      <c r="B101" s="349"/>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" ht="101.25" x14ac:dyDescent="0.25">
+      <c r="A101" s="324"/>
+      <c r="B101" s="326"/>
       <c r="C101" s="172" t="s">
+        <v>205</v>
+      </c>
+      <c r="D101" s="169" t="s">
+        <v>206</v>
+      </c>
+      <c r="E101" s="169" t="s">
         <v>207</v>
-      </c>
-      <c r="D101" s="169" t="s">
-        <v>208</v>
-      </c>
-      <c r="E101" s="169" t="s">
-        <v>209</v>
       </c>
       <c r="F101" s="163" t="s">
         <v>57</v>
@@ -7820,29 +7891,29 @@
       <c r="G101" s="218"/>
       <c r="H101" s="157"/>
       <c r="I101" s="204" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="J101" s="168" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="K101" s="169" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="L101" s="180" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="102" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A102" s="347"/>
-      <c r="B102" s="349"/>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A102" s="324"/>
+      <c r="B102" s="326"/>
       <c r="C102" s="223" t="s">
+        <v>208</v>
+      </c>
+      <c r="D102" s="224" t="s">
+        <v>209</v>
+      </c>
+      <c r="E102" s="224" t="s">
         <v>210</v>
-      </c>
-      <c r="D102" s="224" t="s">
-        <v>211</v>
-      </c>
-      <c r="E102" s="224" t="s">
-        <v>212</v>
       </c>
       <c r="F102" s="225">
         <v>1</v>
@@ -7850,27 +7921,27 @@
       <c r="G102" s="218"/>
       <c r="H102" s="157"/>
       <c r="I102" s="242" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="J102" s="226" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K102" s="227" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="L102" s="231" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="103" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="347"/>
-      <c r="B103" s="349"/>
+      <c r="A103" s="324"/>
+      <c r="B103" s="326"/>
       <c r="C103" s="223" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D103" s="224"/>
       <c r="E103" s="224" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F103" s="225">
         <v>1</v>
@@ -7878,29 +7949,29 @@
       <c r="G103" s="218"/>
       <c r="H103" s="157"/>
       <c r="I103" s="242" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="J103" s="226" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="K103" s="227" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="L103" s="231" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A104" s="347"/>
-      <c r="B104" s="349"/>
+        <v>278</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A104" s="324"/>
+      <c r="B104" s="326"/>
       <c r="C104" s="223" t="s">
+        <v>213</v>
+      </c>
+      <c r="D104" s="224" t="s">
+        <v>214</v>
+      </c>
+      <c r="E104" s="224" t="s">
         <v>215</v>
-      </c>
-      <c r="D104" s="224" t="s">
-        <v>216</v>
-      </c>
-      <c r="E104" s="224" t="s">
-        <v>217</v>
       </c>
       <c r="F104" s="225">
         <v>1</v>
@@ -7908,16 +7979,16 @@
       <c r="G104" s="218"/>
       <c r="H104" s="157"/>
       <c r="I104" s="242" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="J104" s="226" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K104" s="227" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="L104" s="231" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="105" spans="1:12" ht="8.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7934,11 +8005,11 @@
       <c r="K105" s="272"/>
       <c r="L105" s="273"/>
     </row>
-    <row r="106" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A106" s="346" t="s">
-        <v>230</v>
-      </c>
-      <c r="B106" s="348"/>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A106" s="323" t="s">
+        <v>402</v>
+      </c>
+      <c r="B106" s="325"/>
       <c r="C106" s="176"/>
       <c r="D106" s="176"/>
       <c r="E106" s="176"/>
@@ -7946,25 +8017,25 @@
       <c r="G106" s="200"/>
       <c r="H106" s="43"/>
       <c r="I106" s="156" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="J106" s="178"/>
       <c r="K106" s="176"/>
       <c r="L106" s="179" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="107" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A107" s="347"/>
-      <c r="B107" s="349"/>
+        <v>311</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A107" s="324"/>
+      <c r="B107" s="326"/>
       <c r="C107" s="172" t="s">
+        <v>193</v>
+      </c>
+      <c r="D107" s="169" t="s">
+        <v>194</v>
+      </c>
+      <c r="E107" s="169" t="s">
         <v>195</v>
-      </c>
-      <c r="D107" s="169" t="s">
-        <v>196</v>
-      </c>
-      <c r="E107" s="169" t="s">
-        <v>197</v>
       </c>
       <c r="F107" s="163">
         <v>1</v>
@@ -7972,29 +8043,29 @@
       <c r="G107" s="218"/>
       <c r="H107" s="157"/>
       <c r="I107" s="204" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="J107" s="168" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K107" s="169" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="L107" s="180" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="108" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A108" s="347"/>
-      <c r="B108" s="349"/>
+      <c r="A108" s="324"/>
+      <c r="B108" s="326"/>
       <c r="C108" s="172" t="s">
+        <v>196</v>
+      </c>
+      <c r="D108" s="169" t="s">
+        <v>197</v>
+      </c>
+      <c r="E108" s="169" t="s">
         <v>198</v>
-      </c>
-      <c r="D108" s="169" t="s">
-        <v>199</v>
-      </c>
-      <c r="E108" s="169" t="s">
-        <v>200</v>
       </c>
       <c r="F108" s="163">
         <v>1</v>
@@ -8002,29 +8073,29 @@
       <c r="G108" s="218"/>
       <c r="H108" s="157"/>
       <c r="I108" s="204" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="J108" s="168" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K108" s="169" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="L108" s="180" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="109" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A109" s="347"/>
-      <c r="B109" s="349"/>
+      <c r="A109" s="324"/>
+      <c r="B109" s="326"/>
       <c r="C109" s="172" t="s">
+        <v>199</v>
+      </c>
+      <c r="D109" s="169" t="s">
+        <v>200</v>
+      </c>
+      <c r="E109" s="169" t="s">
         <v>201</v>
-      </c>
-      <c r="D109" s="169" t="s">
-        <v>202</v>
-      </c>
-      <c r="E109" s="169" t="s">
-        <v>203</v>
       </c>
       <c r="F109" s="163" t="s">
         <v>14</v>
@@ -8032,29 +8103,29 @@
       <c r="G109" s="218"/>
       <c r="H109" s="157"/>
       <c r="I109" s="204" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="J109" s="168" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K109" s="169" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="L109" s="180" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="110" spans="1:12" ht="67.5" x14ac:dyDescent="0.25">
-      <c r="A110" s="347"/>
-      <c r="B110" s="349"/>
+        <v>218</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A110" s="324"/>
+      <c r="B110" s="326"/>
       <c r="C110" s="172" t="s">
+        <v>202</v>
+      </c>
+      <c r="D110" s="169" t="s">
+        <v>203</v>
+      </c>
+      <c r="E110" s="169" t="s">
         <v>204</v>
-      </c>
-      <c r="D110" s="169" t="s">
-        <v>205</v>
-      </c>
-      <c r="E110" s="169" t="s">
-        <v>206</v>
       </c>
       <c r="F110" s="163" t="s">
         <v>57</v>
@@ -8062,29 +8133,29 @@
       <c r="G110" s="218"/>
       <c r="H110" s="157"/>
       <c r="I110" s="204" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="J110" s="168" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K110" s="169" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="L110" s="180" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="111" spans="1:12" ht="123.75" x14ac:dyDescent="0.25">
-      <c r="A111" s="347"/>
-      <c r="B111" s="349"/>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" ht="101.25" x14ac:dyDescent="0.25">
+      <c r="A111" s="324"/>
+      <c r="B111" s="326"/>
       <c r="C111" s="172" t="s">
+        <v>205</v>
+      </c>
+      <c r="D111" s="169" t="s">
+        <v>206</v>
+      </c>
+      <c r="E111" s="169" t="s">
         <v>207</v>
-      </c>
-      <c r="D111" s="169" t="s">
-        <v>208</v>
-      </c>
-      <c r="E111" s="169" t="s">
-        <v>209</v>
       </c>
       <c r="F111" s="163" t="s">
         <v>57</v>
@@ -8092,29 +8163,29 @@
       <c r="G111" s="218"/>
       <c r="H111" s="157"/>
       <c r="I111" s="204" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="J111" s="168" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K111" s="169" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="L111" s="180" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="112" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="347"/>
-      <c r="B112" s="349"/>
+      <c r="A112" s="324"/>
+      <c r="B112" s="326"/>
       <c r="C112" s="223" t="s">
+        <v>208</v>
+      </c>
+      <c r="D112" s="224" t="s">
+        <v>209</v>
+      </c>
+      <c r="E112" s="224" t="s">
         <v>210</v>
-      </c>
-      <c r="D112" s="224" t="s">
-        <v>211</v>
-      </c>
-      <c r="E112" s="224" t="s">
-        <v>212</v>
       </c>
       <c r="F112" s="225">
         <v>1</v>
@@ -8122,27 +8193,27 @@
       <c r="G112" s="218"/>
       <c r="H112" s="157"/>
       <c r="I112" s="242" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="J112" s="226" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K112" s="227" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="L112" s="231" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A113" s="347"/>
-      <c r="B113" s="349"/>
+      <c r="A113" s="324"/>
+      <c r="B113" s="326"/>
       <c r="C113" s="223" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D113" s="224"/>
       <c r="E113" s="224" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F113" s="225">
         <v>1</v>
@@ -8150,29 +8221,29 @@
       <c r="G113" s="218"/>
       <c r="H113" s="157"/>
       <c r="I113" s="242" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="J113" s="226" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="K113" s="227" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="L113" s="231" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="114" spans="1:12" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="347"/>
-      <c r="B114" s="349"/>
+        <v>229</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="324"/>
+      <c r="B114" s="326"/>
       <c r="C114" s="223" t="s">
+        <v>213</v>
+      </c>
+      <c r="D114" s="224" t="s">
+        <v>214</v>
+      </c>
+      <c r="E114" s="224" t="s">
         <v>215</v>
-      </c>
-      <c r="D114" s="224" t="s">
-        <v>216</v>
-      </c>
-      <c r="E114" s="224" t="s">
-        <v>217</v>
       </c>
       <c r="F114" s="225">
         <v>1</v>
@@ -8180,16 +8251,16 @@
       <c r="G114" s="218"/>
       <c r="H114" s="157"/>
       <c r="I114" s="242" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="J114" s="226" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K114" s="227" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="L114" s="231" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="115" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8207,30 +8278,30 @@
       <c r="L115" s="133"/>
     </row>
     <row r="116" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A116" s="342" t="s">
-        <v>353</v>
-      </c>
-      <c r="B116" s="352" t="s">
-        <v>325</v>
-      </c>
-      <c r="C116" s="370"/>
-      <c r="D116" s="370"/>
-      <c r="E116" s="370"/>
-      <c r="F116" s="370"/>
-      <c r="G116" s="370"/>
+      <c r="A116" s="332" t="s">
+        <v>341</v>
+      </c>
+      <c r="B116" s="354" t="s">
+        <v>315</v>
+      </c>
+      <c r="C116" s="322"/>
+      <c r="D116" s="322"/>
+      <c r="E116" s="322"/>
+      <c r="F116" s="322"/>
+      <c r="G116" s="322"/>
       <c r="H116" s="136"/>
       <c r="I116" s="285" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="J116" s="135"/>
       <c r="K116" s="134"/>
-      <c r="L116" s="179" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="117" spans="1:12" ht="112.5" x14ac:dyDescent="0.25">
-      <c r="A117" s="351"/>
-      <c r="B117" s="353"/>
+      <c r="L116" s="319" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="A117" s="353"/>
+      <c r="B117" s="355"/>
       <c r="C117" s="259" t="s">
         <v>11</v>
       </c>
@@ -8246,21 +8317,21 @@
       <c r="G117" s="39"/>
       <c r="H117" s="78"/>
       <c r="I117" s="139" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="J117" s="284" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K117" s="169" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="L117" s="229" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="118" spans="1:12" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="351"/>
-      <c r="B118" s="353"/>
+      <c r="A118" s="353"/>
+      <c r="B118" s="355"/>
       <c r="C118" s="308" t="s">
         <v>102</v>
       </c>
@@ -8278,21 +8349,21 @@
       </c>
       <c r="H118" s="78"/>
       <c r="I118" s="309" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="J118" s="284" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K118" s="278" t="s">
-        <v>365</v>
+        <v>351</v>
       </c>
       <c r="L118" s="288" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="119" spans="1:12" ht="405" x14ac:dyDescent="0.25">
-      <c r="A119" s="351"/>
-      <c r="B119" s="353"/>
+        <v>336</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" ht="337.5" x14ac:dyDescent="0.25">
+      <c r="A119" s="353"/>
+      <c r="B119" s="355"/>
       <c r="C119" s="259" t="s">
         <v>105</v>
       </c>
@@ -8308,21 +8379,21 @@
       <c r="G119" s="39"/>
       <c r="H119" s="78"/>
       <c r="I119" s="139" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="J119" s="138" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K119" s="257" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="L119" s="183" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="120" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A120" s="351"/>
-      <c r="B120" s="353"/>
+      <c r="A120" s="353"/>
+      <c r="B120" s="355"/>
       <c r="C120" s="259" t="s">
         <v>29</v>
       </c>
@@ -8353,8 +8424,8 @@
       </c>
     </row>
     <row r="121" spans="1:12" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="351"/>
-      <c r="B121" s="353"/>
+      <c r="A121" s="353"/>
+      <c r="B121" s="355"/>
       <c r="C121" s="259" t="s">
         <v>36</v>
       </c>
@@ -8372,10 +8443,10 @@
       </c>
       <c r="H121" s="78"/>
       <c r="I121" s="239" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="J121" s="167" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K121" s="1" t="s">
         <v>38</v>
@@ -8385,8 +8456,8 @@
       </c>
     </row>
     <row r="122" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="351"/>
-      <c r="B122" s="353"/>
+      <c r="A122" s="353"/>
+      <c r="B122" s="355"/>
       <c r="C122" s="260" t="s">
         <v>108</v>
       </c>
@@ -8402,29 +8473,29 @@
       <c r="G122" s="40"/>
       <c r="H122" s="78"/>
       <c r="I122" s="41" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="J122" s="34" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K122" s="278" t="s">
         <v>45</v>
       </c>
       <c r="L122" s="182" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="123" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A123" s="351"/>
-      <c r="B123" s="353"/>
+      <c r="A123" s="353"/>
+      <c r="B123" s="355"/>
       <c r="C123" s="261" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D123" s="164" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="E123" s="164" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F123" s="256" t="s">
         <v>21</v>
@@ -8432,29 +8503,29 @@
       <c r="G123" s="236"/>
       <c r="H123" s="78"/>
       <c r="I123" s="139" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="J123" s="138" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K123" s="175" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="L123" s="183" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="124" spans="1:12" ht="57" x14ac:dyDescent="0.25">
-      <c r="A124" s="351"/>
-      <c r="B124" s="353"/>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="A124" s="353"/>
+      <c r="B124" s="355"/>
       <c r="C124" s="261" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D124" s="164" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E124" s="164" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F124" s="256" t="s">
         <v>57</v>
@@ -8464,29 +8535,29 @@
       </c>
       <c r="H124" s="78"/>
       <c r="I124" s="139" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="J124" s="138" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="K124" s="286" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="L124" s="183" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="125" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A125" s="351"/>
-      <c r="B125" s="353"/>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A125" s="353"/>
+      <c r="B125" s="355"/>
       <c r="C125" s="261" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D125" s="164" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E125" s="164" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F125" s="256" t="s">
         <v>14</v>
@@ -8496,29 +8567,29 @@
       </c>
       <c r="H125" s="78"/>
       <c r="I125" s="139" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="J125" s="138" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K125" s="174" t="s">
         <v>38</v>
       </c>
       <c r="L125" s="230" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="126" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A126" s="351"/>
-      <c r="B126" s="353"/>
+      <c r="A126" s="353"/>
+      <c r="B126" s="355"/>
       <c r="C126" s="261" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D126" s="164" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="E126" s="164" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="F126" s="256" t="s">
         <v>14</v>
@@ -8528,29 +8599,29 @@
       </c>
       <c r="H126" s="78"/>
       <c r="I126" s="139" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="J126" s="138" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K126" s="175" t="s">
         <v>38</v>
       </c>
       <c r="L126" s="183" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="127" spans="1:12" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="343"/>
-      <c r="B127" s="354"/>
+      <c r="A127" s="333"/>
+      <c r="B127" s="356"/>
       <c r="C127" s="262" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D127" s="117" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="E127" s="117" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="F127" s="258" t="s">
         <v>14</v>
@@ -8560,16 +8631,16 @@
       </c>
       <c r="H127" s="137"/>
       <c r="I127" s="150" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="J127" s="148" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K127" s="185" t="s">
         <v>38</v>
       </c>
       <c r="L127" s="151" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="128" spans="1:12" ht="8.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8587,10 +8658,10 @@
       <c r="L128" s="51"/>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A129" s="325" t="s">
+      <c r="A129" s="357" t="s">
         <v>117</v>
       </c>
-      <c r="B129" s="329" t="s">
+      <c r="B129" s="348" t="s">
         <v>118</v>
       </c>
       <c r="C129" s="97"/>
@@ -8606,9 +8677,9 @@
       <c r="K129" s="97"/>
       <c r="L129" s="85"/>
     </row>
-    <row r="130" spans="1:12" ht="123.75" x14ac:dyDescent="0.25">
-      <c r="A130" s="326"/>
-      <c r="B130" s="330"/>
+    <row r="130" spans="1:12" ht="101.25" x14ac:dyDescent="0.25">
+      <c r="A130" s="351"/>
+      <c r="B130" s="349"/>
       <c r="C130" s="3" t="s">
         <v>119</v>
       </c>
@@ -8627,18 +8698,18 @@
         <v>122</v>
       </c>
       <c r="J130" s="167" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K130" s="1" t="s">
         <v>17</v>
       </c>
       <c r="L130" s="73" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="131" spans="1:12" ht="113.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="328"/>
-      <c r="B131" s="332"/>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="352"/>
+      <c r="B131" s="350"/>
       <c r="C131" s="100" t="s">
         <v>123</v>
       </c>
@@ -8654,16 +8725,16 @@
       <c r="G131" s="103"/>
       <c r="H131" s="54"/>
       <c r="I131" s="86" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="J131" s="186" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K131" s="187" t="s">
         <v>125</v>
       </c>
       <c r="L131" s="87" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="132" spans="1:12" ht="8.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8680,33 +8751,33 @@
       <c r="K132" s="49"/>
       <c r="L132" s="51"/>
     </row>
-    <row r="133" spans="1:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="A133" s="346" t="s">
+    <row r="133" spans="1:12" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A133" s="323" t="s">
         <v>126</v>
       </c>
-      <c r="B133" s="329" t="s">
+      <c r="B133" s="348" t="s">
         <v>127</v>
       </c>
-      <c r="C133" s="337"/>
-      <c r="D133" s="337"/>
-      <c r="E133" s="337"/>
-      <c r="F133" s="337"/>
-      <c r="G133" s="338"/>
+      <c r="C133" s="343"/>
+      <c r="D133" s="343"/>
+      <c r="E133" s="343"/>
+      <c r="F133" s="343"/>
+      <c r="G133" s="344"/>
       <c r="H133" s="43"/>
       <c r="I133" s="203" t="s">
         <v>131</v>
       </c>
       <c r="J133" s="178"/>
       <c r="K133" s="219" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="L133" s="179" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="134" spans="1:12" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="326"/>
-      <c r="B134" s="330"/>
+      <c r="A134" s="351"/>
+      <c r="B134" s="349"/>
       <c r="C134" s="3" t="s">
         <v>128</v>
       </c>
@@ -8731,12 +8802,12 @@
         <v>133</v>
       </c>
       <c r="L134" s="74" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="135" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A135" s="326"/>
-      <c r="B135" s="330"/>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A135" s="351"/>
+      <c r="B135" s="349"/>
       <c r="C135" s="3" t="s">
         <v>134</v>
       </c>
@@ -8761,12 +8832,12 @@
         <v>137</v>
       </c>
       <c r="L135" s="74" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="136" spans="1:12" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="328"/>
-      <c r="B136" s="332"/>
+      <c r="A136" s="352"/>
+      <c r="B136" s="350"/>
       <c r="C136" s="100" t="s">
         <v>138</v>
       </c>
@@ -8782,16 +8853,16 @@
       <c r="G136" s="103"/>
       <c r="H136" s="54"/>
       <c r="I136" s="104" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="J136" s="105" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K136" s="106" t="s">
         <v>141</v>
       </c>
       <c r="L136" s="107" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="137" spans="1:12" ht="8.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8809,32 +8880,32 @@
       <c r="L137" s="51"/>
     </row>
     <row r="138" spans="1:12" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="346" t="s">
-        <v>298</v>
-      </c>
-      <c r="B138" s="329" t="s">
+      <c r="A138" s="323" t="s">
+        <v>291</v>
+      </c>
+      <c r="B138" s="348" t="s">
         <v>127</v>
       </c>
-      <c r="C138" s="337"/>
-      <c r="D138" s="337"/>
-      <c r="E138" s="337"/>
-      <c r="F138" s="337"/>
-      <c r="G138" s="338"/>
+      <c r="C138" s="343"/>
+      <c r="D138" s="343"/>
+      <c r="E138" s="343"/>
+      <c r="F138" s="343"/>
+      <c r="G138" s="344"/>
       <c r="H138" s="43"/>
       <c r="I138" s="108" t="s">
         <v>142</v>
       </c>
       <c r="J138" s="109"/>
       <c r="K138" s="247" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="L138" s="228" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="139" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A139" s="326"/>
-      <c r="B139" s="330"/>
+        <v>166</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A139" s="351"/>
+      <c r="B139" s="349"/>
       <c r="C139" s="3" t="s">
         <v>128</v>
       </c>
@@ -8859,12 +8930,12 @@
         <v>133</v>
       </c>
       <c r="L139" s="71" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="140" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A140" s="326"/>
-      <c r="B140" s="330"/>
+        <v>298</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A140" s="351"/>
+      <c r="B140" s="349"/>
       <c r="C140" s="3" t="s">
         <v>134</v>
       </c>
@@ -8889,12 +8960,12 @@
         <v>137</v>
       </c>
       <c r="L140" s="71" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
     </row>
     <row r="141" spans="1:12" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="328"/>
-      <c r="B141" s="332"/>
+      <c r="A141" s="352"/>
+      <c r="B141" s="350"/>
       <c r="C141" s="100" t="s">
         <v>138</v>
       </c>
@@ -8910,16 +8981,16 @@
       <c r="G141" s="103"/>
       <c r="H141" s="54"/>
       <c r="I141" s="86" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="J141" s="110" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K141" s="101" t="s">
         <v>141</v>
       </c>
       <c r="L141" s="87" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="142" spans="1:12" ht="8.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8936,33 +9007,33 @@
       <c r="K142" s="49"/>
       <c r="L142" s="51"/>
     </row>
-    <row r="143" spans="1:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="A143" s="346" t="s">
-        <v>171</v>
-      </c>
-      <c r="B143" s="329" t="s">
+    <row r="143" spans="1:12" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A143" s="323" t="s">
+        <v>169</v>
+      </c>
+      <c r="B143" s="348" t="s">
         <v>127</v>
       </c>
-      <c r="C143" s="357"/>
-      <c r="D143" s="357"/>
-      <c r="E143" s="357"/>
-      <c r="F143" s="357"/>
-      <c r="G143" s="358"/>
+      <c r="C143" s="345"/>
+      <c r="D143" s="345"/>
+      <c r="E143" s="345"/>
+      <c r="F143" s="345"/>
+      <c r="G143" s="346"/>
       <c r="H143" s="111"/>
       <c r="I143" s="108" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="J143" s="109"/>
       <c r="K143" s="247" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="L143" s="228" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="144" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A144" s="347"/>
-      <c r="B144" s="330"/>
+        <v>166</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A144" s="324"/>
+      <c r="B144" s="349"/>
       <c r="C144" s="173" t="s">
         <v>128</v>
       </c>
@@ -8978,7 +9049,7 @@
       <c r="G144" s="237"/>
       <c r="H144" s="77"/>
       <c r="I144" s="239" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="J144" s="167" t="s">
         <v>132</v>
@@ -8987,12 +9058,12 @@
         <v>133</v>
       </c>
       <c r="L144" s="230" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="145" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A145" s="347"/>
-      <c r="B145" s="330"/>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A145" s="324"/>
+      <c r="B145" s="349"/>
       <c r="C145" s="173" t="s">
         <v>134</v>
       </c>
@@ -9008,7 +9079,7 @@
       <c r="G145" s="237"/>
       <c r="H145" s="77"/>
       <c r="I145" s="239" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="J145" s="167" t="s">
         <v>136</v>
@@ -9017,12 +9088,12 @@
         <v>137</v>
       </c>
       <c r="L145" s="230" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="146" spans="1:12" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="350"/>
-      <c r="B146" s="332"/>
+      <c r="A146" s="347"/>
+      <c r="B146" s="350"/>
       <c r="C146" s="184" t="s">
         <v>138</v>
       </c>
@@ -9038,16 +9109,16 @@
       <c r="G146" s="103"/>
       <c r="H146" s="113"/>
       <c r="I146" s="86" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="J146" s="110" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K146" s="187" t="s">
         <v>141</v>
       </c>
       <c r="L146" s="188" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="147" spans="1:12" ht="8.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -9065,10 +9136,10 @@
       <c r="L147" s="51"/>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A148" s="346" t="s">
+      <c r="A148" s="323" t="s">
         <v>143</v>
       </c>
-      <c r="B148" s="329" t="s">
+      <c r="B148" s="348" t="s">
         <v>127</v>
       </c>
       <c r="C148" s="97"/>
@@ -9083,8 +9154,8 @@
       <c r="L148" s="115"/>
     </row>
     <row r="149" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A149" s="326"/>
-      <c r="B149" s="330"/>
+      <c r="A149" s="351"/>
+      <c r="B149" s="349"/>
       <c r="C149" s="3" t="s">
         <v>128</v>
       </c>
@@ -9100,21 +9171,21 @@
       <c r="G149" s="237"/>
       <c r="H149" s="162"/>
       <c r="I149" s="240" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="J149" s="163" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K149" s="164" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="L149" s="74" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="150" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A150" s="326"/>
-      <c r="B150" s="330"/>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A150" s="351"/>
+      <c r="B150" s="349"/>
       <c r="C150" s="3" t="s">
         <v>134</v>
       </c>
@@ -9130,21 +9201,21 @@
       <c r="G150" s="237"/>
       <c r="H150" s="162"/>
       <c r="I150" s="240" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="J150" s="163" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K150" s="164" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="L150" s="182" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="151" spans="1:12" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="328"/>
-      <c r="B151" s="332"/>
+      <c r="A151" s="352"/>
+      <c r="B151" s="350"/>
       <c r="C151" s="100" t="s">
         <v>138</v>
       </c>
@@ -9160,16 +9231,16 @@
       <c r="G151" s="103"/>
       <c r="H151" s="54"/>
       <c r="I151" s="104" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="J151" s="116" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K151" s="117" t="s">
         <v>145</v>
       </c>
       <c r="L151" s="107" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="152" spans="1:12" ht="8.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -9187,28 +9258,28 @@
       <c r="L152" s="51"/>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A153" s="325" t="s">
+      <c r="A153" s="357" t="s">
         <v>146</v>
       </c>
-      <c r="B153" s="333" t="s">
+      <c r="B153" s="361" t="s">
         <v>147</v>
       </c>
-      <c r="C153" s="360"/>
-      <c r="D153" s="360"/>
-      <c r="E153" s="360"/>
-      <c r="F153" s="360"/>
-      <c r="G153" s="361"/>
+      <c r="C153" s="339"/>
+      <c r="D153" s="339"/>
+      <c r="E153" s="339"/>
+      <c r="F153" s="339"/>
+      <c r="G153" s="340"/>
       <c r="H153" s="43"/>
       <c r="I153" s="108" t="s">
         <v>131</v>
       </c>
-      <c r="J153" s="359"/>
-      <c r="K153" s="359"/>
+      <c r="J153" s="341"/>
+      <c r="K153" s="341"/>
       <c r="L153" s="88"/>
     </row>
     <row r="154" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="326"/>
-      <c r="B154" s="334"/>
+      <c r="A154" s="351"/>
+      <c r="B154" s="362"/>
       <c r="C154" s="29" t="s">
         <v>148</v>
       </c>
@@ -9233,12 +9304,12 @@
         <v>17</v>
       </c>
       <c r="L154" s="71" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="155" spans="1:12" ht="147" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A155" s="328"/>
-      <c r="B155" s="336"/>
+        <v>171</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" ht="124.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A155" s="352"/>
+      <c r="B155" s="363"/>
       <c r="C155" s="89" t="s">
         <v>152</v>
       </c>
@@ -9246,7 +9317,7 @@
         <v>153</v>
       </c>
       <c r="E155" s="90" t="s">
-        <v>154</v>
+        <v>406</v>
       </c>
       <c r="F155" s="91" t="s">
         <v>21</v>
@@ -9254,16 +9325,16 @@
       <c r="G155" s="92"/>
       <c r="H155" s="54"/>
       <c r="I155" s="93" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="J155" s="94" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K155" s="95" t="s">
-        <v>155</v>
+        <v>407</v>
       </c>
       <c r="L155" s="118" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="156" spans="1:12" ht="8.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -9281,28 +9352,28 @@
       <c r="L156" s="51"/>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A157" s="346" t="s">
-        <v>299</v>
-      </c>
-      <c r="B157" s="333" t="s">
+      <c r="A157" s="323" t="s">
+        <v>292</v>
+      </c>
+      <c r="B157" s="361" t="s">
         <v>147</v>
       </c>
-      <c r="C157" s="360"/>
-      <c r="D157" s="360"/>
-      <c r="E157" s="360"/>
-      <c r="F157" s="360"/>
-      <c r="G157" s="361"/>
+      <c r="C157" s="339"/>
+      <c r="D157" s="339"/>
+      <c r="E157" s="339"/>
+      <c r="F157" s="339"/>
+      <c r="G157" s="340"/>
       <c r="H157" s="43"/>
       <c r="I157" s="108" t="s">
-        <v>175</v>
-      </c>
-      <c r="J157" s="359"/>
-      <c r="K157" s="359"/>
+        <v>173</v>
+      </c>
+      <c r="J157" s="341"/>
+      <c r="K157" s="341"/>
       <c r="L157" s="88"/>
     </row>
-    <row r="158" spans="1:12" ht="168.75" x14ac:dyDescent="0.25">
-      <c r="A158" s="326"/>
-      <c r="B158" s="334"/>
+    <row r="158" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+      <c r="A158" s="351"/>
+      <c r="B158" s="362"/>
       <c r="C158" s="29" t="s">
         <v>148</v>
       </c>
@@ -9318,21 +9389,21 @@
       <c r="G158" s="39"/>
       <c r="H158" s="162"/>
       <c r="I158" s="41" t="s">
+        <v>173</v>
+      </c>
+      <c r="J158" s="34" t="s">
+        <v>174</v>
+      </c>
+      <c r="K158" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="J158" s="34" t="s">
-        <v>176</v>
-      </c>
-      <c r="K158" s="7" t="s">
-        <v>177</v>
-      </c>
       <c r="L158" s="71" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="159" spans="1:12" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="328"/>
-      <c r="B159" s="336"/>
+      <c r="A159" s="352"/>
+      <c r="B159" s="363"/>
       <c r="C159" s="89" t="s">
         <v>152</v>
       </c>
@@ -9340,7 +9411,7 @@
         <v>153</v>
       </c>
       <c r="E159" s="90" t="s">
-        <v>154</v>
+        <v>406</v>
       </c>
       <c r="F159" s="91" t="s">
         <v>21</v>
@@ -9348,16 +9419,16 @@
       <c r="G159" s="92"/>
       <c r="H159" s="54"/>
       <c r="I159" s="93" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="J159" s="94" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K159" s="95" t="s">
-        <v>155</v>
+        <v>407</v>
       </c>
       <c r="L159" s="118" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="160" spans="1:12" ht="8.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -9375,16 +9446,16 @@
       <c r="L160" s="133"/>
     </row>
     <row r="161" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="342" t="s">
-        <v>294</v>
-      </c>
-      <c r="B161" s="344"/>
+      <c r="A161" s="332" t="s">
+        <v>287</v>
+      </c>
+      <c r="B161" s="334"/>
       <c r="C161" s="140" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D161" s="141"/>
       <c r="E161" s="141" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F161" s="142">
         <v>1</v>
@@ -9392,27 +9463,27 @@
       <c r="G161" s="143"/>
       <c r="H161" s="136"/>
       <c r="I161" s="144" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="J161" s="145" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K161" s="141" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="L161" s="146" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
     </row>
     <row r="162" spans="1:12" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A162" s="343"/>
-      <c r="B162" s="345"/>
+      <c r="A162" s="333"/>
+      <c r="B162" s="335"/>
       <c r="C162" s="147" t="s">
         <v>138</v>
       </c>
       <c r="D162" s="185"/>
       <c r="E162" s="185" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="F162" s="148" t="s">
         <v>14</v>
@@ -9420,16 +9491,16 @@
       <c r="G162" s="149"/>
       <c r="H162" s="137"/>
       <c r="I162" s="150" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="J162" s="148" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K162" s="185" t="s">
-        <v>244</v>
+        <v>411</v>
       </c>
       <c r="L162" s="151" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="163" spans="1:12" ht="8.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -9447,16 +9518,16 @@
       <c r="L163" s="133"/>
     </row>
     <row r="164" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A164" s="342" t="s">
-        <v>278</v>
-      </c>
-      <c r="B164" s="344"/>
+      <c r="A164" s="332" t="s">
+        <v>273</v>
+      </c>
+      <c r="B164" s="334"/>
       <c r="C164" s="140" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D164" s="141"/>
       <c r="E164" s="141" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F164" s="142">
         <v>1</v>
@@ -9464,27 +9535,27 @@
       <c r="G164" s="143"/>
       <c r="H164" s="136"/>
       <c r="I164" s="144" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="J164" s="145" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K164" s="141" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="L164" s="287" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
     </row>
     <row r="165" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A165" s="343"/>
-      <c r="B165" s="345"/>
+      <c r="A165" s="333"/>
+      <c r="B165" s="335"/>
       <c r="C165" s="147" t="s">
         <v>138</v>
       </c>
       <c r="D165" s="185"/>
       <c r="E165" s="185" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="F165" s="148" t="s">
         <v>14</v>
@@ -9492,16 +9563,16 @@
       <c r="G165" s="149"/>
       <c r="H165" s="137"/>
       <c r="I165" s="150" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="J165" s="148" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K165" s="185" t="s">
-        <v>280</v>
+        <v>412</v>
       </c>
       <c r="L165" s="151" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="166" spans="1:12" ht="8.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -9519,16 +9590,16 @@
       <c r="L166" s="155"/>
     </row>
     <row r="167" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A167" s="342" t="s">
-        <v>304</v>
-      </c>
-      <c r="B167" s="344"/>
+      <c r="A167" s="332" t="s">
+        <v>296</v>
+      </c>
+      <c r="B167" s="334"/>
       <c r="C167" s="140" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D167" s="141"/>
       <c r="E167" s="141" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F167" s="142">
         <v>1</v>
@@ -9536,27 +9607,27 @@
       <c r="G167" s="143"/>
       <c r="H167" s="136"/>
       <c r="I167" s="144" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="J167" s="145" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K167" s="141" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="L167" s="146" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
     </row>
     <row r="168" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A168" s="343"/>
-      <c r="B168" s="345"/>
+      <c r="A168" s="333"/>
+      <c r="B168" s="335"/>
       <c r="C168" s="147" t="s">
         <v>138</v>
       </c>
       <c r="D168" s="185"/>
       <c r="E168" s="185" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="F168" s="148" t="s">
         <v>14</v>
@@ -9564,16 +9635,16 @@
       <c r="G168" s="149"/>
       <c r="H168" s="137"/>
       <c r="I168" s="150" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="J168" s="148" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K168" s="185" t="s">
-        <v>305</v>
+        <v>413</v>
       </c>
       <c r="L168" s="151" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="169" spans="1:12" ht="8.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -9590,17 +9661,17 @@
       <c r="K169" s="47"/>
       <c r="L169" s="155"/>
     </row>
-    <row r="170" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A170" s="342" t="s">
-        <v>288</v>
-      </c>
-      <c r="B170" s="344"/>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A170" s="332" t="s">
+        <v>282</v>
+      </c>
+      <c r="B170" s="334"/>
       <c r="C170" s="140" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D170" s="141"/>
       <c r="E170" s="141" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F170" s="142">
         <v>1</v>
@@ -9608,27 +9679,27 @@
       <c r="G170" s="143"/>
       <c r="H170" s="136"/>
       <c r="I170" s="144" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="J170" s="145" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K170" s="141" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="L170" s="146" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
     </row>
     <row r="171" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A171" s="343"/>
-      <c r="B171" s="345"/>
+      <c r="A171" s="333"/>
+      <c r="B171" s="335"/>
       <c r="C171" s="147" t="s">
         <v>138</v>
       </c>
       <c r="D171" s="185"/>
       <c r="E171" s="185" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="F171" s="148" t="s">
         <v>14</v>
@@ -9636,16 +9707,16 @@
       <c r="G171" s="149"/>
       <c r="H171" s="137"/>
       <c r="I171" s="150" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="J171" s="148" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K171" s="185" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="L171" s="151" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
     </row>
     <row r="172" spans="1:12" ht="8.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -9662,19 +9733,19 @@
       <c r="K172" s="47"/>
       <c r="L172" s="155"/>
     </row>
-    <row r="173" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A173" s="339" t="s">
-        <v>245</v>
-      </c>
-      <c r="B173" s="365" t="s">
-        <v>246</v>
+    <row r="173" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A173" s="358" t="s">
+        <v>240</v>
+      </c>
+      <c r="B173" s="327" t="s">
+        <v>241</v>
       </c>
       <c r="C173" s="165" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="D173" s="166"/>
       <c r="E173" s="166" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="F173" s="167">
         <v>1</v>
@@ -9682,27 +9753,27 @@
       <c r="G173" s="201"/>
       <c r="H173" s="157"/>
       <c r="I173" s="204" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J173" s="168" t="s">
         <v>16</v>
       </c>
       <c r="K173" s="169" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="L173" s="181" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A174" s="340"/>
-      <c r="B174" s="366"/>
+      <c r="A174" s="359"/>
+      <c r="B174" s="328"/>
       <c r="C174" s="165" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="D174" s="166"/>
       <c r="E174" s="166" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="F174" s="167" t="s">
         <v>14</v>
@@ -9710,27 +9781,27 @@
       <c r="G174" s="201"/>
       <c r="H174" s="157"/>
       <c r="I174" s="204" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="J174" s="168" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K174" s="169" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="L174" s="180" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A175" s="340"/>
-      <c r="B175" s="366"/>
+      <c r="A175" s="359"/>
+      <c r="B175" s="328"/>
       <c r="C175" s="165" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="D175" s="166"/>
       <c r="E175" s="166" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="F175" s="167">
         <v>1</v>
@@ -9738,27 +9809,27 @@
       <c r="G175" s="201"/>
       <c r="H175" s="157"/>
       <c r="I175" s="204" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="J175" s="168" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="K175" s="169" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="L175" s="180" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A176" s="340"/>
-      <c r="B176" s="366"/>
+      <c r="A176" s="359"/>
+      <c r="B176" s="328"/>
       <c r="C176" s="172" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="D176" s="169"/>
       <c r="E176" s="169" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F176" s="163" t="s">
         <v>57</v>
@@ -9766,27 +9837,27 @@
       <c r="G176" s="218"/>
       <c r="H176" s="157"/>
       <c r="I176" s="204" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="J176" s="168" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K176" s="169" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="L176" s="180" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A177" s="340"/>
-      <c r="B177" s="366"/>
+      <c r="A177" s="359"/>
+      <c r="B177" s="328"/>
       <c r="C177" s="172" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="D177" s="169"/>
       <c r="E177" s="169" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="F177" s="163" t="s">
         <v>57</v>
@@ -9794,27 +9865,27 @@
       <c r="G177" s="218"/>
       <c r="H177" s="157"/>
       <c r="I177" s="204" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="J177" s="168" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K177" s="169" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="L177" s="180" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="178" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="341"/>
-      <c r="B178" s="367"/>
+      <c r="A178" s="360"/>
+      <c r="B178" s="342"/>
       <c r="C178" s="190" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="D178" s="191"/>
       <c r="E178" s="191" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="F178" s="186" t="s">
         <v>67</v>
@@ -9822,16 +9893,16 @@
       <c r="G178" s="202"/>
       <c r="H178" s="157"/>
       <c r="I178" s="206" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="J178" s="195" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K178" s="196" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="L178" s="197" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="179" spans="1:12" ht="8.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -9849,20 +9920,20 @@
       <c r="L179" s="217"/>
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A180" s="371" t="s">
-        <v>276</v>
-      </c>
-      <c r="B180" s="365" t="s">
-        <v>261</v>
+      <c r="A180" s="329" t="s">
+        <v>271</v>
+      </c>
+      <c r="B180" s="327" t="s">
+        <v>256</v>
       </c>
       <c r="C180" s="220" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="D180" s="193" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="E180" s="193" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="F180" s="192" t="s">
         <v>14</v>
@@ -9872,29 +9943,29 @@
       </c>
       <c r="H180" s="157"/>
       <c r="I180" s="205" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="J180" s="192" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K180" s="193" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="L180" s="194" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="181" spans="1:12" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A181" s="372"/>
-      <c r="B181" s="366"/>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A181" s="330"/>
+      <c r="B181" s="328"/>
       <c r="C181" s="172" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D181" s="169" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="E181" s="169" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="F181" s="168" t="s">
         <v>14</v>
@@ -9904,29 +9975,29 @@
       </c>
       <c r="H181" s="157"/>
       <c r="I181" s="204" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J181" s="168" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="K181" s="279" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="L181" s="182" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
     </row>
     <row r="182" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A182" s="372"/>
-      <c r="B182" s="366"/>
+      <c r="A182" s="330"/>
+      <c r="B182" s="328"/>
       <c r="C182" s="172" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D182" s="169" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="E182" s="169" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="F182" s="168" t="s">
         <v>14</v>
@@ -9936,29 +10007,29 @@
       </c>
       <c r="H182" s="157"/>
       <c r="I182" s="204" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="J182" s="168" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K182" s="169" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="L182" s="180" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A183" s="372"/>
-      <c r="B183" s="366"/>
+      <c r="A183" s="330"/>
+      <c r="B183" s="328"/>
       <c r="C183" s="172" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="D183" s="169" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="E183" s="169" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="F183" s="168" t="s">
         <v>14</v>
@@ -9968,29 +10039,29 @@
       </c>
       <c r="H183" s="157"/>
       <c r="I183" s="204" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="J183" s="168" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K183" s="169" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="L183" s="180" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="184" spans="1:12" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A184" s="373"/>
-      <c r="B184" s="366"/>
+      <c r="A184" s="331"/>
+      <c r="B184" s="328"/>
       <c r="C184" s="295" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="D184" s="296" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="E184" s="296" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="F184" s="297" t="s">
         <v>14</v>
@@ -10000,16 +10071,16 @@
       </c>
       <c r="H184" s="157"/>
       <c r="I184" s="299" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="J184" s="297" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K184" s="296" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="L184" s="300" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="185" spans="1:12" ht="8.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -10027,20 +10098,20 @@
       <c r="L185" s="46"/>
     </row>
     <row r="186" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="368" t="s">
-        <v>354</v>
-      </c>
-      <c r="B186" s="362" t="s">
-        <v>355</v>
+      <c r="A186" s="320" t="s">
+        <v>342</v>
+      </c>
+      <c r="B186" s="336" t="s">
+        <v>343</v>
       </c>
       <c r="C186" s="291" t="s">
-        <v>356</v>
+        <v>404</v>
       </c>
       <c r="D186" s="277" t="s">
-        <v>357</v>
+        <v>344</v>
       </c>
       <c r="E186" s="277" t="s">
-        <v>359</v>
+        <v>346</v>
       </c>
       <c r="F186" s="292" t="s">
         <v>21</v>
@@ -10048,27 +10119,27 @@
       <c r="G186" s="293"/>
       <c r="H186" s="136"/>
       <c r="I186" s="144" t="s">
-        <v>362</v>
+        <v>349</v>
       </c>
       <c r="J186" s="145" t="s">
-        <v>361</v>
+        <v>348</v>
       </c>
       <c r="K186" s="141" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="L186" s="146"/>
     </row>
-    <row r="187" spans="1:12" ht="46.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A187" s="369"/>
-      <c r="B187" s="363"/>
+    <row r="187" spans="1:12" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A187" s="321"/>
+      <c r="B187" s="337"/>
       <c r="C187" s="147" t="s">
         <v>152</v>
       </c>
       <c r="D187" s="185" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="E187" s="185" t="s">
-        <v>360</v>
+        <v>347</v>
       </c>
       <c r="F187" s="185">
         <v>1</v>
@@ -10076,16 +10147,16 @@
       <c r="G187" s="294"/>
       <c r="H187" s="137"/>
       <c r="I187" s="150" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="J187" s="148" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K187" s="185" t="s">
-        <v>363</v>
+        <v>405</v>
       </c>
       <c r="L187" s="151" t="s">
-        <v>360</v>
+        <v>347</v>
       </c>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.25">
@@ -11672,6 +11743,60 @@
     </row>
   </sheetData>
   <mergeCells count="70">
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="A3:A10"/>
+    <mergeCell ref="B3:B10"/>
+    <mergeCell ref="A11:G11"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="A22:A33"/>
+    <mergeCell ref="B22:B33"/>
+    <mergeCell ref="A65:A74"/>
+    <mergeCell ref="B65:B74"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A13:A20"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="B13:B20"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="A173:A178"/>
+    <mergeCell ref="A167:A168"/>
+    <mergeCell ref="B167:B168"/>
+    <mergeCell ref="A148:A151"/>
+    <mergeCell ref="B148:B151"/>
+    <mergeCell ref="A153:A155"/>
+    <mergeCell ref="B153:B155"/>
+    <mergeCell ref="A157:A159"/>
+    <mergeCell ref="B157:B159"/>
+    <mergeCell ref="B164:B165"/>
+    <mergeCell ref="A170:A171"/>
+    <mergeCell ref="A76:A84"/>
+    <mergeCell ref="B76:B84"/>
+    <mergeCell ref="A143:A146"/>
+    <mergeCell ref="B143:B146"/>
+    <mergeCell ref="A106:A114"/>
+    <mergeCell ref="B106:B114"/>
+    <mergeCell ref="A133:A136"/>
+    <mergeCell ref="B133:B136"/>
+    <mergeCell ref="A138:A141"/>
+    <mergeCell ref="B138:B141"/>
+    <mergeCell ref="A116:A127"/>
+    <mergeCell ref="B116:B127"/>
+    <mergeCell ref="A96:A104"/>
+    <mergeCell ref="B96:B104"/>
+    <mergeCell ref="A129:A131"/>
+    <mergeCell ref="B129:B131"/>
+    <mergeCell ref="B186:B187"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="J65:K65"/>
+    <mergeCell ref="C153:G153"/>
+    <mergeCell ref="B173:B178"/>
+    <mergeCell ref="C133:G133"/>
+    <mergeCell ref="C138:G138"/>
+    <mergeCell ref="C143:G143"/>
+    <mergeCell ref="J153:K153"/>
+    <mergeCell ref="J157:K157"/>
+    <mergeCell ref="C157:G157"/>
     <mergeCell ref="A186:A187"/>
     <mergeCell ref="C116:G116"/>
     <mergeCell ref="A35:A43"/>
@@ -11688,60 +11813,6 @@
     <mergeCell ref="B161:B162"/>
     <mergeCell ref="A164:A165"/>
     <mergeCell ref="B170:B171"/>
-    <mergeCell ref="B186:B187"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="C65:G65"/>
-    <mergeCell ref="J65:K65"/>
-    <mergeCell ref="C153:G153"/>
-    <mergeCell ref="B173:B178"/>
-    <mergeCell ref="C133:G133"/>
-    <mergeCell ref="C138:G138"/>
-    <mergeCell ref="C143:G143"/>
-    <mergeCell ref="J153:K153"/>
-    <mergeCell ref="J157:K157"/>
-    <mergeCell ref="C157:G157"/>
-    <mergeCell ref="A76:A84"/>
-    <mergeCell ref="B76:B84"/>
-    <mergeCell ref="A143:A146"/>
-    <mergeCell ref="B143:B146"/>
-    <mergeCell ref="A106:A114"/>
-    <mergeCell ref="B106:B114"/>
-    <mergeCell ref="A133:A136"/>
-    <mergeCell ref="B133:B136"/>
-    <mergeCell ref="A138:A141"/>
-    <mergeCell ref="B138:B141"/>
-    <mergeCell ref="A116:A127"/>
-    <mergeCell ref="B116:B127"/>
-    <mergeCell ref="A96:A104"/>
-    <mergeCell ref="B96:B104"/>
-    <mergeCell ref="A129:A131"/>
-    <mergeCell ref="B129:B131"/>
-    <mergeCell ref="A173:A178"/>
-    <mergeCell ref="A167:A168"/>
-    <mergeCell ref="B167:B168"/>
-    <mergeCell ref="A148:A151"/>
-    <mergeCell ref="B148:B151"/>
-    <mergeCell ref="A153:A155"/>
-    <mergeCell ref="B153:B155"/>
-    <mergeCell ref="A157:A159"/>
-    <mergeCell ref="B157:B159"/>
-    <mergeCell ref="B164:B165"/>
-    <mergeCell ref="A170:A171"/>
-    <mergeCell ref="A22:A33"/>
-    <mergeCell ref="B22:B33"/>
-    <mergeCell ref="A65:A74"/>
-    <mergeCell ref="B65:B74"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A13:A20"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="B13:B20"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="A3:A10"/>
-    <mergeCell ref="B3:B10"/>
-    <mergeCell ref="A11:G11"/>
-    <mergeCell ref="I11:L11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
